--- a/dataset-inventory/eebo/eebo_dataset_standard_1.xlsx
+++ b/dataset-inventory/eebo/eebo_dataset_standard_1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jasmine\Documents\UIUC\Fall 2019\IS590 Open Data Mashups\dataset-inventory\eebo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DCED00B-68D2-485D-8B9C-6B7AE06746A5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD8B8940-D907-411B-99F6-B2432CEE63FB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5600" yWindow="10" windowWidth="13600" windowHeight="10190" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2978,14 +2978,15 @@
   <dimension ref="A1:C862"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="21.08984375" style="1" customWidth="1"/>
     <col min="2" max="2" width="22.90625" style="1" customWidth="1"/>
-    <col min="3" max="16384" width="8.7265625" style="1"/>
+    <col min="3" max="3" width="12.81640625" style="1" customWidth="1"/>
+    <col min="4" max="16384" width="8.7265625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
@@ -3007,8 +3008,8 @@
         <v>27862</v>
       </c>
       <c r="C2" s="1">
-        <f>B2/55115</f>
-        <v>0.50552481175723485</v>
+        <f>B2/95552</f>
+        <v>0.29158991962491626</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
@@ -3019,8 +3020,8 @@
         <v>1119</v>
       </c>
       <c r="C3" s="1">
-        <f t="shared" ref="C3:C66" si="0">B3/55115</f>
-        <v>2.0303002812301553E-2</v>
+        <f t="shared" ref="C3:C66" si="0">B3/95552</f>
+        <v>1.1710900870730073E-2</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
@@ -3032,7 +3033,7 @@
       </c>
       <c r="C4" s="1">
         <f t="shared" si="0"/>
-        <v>1.8452326952735191E-2</v>
+        <v>1.0643419290020094E-2</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
@@ -3044,7 +3045,7 @@
       </c>
       <c r="C5" s="1">
         <f t="shared" si="0"/>
-        <v>1.705524811757235E-2</v>
+        <v>9.8375753516409918E-3</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
@@ -3056,7 +3057,7 @@
       </c>
       <c r="C6" s="1">
         <f t="shared" si="0"/>
-        <v>1.6365780640479E-2</v>
+        <v>9.4398861352980572E-3</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
@@ -3068,7 +3069,7 @@
       </c>
       <c r="C7" s="1">
         <f t="shared" si="0"/>
-        <v>1.2392270706704164E-2</v>
+        <v>7.1479403884795716E-3</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
@@ -3080,7 +3081,7 @@
       </c>
       <c r="C8" s="1">
         <f t="shared" si="0"/>
-        <v>9.942846774925157E-3</v>
+        <v>5.7350971198928333E-3</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
@@ -3092,7 +3093,7 @@
       </c>
       <c r="C9" s="1">
         <f t="shared" si="0"/>
-        <v>8.5276240587861749E-3</v>
+        <v>4.9187876758204959E-3</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
@@ -3104,7 +3105,7 @@
       </c>
       <c r="C10" s="1">
         <f t="shared" si="0"/>
-        <v>7.7837249387644018E-3</v>
+        <v>4.4897019423978564E-3</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
@@ -3116,7 +3117,7 @@
       </c>
       <c r="C11" s="1">
         <f t="shared" si="0"/>
-        <v>7.3119840333847408E-3</v>
+        <v>4.2175987943737442E-3</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.35">
@@ -3128,7 +3129,7 @@
       </c>
       <c r="C12" s="1">
         <f t="shared" si="0"/>
-        <v>5.1165744352717046E-3</v>
+        <v>2.9512726054922974E-3</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.35">
@@ -3140,7 +3141,7 @@
       </c>
       <c r="C13" s="1">
         <f t="shared" si="0"/>
-        <v>4.8988478635580155E-3</v>
+        <v>2.8256865371734763E-3</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.35">
@@ -3152,7 +3153,7 @@
       </c>
       <c r="C14" s="1">
         <f t="shared" si="0"/>
-        <v>4.5541141250113396E-3</v>
+        <v>2.6268419290020094E-3</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.35">
@@ -3164,7 +3165,7 @@
       </c>
       <c r="C15" s="1">
         <f t="shared" si="0"/>
-        <v>3.8827905288941304E-3</v>
+        <v>2.2396182183523107E-3</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.35">
@@ -3176,7 +3177,7 @@
       </c>
       <c r="C16" s="1">
         <f t="shared" si="0"/>
-        <v>3.4654812664428923E-3</v>
+        <v>1.9989115874079035E-3</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.35">
@@ -3188,7 +3189,7 @@
       </c>
       <c r="C17" s="1">
         <f t="shared" si="0"/>
-        <v>3.4110496235144699E-3</v>
+        <v>1.9675150703281981E-3</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.35">
@@ -3200,7 +3201,7 @@
       </c>
       <c r="C18" s="1">
         <f t="shared" si="0"/>
-        <v>3.3929057425383289E-3</v>
+        <v>1.9570495646349631E-3</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.35">
@@ -3212,7 +3213,7 @@
       </c>
       <c r="C19" s="1">
         <f t="shared" si="0"/>
-        <v>3.3747618615621883E-3</v>
+        <v>1.9465840589417281E-3</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.35">
@@ -3224,7 +3225,7 @@
       </c>
       <c r="C20" s="1">
         <f t="shared" si="0"/>
-        <v>3.3747618615621883E-3</v>
+        <v>1.9465840589417281E-3</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.35">
@@ -3236,7 +3237,7 @@
       </c>
       <c r="C21" s="1">
         <f t="shared" si="0"/>
-        <v>3.2840424566814843E-3</v>
+        <v>1.8942565304755526E-3</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.35">
@@ -3248,7 +3249,7 @@
       </c>
       <c r="C22" s="1">
         <f t="shared" si="0"/>
-        <v>2.9937403610632313E-3</v>
+        <v>1.7268084393837911E-3</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.35">
@@ -3260,7 +3261,7 @@
       </c>
       <c r="C23" s="1">
         <f t="shared" si="0"/>
-        <v>2.9393087181348088E-3</v>
+        <v>1.6954119223040857E-3</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.35">
@@ -3272,7 +3273,7 @@
       </c>
       <c r="C24" s="1">
         <f t="shared" si="0"/>
-        <v>2.9211648371586683E-3</v>
+        <v>1.6849464166108507E-3</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.35">
@@ -3284,7 +3285,7 @@
       </c>
       <c r="C25" s="1">
         <f t="shared" si="0"/>
-        <v>2.7578699083734013E-3</v>
+        <v>1.5907568653717348E-3</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.35">
@@ -3296,7 +3297,7 @@
       </c>
       <c r="C26" s="1">
         <f t="shared" si="0"/>
-        <v>2.7397260273972603E-3</v>
+        <v>1.5802913596784996E-3</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.35">
@@ -3308,7 +3309,7 @@
       </c>
       <c r="C27" s="1">
         <f t="shared" si="0"/>
-        <v>2.5764310986119933E-3</v>
+        <v>1.4861018084393839E-3</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.35">
@@ -3320,7 +3321,7 @@
       </c>
       <c r="C28" s="1">
         <f t="shared" si="0"/>
-        <v>2.5582872176358523E-3</v>
+        <v>1.4756363027461487E-3</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.35">
@@ -3332,7 +3333,7 @@
       </c>
       <c r="C29" s="1">
         <f t="shared" si="0"/>
-        <v>2.2316973600653178E-3</v>
+        <v>1.287257200267917E-3</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.35">
@@ -3344,7 +3345,7 @@
       </c>
       <c r="C30" s="1">
         <f t="shared" si="0"/>
-        <v>2.2135534790891772E-3</v>
+        <v>1.2767916945746818E-3</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.35">
@@ -3356,7 +3357,7 @@
       </c>
       <c r="C31" s="1">
         <f t="shared" si="0"/>
-        <v>2.1591218361607547E-3</v>
+        <v>1.2453951774949765E-3</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.35">
@@ -3368,7 +3369,7 @@
       </c>
       <c r="C32" s="1">
         <f t="shared" si="0"/>
-        <v>2.1228340742084732E-3</v>
+        <v>1.2244641661085063E-3</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.35">
@@ -3380,7 +3381,7 @@
       </c>
       <c r="C33" s="1">
         <f t="shared" si="0"/>
-        <v>2.1046901932323323E-3</v>
+        <v>1.2139986604152713E-3</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.35">
@@ -3392,7 +3393,7 @@
       </c>
       <c r="C34" s="1">
         <f t="shared" si="0"/>
-        <v>2.0684024312800507E-3</v>
+        <v>1.1930676490288011E-3</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.35">
@@ -3404,7 +3405,7 @@
       </c>
       <c r="C35" s="1">
         <f t="shared" si="0"/>
-        <v>2.0139707883516282E-3</v>
+        <v>1.1616711319490957E-3</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.35">
@@ -3416,7 +3417,7 @@
       </c>
       <c r="C36" s="1">
         <f t="shared" si="0"/>
-        <v>1.9958269073754877E-3</v>
+        <v>1.1512056262558607E-3</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.35">
@@ -3428,7 +3429,7 @@
       </c>
       <c r="C37" s="1">
         <f t="shared" si="0"/>
-        <v>1.9776830263993467E-3</v>
+        <v>1.1407401205626255E-3</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.35">
@@ -3440,7 +3441,7 @@
       </c>
       <c r="C38" s="1">
         <f t="shared" si="0"/>
-        <v>1.9232513834709245E-3</v>
+        <v>1.1093436034829204E-3</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.35">
@@ -3452,7 +3453,7 @@
       </c>
       <c r="C39" s="1">
         <f t="shared" si="0"/>
-        <v>1.8869636215186429E-3</v>
+        <v>1.0884125920964502E-3</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.35">
@@ -3464,7 +3465,7 @@
       </c>
       <c r="C40" s="1">
         <f t="shared" si="0"/>
-        <v>1.868819740542502E-3</v>
+        <v>1.077947086403215E-3</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.35">
@@ -3476,7 +3477,7 @@
       </c>
       <c r="C41" s="1">
         <f t="shared" si="0"/>
-        <v>1.868819740542502E-3</v>
+        <v>1.077947086403215E-3</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.35">
@@ -3488,7 +3489,7 @@
       </c>
       <c r="C42" s="1">
         <f t="shared" si="0"/>
-        <v>1.7962442166379389E-3</v>
+        <v>1.0360850636302746E-3</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.35">
@@ -3500,7 +3501,7 @@
       </c>
       <c r="C43" s="1">
         <f t="shared" si="0"/>
-        <v>1.7599564546856572E-3</v>
+        <v>1.0151540522438044E-3</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.35">
@@ -3512,7 +3513,7 @@
       </c>
       <c r="C44" s="1">
         <f t="shared" si="0"/>
-        <v>1.6873809307810942E-3</v>
+        <v>9.7329202947086407E-4</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.35">
@@ -3524,7 +3525,7 @@
       </c>
       <c r="C45" s="1">
         <f t="shared" si="0"/>
-        <v>1.6873809307810942E-3</v>
+        <v>9.7329202947086407E-4</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.35">
@@ -3536,7 +3537,7 @@
       </c>
       <c r="C46" s="1">
         <f t="shared" si="0"/>
-        <v>1.6873809307810942E-3</v>
+        <v>9.7329202947086407E-4</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.35">
@@ -3548,7 +3549,7 @@
       </c>
       <c r="C47" s="1">
         <f t="shared" si="0"/>
-        <v>1.6510931688288124E-3</v>
+        <v>9.5236101808439388E-4</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.35">
@@ -3560,7 +3561,7 @@
       </c>
       <c r="C48" s="1">
         <f t="shared" si="0"/>
-        <v>1.6510931688288124E-3</v>
+        <v>9.5236101808439388E-4</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.35">
@@ -3572,7 +3573,7 @@
       </c>
       <c r="C49" s="1">
         <f t="shared" si="0"/>
-        <v>1.6510931688288124E-3</v>
+        <v>9.5236101808439388E-4</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.35">
@@ -3584,7 +3585,7 @@
       </c>
       <c r="C50" s="1">
         <f t="shared" si="0"/>
-        <v>1.6329492878526717E-3</v>
+        <v>9.4189551239115879E-4</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.35">
@@ -3596,7 +3597,7 @@
       </c>
       <c r="C51" s="1">
         <f t="shared" si="0"/>
-        <v>1.6148054068765309E-3</v>
+        <v>9.3143000669792359E-4</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.35">
@@ -3608,7 +3609,7 @@
       </c>
       <c r="C52" s="1">
         <f t="shared" si="0"/>
-        <v>1.5603737639481084E-3</v>
+        <v>9.0003348961821832E-4</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.35">
@@ -3620,7 +3621,7 @@
       </c>
       <c r="C53" s="1">
         <f t="shared" si="0"/>
-        <v>1.5422298829719677E-3</v>
+        <v>8.8956798392498323E-4</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.35">
@@ -3632,7 +3633,7 @@
       </c>
       <c r="C54" s="1">
         <f t="shared" si="0"/>
-        <v>1.5422298829719677E-3</v>
+        <v>8.8956798392498323E-4</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.35">
@@ -3644,7 +3645,7 @@
       </c>
       <c r="C55" s="1">
         <f t="shared" si="0"/>
-        <v>1.5240860019958269E-3</v>
+        <v>8.7910247823174813E-4</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.35">
@@ -3656,7 +3657,7 @@
       </c>
       <c r="C56" s="1">
         <f t="shared" si="0"/>
-        <v>1.5059421210196862E-3</v>
+        <v>8.6863697253851304E-4</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.35">
@@ -3668,7 +3669,7 @@
       </c>
       <c r="C57" s="1">
         <f t="shared" si="0"/>
-        <v>1.4877982400435454E-3</v>
+        <v>8.5817146684527795E-4</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.35">
@@ -3680,7 +3681,7 @@
       </c>
       <c r="C58" s="1">
         <f t="shared" si="0"/>
-        <v>1.4696543590674044E-3</v>
+        <v>8.4770596115204286E-4</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.35">
@@ -3692,7 +3693,7 @@
       </c>
       <c r="C59" s="1">
         <f t="shared" si="0"/>
-        <v>1.4696543590674044E-3</v>
+        <v>8.4770596115204286E-4</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.35">
@@ -3704,7 +3705,7 @@
       </c>
       <c r="C60" s="1">
         <f t="shared" si="0"/>
-        <v>1.4333665971151229E-3</v>
+        <v>8.2677494976557268E-4</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.35">
@@ -3716,7 +3717,7 @@
       </c>
       <c r="C61" s="1">
         <f t="shared" si="0"/>
-        <v>1.4152227161389822E-3</v>
+        <v>8.1630944407233758E-4</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.35">
@@ -3728,7 +3729,7 @@
       </c>
       <c r="C62" s="1">
         <f t="shared" si="0"/>
-        <v>1.3789349541867006E-3</v>
+        <v>7.953784326858674E-4</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.35">
@@ -3740,7 +3741,7 @@
       </c>
       <c r="C63" s="1">
         <f t="shared" si="0"/>
-        <v>1.3607910732105597E-3</v>
+        <v>7.8491292699263231E-4</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.35">
@@ -3752,7 +3753,7 @@
       </c>
       <c r="C64" s="1">
         <f t="shared" si="0"/>
-        <v>1.3426471922344189E-3</v>
+        <v>7.7444742129939722E-4</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.35">
@@ -3764,7 +3765,7 @@
       </c>
       <c r="C65" s="1">
         <f t="shared" si="0"/>
-        <v>1.3245033112582781E-3</v>
+        <v>7.6398191560616213E-4</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.35">
@@ -3776,7 +3777,7 @@
       </c>
       <c r="C66" s="1">
         <f t="shared" si="0"/>
-        <v>1.2882155493059966E-3</v>
+        <v>7.4305090421969194E-4</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.35">
@@ -3787,8 +3788,8 @@
         <v>70</v>
       </c>
       <c r="C67" s="1">
-        <f t="shared" ref="C67:C130" si="1">B67/55115</f>
-        <v>1.2700716683298557E-3</v>
+        <f t="shared" ref="C67:C130" si="1">B67/95552</f>
+        <v>7.3258539852645685E-4</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.35">
@@ -3800,7 +3801,7 @@
       </c>
       <c r="C68" s="1">
         <f t="shared" si="1"/>
-        <v>1.2519277873537149E-3</v>
+        <v>7.2211989283322165E-4</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.35">
@@ -3812,7 +3813,7 @@
       </c>
       <c r="C69" s="1">
         <f t="shared" si="1"/>
-        <v>1.2519277873537149E-3</v>
+        <v>7.2211989283322165E-4</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.35">
@@ -3824,7 +3825,7 @@
       </c>
       <c r="C70" s="1">
         <f t="shared" si="1"/>
-        <v>1.2337839063775741E-3</v>
+        <v>7.1165438713998656E-4</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.35">
@@ -3836,7 +3837,7 @@
       </c>
       <c r="C71" s="1">
         <f t="shared" si="1"/>
-        <v>1.2337839063775741E-3</v>
+        <v>7.1165438713998656E-4</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.35">
@@ -3848,7 +3849,7 @@
       </c>
       <c r="C72" s="1">
         <f t="shared" si="1"/>
-        <v>1.2337839063775741E-3</v>
+        <v>7.1165438713998656E-4</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.35">
@@ -3860,7 +3861,7 @@
       </c>
       <c r="C73" s="1">
         <f t="shared" si="1"/>
-        <v>1.1974961444252926E-3</v>
+        <v>6.9072337575351638E-4</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.35">
@@ -3872,7 +3873,7 @@
       </c>
       <c r="C74" s="1">
         <f t="shared" si="1"/>
-        <v>1.1793522634491519E-3</v>
+        <v>6.8025787006028128E-4</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.35">
@@ -3884,7 +3885,7 @@
       </c>
       <c r="C75" s="1">
         <f t="shared" si="1"/>
-        <v>1.1612083824730109E-3</v>
+        <v>6.6979236436704619E-4</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.35">
@@ -3896,7 +3897,7 @@
       </c>
       <c r="C76" s="1">
         <f t="shared" si="1"/>
-        <v>1.1612083824730109E-3</v>
+        <v>6.6979236436704619E-4</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.35">
@@ -3908,7 +3909,7 @@
       </c>
       <c r="C77" s="1">
         <f t="shared" si="1"/>
-        <v>1.1612083824730109E-3</v>
+        <v>6.6979236436704619E-4</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.35">
@@ -3920,7 +3921,7 @@
       </c>
       <c r="C78" s="1">
         <f t="shared" si="1"/>
-        <v>1.1430645014968701E-3</v>
+        <v>6.593268586738111E-4</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.35">
@@ -3932,7 +3933,7 @@
       </c>
       <c r="C79" s="1">
         <f t="shared" si="1"/>
-        <v>1.1430645014968701E-3</v>
+        <v>6.593268586738111E-4</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.35">
@@ -3944,7 +3945,7 @@
       </c>
       <c r="C80" s="1">
         <f t="shared" si="1"/>
-        <v>1.1430645014968701E-3</v>
+        <v>6.593268586738111E-4</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.35">
@@ -3956,7 +3957,7 @@
       </c>
       <c r="C81" s="1">
         <f t="shared" si="1"/>
-        <v>1.1430645014968701E-3</v>
+        <v>6.593268586738111E-4</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.35">
@@ -3968,7 +3969,7 @@
       </c>
       <c r="C82" s="1">
         <f t="shared" si="1"/>
-        <v>1.1249206205207294E-3</v>
+        <v>6.4886135298057601E-4</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.35">
@@ -3980,7 +3981,7 @@
       </c>
       <c r="C83" s="1">
         <f t="shared" si="1"/>
-        <v>1.1249206205207294E-3</v>
+        <v>6.4886135298057601E-4</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.35">
@@ -3992,7 +3993,7 @@
       </c>
       <c r="C84" s="1">
         <f t="shared" si="1"/>
-        <v>1.1067767395445886E-3</v>
+        <v>6.3839584728734092E-4</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.35">
@@ -4004,7 +4005,7 @@
       </c>
       <c r="C85" s="1">
         <f t="shared" si="1"/>
-        <v>1.0886328585684479E-3</v>
+        <v>6.2793034159410583E-4</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.35">
@@ -4016,7 +4017,7 @@
       </c>
       <c r="C86" s="1">
         <f t="shared" si="1"/>
-        <v>1.0886328585684479E-3</v>
+        <v>6.2793034159410583E-4</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.35">
@@ -4028,7 +4029,7 @@
       </c>
       <c r="C87" s="1">
         <f t="shared" si="1"/>
-        <v>1.0704889775923071E-3</v>
+        <v>6.1746483590087073E-4</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.35">
@@ -4040,7 +4041,7 @@
       </c>
       <c r="C88" s="1">
         <f t="shared" si="1"/>
-        <v>1.0704889775923071E-3</v>
+        <v>6.1746483590087073E-4</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.35">
@@ -4052,7 +4053,7 @@
       </c>
       <c r="C89" s="1">
         <f t="shared" si="1"/>
-        <v>1.0523450966161661E-3</v>
+        <v>6.0699933020763564E-4</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.35">
@@ -4064,7 +4065,7 @@
       </c>
       <c r="C90" s="1">
         <f t="shared" si="1"/>
-        <v>1.0342012156400254E-3</v>
+        <v>5.9653382451440055E-4</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.35">
@@ -4076,7 +4077,7 @@
       </c>
       <c r="C91" s="1">
         <f t="shared" si="1"/>
-        <v>1.0342012156400254E-3</v>
+        <v>5.9653382451440055E-4</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.35">
@@ -4088,7 +4089,7 @@
       </c>
       <c r="C92" s="1">
         <f t="shared" si="1"/>
-        <v>1.0342012156400254E-3</v>
+        <v>5.9653382451440055E-4</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.35">
@@ -4100,7 +4101,7 @@
       </c>
       <c r="C93" s="1">
         <f t="shared" si="1"/>
-        <v>9.9791345368774385E-4</v>
+        <v>5.7560281312793037E-4</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.35">
@@ -4112,7 +4113,7 @@
       </c>
       <c r="C94" s="1">
         <f t="shared" si="1"/>
-        <v>9.7976957271160309E-4</v>
+        <v>5.6513730743469528E-4</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.35">
@@ -4124,7 +4125,7 @@
       </c>
       <c r="C95" s="1">
         <f t="shared" si="1"/>
-        <v>9.7976957271160309E-4</v>
+        <v>5.6513730743469528E-4</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.35">
@@ -4136,7 +4137,7 @@
       </c>
       <c r="C96" s="1">
         <f t="shared" si="1"/>
-        <v>9.7976957271160309E-4</v>
+        <v>5.6513730743469528E-4</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.35">
@@ -4148,7 +4149,7 @@
       </c>
       <c r="C97" s="1">
         <f t="shared" si="1"/>
-        <v>9.7976957271160309E-4</v>
+        <v>5.6513730743469528E-4</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.35">
@@ -4160,7 +4161,7 @@
       </c>
       <c r="C98" s="1">
         <f t="shared" si="1"/>
-        <v>9.6162569173546223E-4</v>
+        <v>5.5467180174146018E-4</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.35">
@@ -4172,7 +4173,7 @@
       </c>
       <c r="C99" s="1">
         <f t="shared" si="1"/>
-        <v>9.6162569173546223E-4</v>
+        <v>5.5467180174146018E-4</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.35">
@@ -4184,7 +4185,7 @@
       </c>
       <c r="C100" s="1">
         <f t="shared" si="1"/>
-        <v>9.6162569173546223E-4</v>
+        <v>5.5467180174146018E-4</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.35">
@@ -4196,7 +4197,7 @@
       </c>
       <c r="C101" s="1">
         <f t="shared" si="1"/>
-        <v>9.4348181075932147E-4</v>
+        <v>5.4420629604822509E-4</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.35">
@@ -4208,7 +4209,7 @@
       </c>
       <c r="C102" s="1">
         <f t="shared" si="1"/>
-        <v>9.4348181075932147E-4</v>
+        <v>5.4420629604822509E-4</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.35">
@@ -4220,7 +4221,7 @@
       </c>
       <c r="C103" s="1">
         <f t="shared" si="1"/>
-        <v>9.253379297831806E-4</v>
+        <v>5.3374079035499E-4</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.35">
@@ -4232,7 +4233,7 @@
       </c>
       <c r="C104" s="1">
         <f t="shared" si="1"/>
-        <v>9.253379297831806E-4</v>
+        <v>5.3374079035499E-4</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.35">
@@ -4244,7 +4245,7 @@
       </c>
       <c r="C105" s="1">
         <f t="shared" si="1"/>
-        <v>9.253379297831806E-4</v>
+        <v>5.3374079035499E-4</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.35">
@@ -4256,7 +4257,7 @@
       </c>
       <c r="C106" s="1">
         <f t="shared" si="1"/>
-        <v>9.0719404880703985E-4</v>
+        <v>5.2327528466175491E-4</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.35">
@@ -4268,7 +4269,7 @@
       </c>
       <c r="C107" s="1">
         <f t="shared" si="1"/>
-        <v>9.0719404880703985E-4</v>
+        <v>5.2327528466175491E-4</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.35">
@@ -4280,7 +4281,7 @@
       </c>
       <c r="C108" s="1">
         <f t="shared" si="1"/>
-        <v>9.0719404880703985E-4</v>
+        <v>5.2327528466175491E-4</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.35">
@@ -4292,7 +4293,7 @@
       </c>
       <c r="C109" s="1">
         <f t="shared" si="1"/>
-        <v>9.0719404880703985E-4</v>
+        <v>5.2327528466175491E-4</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.35">
@@ -4304,7 +4305,7 @@
       </c>
       <c r="C110" s="1">
         <f t="shared" si="1"/>
-        <v>8.8905016783089898E-4</v>
+        <v>5.1280977896851971E-4</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.35">
@@ -4316,7 +4317,7 @@
       </c>
       <c r="C111" s="1">
         <f t="shared" si="1"/>
-        <v>8.8905016783089898E-4</v>
+        <v>5.1280977896851971E-4</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.35">
@@ -4328,7 +4329,7 @@
       </c>
       <c r="C112" s="1">
         <f t="shared" si="1"/>
-        <v>8.8905016783089898E-4</v>
+        <v>5.1280977896851971E-4</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.35">
@@ -4340,7 +4341,7 @@
       </c>
       <c r="C113" s="1">
         <f t="shared" si="1"/>
-        <v>8.8905016783089898E-4</v>
+        <v>5.1280977896851971E-4</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.35">
@@ -4352,7 +4353,7 @@
       </c>
       <c r="C114" s="1">
         <f t="shared" si="1"/>
-        <v>8.8905016783089898E-4</v>
+        <v>5.1280977896851971E-4</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.35">
@@ -4364,7 +4365,7 @@
       </c>
       <c r="C115" s="1">
         <f t="shared" si="1"/>
-        <v>8.7090628685475822E-4</v>
+        <v>5.0234427327528462E-4</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.35">
@@ -4376,7 +4377,7 @@
       </c>
       <c r="C116" s="1">
         <f t="shared" si="1"/>
-        <v>8.7090628685475822E-4</v>
+        <v>5.0234427327528462E-4</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.35">
@@ -4388,7 +4389,7 @@
       </c>
       <c r="C117" s="1">
         <f t="shared" si="1"/>
-        <v>8.7090628685475822E-4</v>
+        <v>5.0234427327528462E-4</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.35">
@@ -4400,7 +4401,7 @@
       </c>
       <c r="C118" s="1">
         <f t="shared" si="1"/>
-        <v>8.7090628685475822E-4</v>
+        <v>5.0234427327528462E-4</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.35">
@@ -4412,7 +4413,7 @@
       </c>
       <c r="C119" s="1">
         <f t="shared" si="1"/>
-        <v>8.5276240587861746E-4</v>
+        <v>4.9187876758204953E-4</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.35">
@@ -4424,7 +4425,7 @@
       </c>
       <c r="C120" s="1">
         <f t="shared" si="1"/>
-        <v>8.5276240587861746E-4</v>
+        <v>4.9187876758204953E-4</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.35">
@@ -4436,7 +4437,7 @@
       </c>
       <c r="C121" s="1">
         <f t="shared" si="1"/>
-        <v>8.346185249024766E-4</v>
+        <v>4.8141326188881449E-4</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.35">
@@ -4448,7 +4449,7 @@
       </c>
       <c r="C122" s="1">
         <f t="shared" si="1"/>
-        <v>8.346185249024766E-4</v>
+        <v>4.8141326188881449E-4</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.35">
@@ -4460,7 +4461,7 @@
       </c>
       <c r="C123" s="1">
         <f t="shared" si="1"/>
-        <v>8.346185249024766E-4</v>
+        <v>4.8141326188881449E-4</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.35">
@@ -4472,7 +4473,7 @@
       </c>
       <c r="C124" s="1">
         <f t="shared" si="1"/>
-        <v>8.346185249024766E-4</v>
+        <v>4.8141326188881449E-4</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.35">
@@ -4484,7 +4485,7 @@
       </c>
       <c r="C125" s="1">
         <f t="shared" si="1"/>
-        <v>8.346185249024766E-4</v>
+        <v>4.8141326188881449E-4</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.35">
@@ -4496,7 +4497,7 @@
       </c>
       <c r="C126" s="1">
         <f t="shared" si="1"/>
-        <v>8.1647464392633584E-4</v>
+        <v>4.709477561955794E-4</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.35">
@@ -4508,7 +4509,7 @@
       </c>
       <c r="C127" s="1">
         <f t="shared" si="1"/>
-        <v>8.1647464392633584E-4</v>
+        <v>4.709477561955794E-4</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.35">
@@ -4520,7 +4521,7 @@
       </c>
       <c r="C128" s="1">
         <f t="shared" si="1"/>
-        <v>8.1647464392633584E-4</v>
+        <v>4.709477561955794E-4</v>
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.35">
@@ -4532,7 +4533,7 @@
       </c>
       <c r="C129" s="1">
         <f t="shared" si="1"/>
-        <v>8.1647464392633584E-4</v>
+        <v>4.709477561955794E-4</v>
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.35">
@@ -4544,7 +4545,7 @@
       </c>
       <c r="C130" s="1">
         <f t="shared" si="1"/>
-        <v>7.9833076295019508E-4</v>
+        <v>4.6048225050234425E-4</v>
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.35">
@@ -4555,8 +4556,8 @@
         <v>44</v>
       </c>
       <c r="C131" s="1">
-        <f t="shared" ref="C131:C194" si="2">B131/55115</f>
-        <v>7.9833076295019508E-4</v>
+        <f t="shared" ref="C131:C194" si="2">B131/95552</f>
+        <v>4.6048225050234425E-4</v>
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.35">
@@ -4568,7 +4569,7 @@
       </c>
       <c r="C132" s="1">
         <f t="shared" si="2"/>
-        <v>7.9833076295019508E-4</v>
+        <v>4.6048225050234425E-4</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.35">
@@ -4580,7 +4581,7 @@
       </c>
       <c r="C133" s="1">
         <f t="shared" si="2"/>
-        <v>7.9833076295019508E-4</v>
+        <v>4.6048225050234425E-4</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.35">
@@ -4592,7 +4593,7 @@
       </c>
       <c r="C134" s="1">
         <f t="shared" si="2"/>
-        <v>7.9833076295019508E-4</v>
+        <v>4.6048225050234425E-4</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.35">
@@ -4604,7 +4605,7 @@
       </c>
       <c r="C135" s="1">
         <f t="shared" si="2"/>
-        <v>7.6204300099791346E-4</v>
+        <v>4.3955123911587407E-4</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.35">
@@ -4616,7 +4617,7 @@
       </c>
       <c r="C136" s="1">
         <f t="shared" si="2"/>
-        <v>7.6204300099791346E-4</v>
+        <v>4.3955123911587407E-4</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.35">
@@ -4628,7 +4629,7 @@
       </c>
       <c r="C137" s="1">
         <f t="shared" si="2"/>
-        <v>7.438991200217727E-4</v>
+        <v>4.2908573342263898E-4</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.35">
@@ -4640,7 +4641,7 @@
       </c>
       <c r="C138" s="1">
         <f t="shared" si="2"/>
-        <v>7.438991200217727E-4</v>
+        <v>4.2908573342263898E-4</v>
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.35">
@@ -4652,7 +4653,7 @@
       </c>
       <c r="C139" s="1">
         <f t="shared" si="2"/>
-        <v>7.2575523904563183E-4</v>
+        <v>4.1862022772940388E-4</v>
       </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.35">
@@ -4664,7 +4665,7 @@
       </c>
       <c r="C140" s="1">
         <f t="shared" si="2"/>
-        <v>7.2575523904563183E-4</v>
+        <v>4.1862022772940388E-4</v>
       </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.35">
@@ -4676,7 +4677,7 @@
       </c>
       <c r="C141" s="1">
         <f t="shared" si="2"/>
-        <v>7.2575523904563183E-4</v>
+        <v>4.1862022772940388E-4</v>
       </c>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.35">
@@ -4688,7 +4689,7 @@
       </c>
       <c r="C142" s="1">
         <f t="shared" si="2"/>
-        <v>7.2575523904563183E-4</v>
+        <v>4.1862022772940388E-4</v>
       </c>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.35">
@@ -4700,7 +4701,7 @@
       </c>
       <c r="C143" s="1">
         <f t="shared" si="2"/>
-        <v>7.0761135806949108E-4</v>
+        <v>4.0815472203616879E-4</v>
       </c>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.35">
@@ -4712,7 +4713,7 @@
       </c>
       <c r="C144" s="1">
         <f t="shared" si="2"/>
-        <v>7.0761135806949108E-4</v>
+        <v>4.0815472203616879E-4</v>
       </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.35">
@@ -4724,7 +4725,7 @@
       </c>
       <c r="C145" s="1">
         <f t="shared" si="2"/>
-        <v>7.0761135806949108E-4</v>
+        <v>4.0815472203616879E-4</v>
       </c>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.35">
@@ -4736,7 +4737,7 @@
       </c>
       <c r="C146" s="1">
         <f t="shared" si="2"/>
-        <v>6.8946747709335032E-4</v>
+        <v>3.976892163429337E-4</v>
       </c>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.35">
@@ -4748,7 +4749,7 @@
       </c>
       <c r="C147" s="1">
         <f t="shared" si="2"/>
-        <v>6.8946747709335032E-4</v>
+        <v>3.976892163429337E-4</v>
       </c>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.35">
@@ -4760,7 +4761,7 @@
       </c>
       <c r="C148" s="1">
         <f t="shared" si="2"/>
-        <v>6.8946747709335032E-4</v>
+        <v>3.976892163429337E-4</v>
       </c>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.35">
@@ -4772,7 +4773,7 @@
       </c>
       <c r="C149" s="1">
         <f t="shared" si="2"/>
-        <v>6.8946747709335032E-4</v>
+        <v>3.976892163429337E-4</v>
       </c>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.35">
@@ -4784,7 +4785,7 @@
       </c>
       <c r="C150" s="1">
         <f t="shared" si="2"/>
-        <v>6.8946747709335032E-4</v>
+        <v>3.976892163429337E-4</v>
       </c>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.35">
@@ -4796,7 +4797,7 @@
       </c>
       <c r="C151" s="1">
         <f t="shared" si="2"/>
-        <v>6.8946747709335032E-4</v>
+        <v>3.976892163429337E-4</v>
       </c>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.35">
@@ -4808,7 +4809,7 @@
       </c>
       <c r="C152" s="1">
         <f t="shared" si="2"/>
-        <v>6.7132359611720945E-4</v>
+        <v>3.8722371064969861E-4</v>
       </c>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.35">
@@ -4820,7 +4821,7 @@
       </c>
       <c r="C153" s="1">
         <f t="shared" si="2"/>
-        <v>6.7132359611720945E-4</v>
+        <v>3.8722371064969861E-4</v>
       </c>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.35">
@@ -4832,7 +4833,7 @@
       </c>
       <c r="C154" s="1">
         <f t="shared" si="2"/>
-        <v>6.7132359611720945E-4</v>
+        <v>3.8722371064969861E-4</v>
       </c>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.35">
@@ -4844,7 +4845,7 @@
       </c>
       <c r="C155" s="1">
         <f t="shared" si="2"/>
-        <v>6.7132359611720945E-4</v>
+        <v>3.8722371064969861E-4</v>
       </c>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.35">
@@ -4856,7 +4857,7 @@
       </c>
       <c r="C156" s="1">
         <f t="shared" si="2"/>
-        <v>6.7132359611720945E-4</v>
+        <v>3.8722371064969861E-4</v>
       </c>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.35">
@@ -4868,7 +4869,7 @@
       </c>
       <c r="C157" s="1">
         <f t="shared" si="2"/>
-        <v>6.7132359611720945E-4</v>
+        <v>3.8722371064969861E-4</v>
       </c>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.35">
@@ -4880,7 +4881,7 @@
       </c>
       <c r="C158" s="1">
         <f t="shared" si="2"/>
-        <v>6.5317971514106869E-4</v>
+        <v>3.7675820495646352E-4</v>
       </c>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.35">
@@ -4892,7 +4893,7 @@
       </c>
       <c r="C159" s="1">
         <f t="shared" si="2"/>
-        <v>6.5317971514106869E-4</v>
+        <v>3.7675820495646352E-4</v>
       </c>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.35">
@@ -4904,7 +4905,7 @@
       </c>
       <c r="C160" s="1">
         <f t="shared" si="2"/>
-        <v>6.5317971514106869E-4</v>
+        <v>3.7675820495646352E-4</v>
       </c>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.35">
@@ -4916,7 +4917,7 @@
       </c>
       <c r="C161" s="1">
         <f t="shared" si="2"/>
-        <v>6.5317971514106869E-4</v>
+        <v>3.7675820495646352E-4</v>
       </c>
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.35">
@@ -4928,7 +4929,7 @@
       </c>
       <c r="C162" s="1">
         <f t="shared" si="2"/>
-        <v>6.5317971514106869E-4</v>
+        <v>3.7675820495646352E-4</v>
       </c>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.35">
@@ -4940,7 +4941,7 @@
       </c>
       <c r="C163" s="1">
         <f t="shared" si="2"/>
-        <v>6.5317971514106869E-4</v>
+        <v>3.7675820495646352E-4</v>
       </c>
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.35">
@@ -4952,7 +4953,7 @@
       </c>
       <c r="C164" s="1">
         <f t="shared" si="2"/>
-        <v>6.3503583416492783E-4</v>
+        <v>3.6629269926322843E-4</v>
       </c>
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.35">
@@ -4964,7 +4965,7 @@
       </c>
       <c r="C165" s="1">
         <f t="shared" si="2"/>
-        <v>6.3503583416492783E-4</v>
+        <v>3.6629269926322843E-4</v>
       </c>
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.35">
@@ -4976,7 +4977,7 @@
       </c>
       <c r="C166" s="1">
         <f t="shared" si="2"/>
-        <v>6.3503583416492783E-4</v>
+        <v>3.6629269926322843E-4</v>
       </c>
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.35">
@@ -4988,7 +4989,7 @@
       </c>
       <c r="C167" s="1">
         <f t="shared" si="2"/>
-        <v>6.3503583416492783E-4</v>
+        <v>3.6629269926322843E-4</v>
       </c>
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.35">
@@ -5000,7 +5001,7 @@
       </c>
       <c r="C168" s="1">
         <f t="shared" si="2"/>
-        <v>6.3503583416492783E-4</v>
+        <v>3.6629269926322843E-4</v>
       </c>
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.35">
@@ -5012,7 +5013,7 @@
       </c>
       <c r="C169" s="1">
         <f t="shared" si="2"/>
-        <v>6.3503583416492783E-4</v>
+        <v>3.6629269926322843E-4</v>
       </c>
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.35">
@@ -5024,7 +5025,7 @@
       </c>
       <c r="C170" s="1">
         <f t="shared" si="2"/>
-        <v>6.3503583416492783E-4</v>
+        <v>3.6629269926322843E-4</v>
       </c>
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.35">
@@ -5036,7 +5037,7 @@
       </c>
       <c r="C171" s="1">
         <f t="shared" si="2"/>
-        <v>6.3503583416492783E-4</v>
+        <v>3.6629269926322843E-4</v>
       </c>
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.35">
@@ -5048,7 +5049,7 @@
       </c>
       <c r="C172" s="1">
         <f t="shared" si="2"/>
-        <v>6.1689195318878707E-4</v>
+        <v>3.5582719356999328E-4</v>
       </c>
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.35">
@@ -5060,7 +5061,7 @@
       </c>
       <c r="C173" s="1">
         <f t="shared" si="2"/>
-        <v>6.1689195318878707E-4</v>
+        <v>3.5582719356999328E-4</v>
       </c>
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.35">
@@ -5072,7 +5073,7 @@
       </c>
       <c r="C174" s="1">
         <f t="shared" si="2"/>
-        <v>6.1689195318878707E-4</v>
+        <v>3.5582719356999328E-4</v>
       </c>
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.35">
@@ -5084,7 +5085,7 @@
       </c>
       <c r="C175" s="1">
         <f t="shared" si="2"/>
-        <v>6.1689195318878707E-4</v>
+        <v>3.5582719356999328E-4</v>
       </c>
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.35">
@@ -5096,7 +5097,7 @@
       </c>
       <c r="C176" s="1">
         <f t="shared" si="2"/>
-        <v>6.1689195318878707E-4</v>
+        <v>3.5582719356999328E-4</v>
       </c>
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.35">
@@ -5108,7 +5109,7 @@
       </c>
       <c r="C177" s="1">
         <f t="shared" si="2"/>
-        <v>5.9874807221264631E-4</v>
+        <v>3.4536168787675819E-4</v>
       </c>
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.35">
@@ -5120,7 +5121,7 @@
       </c>
       <c r="C178" s="1">
         <f t="shared" si="2"/>
-        <v>5.9874807221264631E-4</v>
+        <v>3.4536168787675819E-4</v>
       </c>
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.35">
@@ -5132,7 +5133,7 @@
       </c>
       <c r="C179" s="1">
         <f t="shared" si="2"/>
-        <v>5.9874807221264631E-4</v>
+        <v>3.4536168787675819E-4</v>
       </c>
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.35">
@@ -5144,7 +5145,7 @@
       </c>
       <c r="C180" s="1">
         <f t="shared" si="2"/>
-        <v>5.9874807221264631E-4</v>
+        <v>3.4536168787675819E-4</v>
       </c>
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.35">
@@ -5156,7 +5157,7 @@
       </c>
       <c r="C181" s="1">
         <f t="shared" si="2"/>
-        <v>5.9874807221264631E-4</v>
+        <v>3.4536168787675819E-4</v>
       </c>
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.35">
@@ -5168,7 +5169,7 @@
       </c>
       <c r="C182" s="1">
         <f t="shared" si="2"/>
-        <v>5.9874807221264631E-4</v>
+        <v>3.4536168787675819E-4</v>
       </c>
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.35">
@@ -5180,7 +5181,7 @@
       </c>
       <c r="C183" s="1">
         <f t="shared" si="2"/>
-        <v>5.9874807221264631E-4</v>
+        <v>3.4536168787675819E-4</v>
       </c>
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.35">
@@ -5192,7 +5193,7 @@
       </c>
       <c r="C184" s="1">
         <f t="shared" si="2"/>
-        <v>5.9874807221264631E-4</v>
+        <v>3.4536168787675819E-4</v>
       </c>
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.35">
@@ -5204,7 +5205,7 @@
       </c>
       <c r="C185" s="1">
         <f t="shared" si="2"/>
-        <v>5.8060419123650544E-4</v>
+        <v>3.348961821835231E-4</v>
       </c>
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.35">
@@ -5216,7 +5217,7 @@
       </c>
       <c r="C186" s="1">
         <f t="shared" si="2"/>
-        <v>5.8060419123650544E-4</v>
+        <v>3.348961821835231E-4</v>
       </c>
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.35">
@@ -5228,7 +5229,7 @@
       </c>
       <c r="C187" s="1">
         <f t="shared" si="2"/>
-        <v>5.8060419123650544E-4</v>
+        <v>3.348961821835231E-4</v>
       </c>
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.35">
@@ -5240,7 +5241,7 @@
       </c>
       <c r="C188" s="1">
         <f t="shared" si="2"/>
-        <v>5.8060419123650544E-4</v>
+        <v>3.348961821835231E-4</v>
       </c>
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.35">
@@ -5252,7 +5253,7 @@
       </c>
       <c r="C189" s="1">
         <f t="shared" si="2"/>
-        <v>5.8060419123650544E-4</v>
+        <v>3.348961821835231E-4</v>
       </c>
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.35">
@@ -5264,7 +5265,7 @@
       </c>
       <c r="C190" s="1">
         <f t="shared" si="2"/>
-        <v>5.8060419123650544E-4</v>
+        <v>3.348961821835231E-4</v>
       </c>
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.35">
@@ -5276,7 +5277,7 @@
       </c>
       <c r="C191" s="1">
         <f t="shared" si="2"/>
-        <v>5.6246031026036469E-4</v>
+        <v>3.24430676490288E-4</v>
       </c>
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.35">
@@ -5288,7 +5289,7 @@
       </c>
       <c r="C192" s="1">
         <f t="shared" si="2"/>
-        <v>5.6246031026036469E-4</v>
+        <v>3.24430676490288E-4</v>
       </c>
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.35">
@@ -5300,7 +5301,7 @@
       </c>
       <c r="C193" s="1">
         <f t="shared" si="2"/>
-        <v>5.6246031026036469E-4</v>
+        <v>3.24430676490288E-4</v>
       </c>
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.35">
@@ -5312,7 +5313,7 @@
       </c>
       <c r="C194" s="1">
         <f t="shared" si="2"/>
-        <v>5.6246031026036469E-4</v>
+        <v>3.24430676490288E-4</v>
       </c>
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.35">
@@ -5323,8 +5324,8 @@
         <v>31</v>
       </c>
       <c r="C195" s="1">
-        <f t="shared" ref="C195:C258" si="3">B195/55115</f>
-        <v>5.6246031026036469E-4</v>
+        <f t="shared" ref="C195:C258" si="3">B195/95552</f>
+        <v>3.24430676490288E-4</v>
       </c>
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.35">
@@ -5336,7 +5337,7 @@
       </c>
       <c r="C196" s="1">
         <f t="shared" si="3"/>
-        <v>5.6246031026036469E-4</v>
+        <v>3.24430676490288E-4</v>
       </c>
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.35">
@@ -5348,7 +5349,7 @@
       </c>
       <c r="C197" s="1">
         <f t="shared" si="3"/>
-        <v>5.4431642928422393E-4</v>
+        <v>3.1396517079705291E-4</v>
       </c>
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.35">
@@ -5360,7 +5361,7 @@
       </c>
       <c r="C198" s="1">
         <f t="shared" si="3"/>
-        <v>5.4431642928422393E-4</v>
+        <v>3.1396517079705291E-4</v>
       </c>
     </row>
     <row r="199" spans="1:3" x14ac:dyDescent="0.35">
@@ -5372,7 +5373,7 @@
       </c>
       <c r="C199" s="1">
         <f t="shared" si="3"/>
-        <v>5.4431642928422393E-4</v>
+        <v>3.1396517079705291E-4</v>
       </c>
     </row>
     <row r="200" spans="1:3" x14ac:dyDescent="0.35">
@@ -5384,7 +5385,7 @@
       </c>
       <c r="C200" s="1">
         <f t="shared" si="3"/>
-        <v>5.4431642928422393E-4</v>
+        <v>3.1396517079705291E-4</v>
       </c>
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.35">
@@ -5396,7 +5397,7 @@
       </c>
       <c r="C201" s="1">
         <f t="shared" si="3"/>
-        <v>5.4431642928422393E-4</v>
+        <v>3.1396517079705291E-4</v>
       </c>
     </row>
     <row r="202" spans="1:3" x14ac:dyDescent="0.35">
@@ -5408,7 +5409,7 @@
       </c>
       <c r="C202" s="1">
         <f t="shared" si="3"/>
-        <v>5.4431642928422393E-4</v>
+        <v>3.1396517079705291E-4</v>
       </c>
     </row>
     <row r="203" spans="1:3" x14ac:dyDescent="0.35">
@@ -5420,7 +5421,7 @@
       </c>
       <c r="C203" s="1">
         <f t="shared" si="3"/>
-        <v>5.4431642928422393E-4</v>
+        <v>3.1396517079705291E-4</v>
       </c>
     </row>
     <row r="204" spans="1:3" x14ac:dyDescent="0.35">
@@ -5432,7 +5433,7 @@
       </c>
       <c r="C204" s="1">
         <f t="shared" si="3"/>
-        <v>5.4431642928422393E-4</v>
+        <v>3.1396517079705291E-4</v>
       </c>
     </row>
     <row r="205" spans="1:3" x14ac:dyDescent="0.35">
@@ -5444,7 +5445,7 @@
       </c>
       <c r="C205" s="1">
         <f t="shared" si="3"/>
-        <v>5.2617254830808306E-4</v>
+        <v>3.0349966510381782E-4</v>
       </c>
     </row>
     <row r="206" spans="1:3" x14ac:dyDescent="0.35">
@@ -5456,7 +5457,7 @@
       </c>
       <c r="C206" s="1">
         <f t="shared" si="3"/>
-        <v>5.2617254830808306E-4</v>
+        <v>3.0349966510381782E-4</v>
       </c>
     </row>
     <row r="207" spans="1:3" x14ac:dyDescent="0.35">
@@ -5468,7 +5469,7 @@
       </c>
       <c r="C207" s="1">
         <f t="shared" si="3"/>
-        <v>5.2617254830808306E-4</v>
+        <v>3.0349966510381782E-4</v>
       </c>
     </row>
     <row r="208" spans="1:3" x14ac:dyDescent="0.35">
@@ -5480,7 +5481,7 @@
       </c>
       <c r="C208" s="1">
         <f t="shared" si="3"/>
-        <v>5.2617254830808306E-4</v>
+        <v>3.0349966510381782E-4</v>
       </c>
     </row>
     <row r="209" spans="1:3" x14ac:dyDescent="0.35">
@@ -5492,7 +5493,7 @@
       </c>
       <c r="C209" s="1">
         <f t="shared" si="3"/>
-        <v>5.080286673319423E-4</v>
+        <v>2.9303415941058273E-4</v>
       </c>
     </row>
     <row r="210" spans="1:3" x14ac:dyDescent="0.35">
@@ -5504,7 +5505,7 @@
       </c>
       <c r="C210" s="1">
         <f t="shared" si="3"/>
-        <v>5.080286673319423E-4</v>
+        <v>2.9303415941058273E-4</v>
       </c>
     </row>
     <row r="211" spans="1:3" x14ac:dyDescent="0.35">
@@ -5516,7 +5517,7 @@
       </c>
       <c r="C211" s="1">
         <f t="shared" si="3"/>
-        <v>5.080286673319423E-4</v>
+        <v>2.9303415941058273E-4</v>
       </c>
     </row>
     <row r="212" spans="1:3" x14ac:dyDescent="0.35">
@@ -5528,7 +5529,7 @@
       </c>
       <c r="C212" s="1">
         <f t="shared" si="3"/>
-        <v>5.080286673319423E-4</v>
+        <v>2.9303415941058273E-4</v>
       </c>
     </row>
     <row r="213" spans="1:3" x14ac:dyDescent="0.35">
@@ -5540,7 +5541,7 @@
       </c>
       <c r="C213" s="1">
         <f t="shared" si="3"/>
-        <v>5.080286673319423E-4</v>
+        <v>2.9303415941058273E-4</v>
       </c>
     </row>
     <row r="214" spans="1:3" x14ac:dyDescent="0.35">
@@ -5552,7 +5553,7 @@
       </c>
       <c r="C214" s="1">
         <f t="shared" si="3"/>
-        <v>5.080286673319423E-4</v>
+        <v>2.9303415941058273E-4</v>
       </c>
     </row>
     <row r="215" spans="1:3" x14ac:dyDescent="0.35">
@@ -5564,7 +5565,7 @@
       </c>
       <c r="C215" s="1">
         <f t="shared" si="3"/>
-        <v>5.080286673319423E-4</v>
+        <v>2.9303415941058273E-4</v>
       </c>
     </row>
     <row r="216" spans="1:3" x14ac:dyDescent="0.35">
@@ -5576,7 +5577,7 @@
       </c>
       <c r="C216" s="1">
         <f t="shared" si="3"/>
-        <v>5.080286673319423E-4</v>
+        <v>2.9303415941058273E-4</v>
       </c>
     </row>
     <row r="217" spans="1:3" x14ac:dyDescent="0.35">
@@ -5588,7 +5589,7 @@
       </c>
       <c r="C217" s="1">
         <f t="shared" si="3"/>
-        <v>5.080286673319423E-4</v>
+        <v>2.9303415941058273E-4</v>
       </c>
     </row>
     <row r="218" spans="1:3" x14ac:dyDescent="0.35">
@@ -5600,7 +5601,7 @@
       </c>
       <c r="C218" s="1">
         <f t="shared" si="3"/>
-        <v>5.080286673319423E-4</v>
+        <v>2.9303415941058273E-4</v>
       </c>
     </row>
     <row r="219" spans="1:3" x14ac:dyDescent="0.35">
@@ -5612,7 +5613,7 @@
       </c>
       <c r="C219" s="1">
         <f t="shared" si="3"/>
-        <v>5.080286673319423E-4</v>
+        <v>2.9303415941058273E-4</v>
       </c>
     </row>
     <row r="220" spans="1:3" x14ac:dyDescent="0.35">
@@ -5624,7 +5625,7 @@
       </c>
       <c r="C220" s="1">
         <f t="shared" si="3"/>
-        <v>4.8988478635580155E-4</v>
+        <v>2.8256865371734764E-4</v>
       </c>
     </row>
     <row r="221" spans="1:3" x14ac:dyDescent="0.35">
@@ -5636,7 +5637,7 @@
       </c>
       <c r="C221" s="1">
         <f t="shared" si="3"/>
-        <v>4.8988478635580155E-4</v>
+        <v>2.8256865371734764E-4</v>
       </c>
     </row>
     <row r="222" spans="1:3" x14ac:dyDescent="0.35">
@@ -5648,7 +5649,7 @@
       </c>
       <c r="C222" s="1">
         <f t="shared" si="3"/>
-        <v>4.8988478635580155E-4</v>
+        <v>2.8256865371734764E-4</v>
       </c>
     </row>
     <row r="223" spans="1:3" x14ac:dyDescent="0.35">
@@ -5660,7 +5661,7 @@
       </c>
       <c r="C223" s="1">
         <f t="shared" si="3"/>
-        <v>4.8988478635580155E-4</v>
+        <v>2.8256865371734764E-4</v>
       </c>
     </row>
     <row r="224" spans="1:3" x14ac:dyDescent="0.35">
@@ -5672,7 +5673,7 @@
       </c>
       <c r="C224" s="1">
         <f t="shared" si="3"/>
-        <v>4.8988478635580155E-4</v>
+        <v>2.8256865371734764E-4</v>
       </c>
     </row>
     <row r="225" spans="1:3" x14ac:dyDescent="0.35">
@@ -5684,7 +5685,7 @@
       </c>
       <c r="C225" s="1">
         <f t="shared" si="3"/>
-        <v>4.8988478635580155E-4</v>
+        <v>2.8256865371734764E-4</v>
       </c>
     </row>
     <row r="226" spans="1:3" x14ac:dyDescent="0.35">
@@ -5696,7 +5697,7 @@
       </c>
       <c r="C226" s="1">
         <f t="shared" si="3"/>
-        <v>4.8988478635580155E-4</v>
+        <v>2.8256865371734764E-4</v>
       </c>
     </row>
     <row r="227" spans="1:3" x14ac:dyDescent="0.35">
@@ -5708,7 +5709,7 @@
       </c>
       <c r="C227" s="1">
         <f t="shared" si="3"/>
-        <v>4.7174090537966074E-4</v>
+        <v>2.7210314802411255E-4</v>
       </c>
     </row>
     <row r="228" spans="1:3" x14ac:dyDescent="0.35">
@@ -5720,7 +5721,7 @@
       </c>
       <c r="C228" s="1">
         <f t="shared" si="3"/>
-        <v>4.7174090537966074E-4</v>
+        <v>2.7210314802411255E-4</v>
       </c>
     </row>
     <row r="229" spans="1:3" x14ac:dyDescent="0.35">
@@ -5732,7 +5733,7 @@
       </c>
       <c r="C229" s="1">
         <f t="shared" si="3"/>
-        <v>4.7174090537966074E-4</v>
+        <v>2.7210314802411255E-4</v>
       </c>
     </row>
     <row r="230" spans="1:3" x14ac:dyDescent="0.35">
@@ -5744,7 +5745,7 @@
       </c>
       <c r="C230" s="1">
         <f t="shared" si="3"/>
-        <v>4.7174090537966074E-4</v>
+        <v>2.7210314802411255E-4</v>
       </c>
     </row>
     <row r="231" spans="1:3" x14ac:dyDescent="0.35">
@@ -5756,7 +5757,7 @@
       </c>
       <c r="C231" s="1">
         <f t="shared" si="3"/>
-        <v>4.7174090537966074E-4</v>
+        <v>2.7210314802411255E-4</v>
       </c>
     </row>
     <row r="232" spans="1:3" x14ac:dyDescent="0.35">
@@ -5768,7 +5769,7 @@
       </c>
       <c r="C232" s="1">
         <f t="shared" si="3"/>
-        <v>4.7174090537966074E-4</v>
+        <v>2.7210314802411255E-4</v>
       </c>
     </row>
     <row r="233" spans="1:3" x14ac:dyDescent="0.35">
@@ -5780,7 +5781,7 @@
       </c>
       <c r="C233" s="1">
         <f t="shared" si="3"/>
-        <v>4.7174090537966074E-4</v>
+        <v>2.7210314802411255E-4</v>
       </c>
     </row>
     <row r="234" spans="1:3" x14ac:dyDescent="0.35">
@@ -5792,7 +5793,7 @@
       </c>
       <c r="C234" s="1">
         <f t="shared" si="3"/>
-        <v>4.5359702440351992E-4</v>
+        <v>2.6163764233087745E-4</v>
       </c>
     </row>
     <row r="235" spans="1:3" x14ac:dyDescent="0.35">
@@ -5804,7 +5805,7 @@
       </c>
       <c r="C235" s="1">
         <f t="shared" si="3"/>
-        <v>4.5359702440351992E-4</v>
+        <v>2.6163764233087745E-4</v>
       </c>
     </row>
     <row r="236" spans="1:3" x14ac:dyDescent="0.35">
@@ -5816,7 +5817,7 @@
       </c>
       <c r="C236" s="1">
         <f t="shared" si="3"/>
-        <v>4.5359702440351992E-4</v>
+        <v>2.6163764233087745E-4</v>
       </c>
     </row>
     <row r="237" spans="1:3" x14ac:dyDescent="0.35">
@@ -5828,7 +5829,7 @@
       </c>
       <c r="C237" s="1">
         <f t="shared" si="3"/>
-        <v>4.5359702440351992E-4</v>
+        <v>2.6163764233087745E-4</v>
       </c>
     </row>
     <row r="238" spans="1:3" x14ac:dyDescent="0.35">
@@ -5840,7 +5841,7 @@
       </c>
       <c r="C238" s="1">
         <f t="shared" si="3"/>
-        <v>4.5359702440351992E-4</v>
+        <v>2.6163764233087745E-4</v>
       </c>
     </row>
     <row r="239" spans="1:3" x14ac:dyDescent="0.35">
@@ -5852,7 +5853,7 @@
       </c>
       <c r="C239" s="1">
         <f t="shared" si="3"/>
-        <v>4.5359702440351992E-4</v>
+        <v>2.6163764233087745E-4</v>
       </c>
     </row>
     <row r="240" spans="1:3" x14ac:dyDescent="0.35">
@@ -5864,7 +5865,7 @@
       </c>
       <c r="C240" s="1">
         <f t="shared" si="3"/>
-        <v>4.5359702440351992E-4</v>
+        <v>2.6163764233087745E-4</v>
       </c>
     </row>
     <row r="241" spans="1:3" x14ac:dyDescent="0.35">
@@ -5876,7 +5877,7 @@
       </c>
       <c r="C241" s="1">
         <f t="shared" si="3"/>
-        <v>4.5359702440351992E-4</v>
+        <v>2.6163764233087745E-4</v>
       </c>
     </row>
     <row r="242" spans="1:3" x14ac:dyDescent="0.35">
@@ -5888,7 +5889,7 @@
       </c>
       <c r="C242" s="1">
         <f t="shared" si="3"/>
-        <v>4.5359702440351992E-4</v>
+        <v>2.6163764233087745E-4</v>
       </c>
     </row>
     <row r="243" spans="1:3" x14ac:dyDescent="0.35">
@@ -5900,7 +5901,7 @@
       </c>
       <c r="C243" s="1">
         <f t="shared" si="3"/>
-        <v>4.5359702440351992E-4</v>
+        <v>2.6163764233087745E-4</v>
       </c>
     </row>
     <row r="244" spans="1:3" x14ac:dyDescent="0.35">
@@ -5912,7 +5913,7 @@
       </c>
       <c r="C244" s="1">
         <f t="shared" si="3"/>
-        <v>4.3545314342737911E-4</v>
+        <v>2.5117213663764231E-4</v>
       </c>
     </row>
     <row r="245" spans="1:3" x14ac:dyDescent="0.35">
@@ -5924,7 +5925,7 @@
       </c>
       <c r="C245" s="1">
         <f t="shared" si="3"/>
-        <v>4.3545314342737911E-4</v>
+        <v>2.5117213663764231E-4</v>
       </c>
     </row>
     <row r="246" spans="1:3" x14ac:dyDescent="0.35">
@@ -5936,7 +5937,7 @@
       </c>
       <c r="C246" s="1">
         <f t="shared" si="3"/>
-        <v>4.3545314342737911E-4</v>
+        <v>2.5117213663764231E-4</v>
       </c>
     </row>
     <row r="247" spans="1:3" x14ac:dyDescent="0.35">
@@ -5948,7 +5949,7 @@
       </c>
       <c r="C247" s="1">
         <f t="shared" si="3"/>
-        <v>4.3545314342737911E-4</v>
+        <v>2.5117213663764231E-4</v>
       </c>
     </row>
     <row r="248" spans="1:3" x14ac:dyDescent="0.35">
@@ -5960,7 +5961,7 @@
       </c>
       <c r="C248" s="1">
         <f t="shared" si="3"/>
-        <v>4.3545314342737911E-4</v>
+        <v>2.5117213663764231E-4</v>
       </c>
     </row>
     <row r="249" spans="1:3" x14ac:dyDescent="0.35">
@@ -5972,7 +5973,7 @@
       </c>
       <c r="C249" s="1">
         <f t="shared" si="3"/>
-        <v>4.3545314342737911E-4</v>
+        <v>2.5117213663764231E-4</v>
       </c>
     </row>
     <row r="250" spans="1:3" x14ac:dyDescent="0.35">
@@ -5984,7 +5985,7 @@
       </c>
       <c r="C250" s="1">
         <f t="shared" si="3"/>
-        <v>4.3545314342737911E-4</v>
+        <v>2.5117213663764231E-4</v>
       </c>
     </row>
     <row r="251" spans="1:3" x14ac:dyDescent="0.35">
@@ -5996,7 +5997,7 @@
       </c>
       <c r="C251" s="1">
         <f t="shared" si="3"/>
-        <v>4.3545314342737911E-4</v>
+        <v>2.5117213663764231E-4</v>
       </c>
     </row>
     <row r="252" spans="1:3" x14ac:dyDescent="0.35">
@@ -6008,7 +6009,7 @@
       </c>
       <c r="C252" s="1">
         <f t="shared" si="3"/>
-        <v>4.3545314342737911E-4</v>
+        <v>2.5117213663764231E-4</v>
       </c>
     </row>
     <row r="253" spans="1:3" x14ac:dyDescent="0.35">
@@ -6020,7 +6021,7 @@
       </c>
       <c r="C253" s="1">
         <f t="shared" si="3"/>
-        <v>4.3545314342737911E-4</v>
+        <v>2.5117213663764231E-4</v>
       </c>
     </row>
     <row r="254" spans="1:3" x14ac:dyDescent="0.35">
@@ -6032,7 +6033,7 @@
       </c>
       <c r="C254" s="1">
         <f t="shared" si="3"/>
-        <v>4.3545314342737911E-4</v>
+        <v>2.5117213663764231E-4</v>
       </c>
     </row>
     <row r="255" spans="1:3" x14ac:dyDescent="0.35">
@@ -6044,7 +6045,7 @@
       </c>
       <c r="C255" s="1">
         <f t="shared" si="3"/>
-        <v>4.3545314342737911E-4</v>
+        <v>2.5117213663764231E-4</v>
       </c>
     </row>
     <row r="256" spans="1:3" x14ac:dyDescent="0.35">
@@ -6056,7 +6057,7 @@
       </c>
       <c r="C256" s="1">
         <f t="shared" si="3"/>
-        <v>4.3545314342737911E-4</v>
+        <v>2.5117213663764231E-4</v>
       </c>
     </row>
     <row r="257" spans="1:3" x14ac:dyDescent="0.35">
@@ -6068,7 +6069,7 @@
       </c>
       <c r="C257" s="1">
         <f t="shared" si="3"/>
-        <v>4.3545314342737911E-4</v>
+        <v>2.5117213663764231E-4</v>
       </c>
     </row>
     <row r="258" spans="1:3" x14ac:dyDescent="0.35">
@@ -6080,7 +6081,7 @@
       </c>
       <c r="C258" s="1">
         <f t="shared" si="3"/>
-        <v>4.3545314342737911E-4</v>
+        <v>2.5117213663764231E-4</v>
       </c>
     </row>
     <row r="259" spans="1:3" x14ac:dyDescent="0.35">
@@ -6091,8 +6092,8 @@
         <v>24</v>
       </c>
       <c r="C259" s="1">
-        <f t="shared" ref="C259:C322" si="4">B259/55115</f>
-        <v>4.3545314342737911E-4</v>
+        <f t="shared" ref="C259:C322" si="4">B259/95552</f>
+        <v>2.5117213663764231E-4</v>
       </c>
     </row>
     <row r="260" spans="1:3" x14ac:dyDescent="0.35">
@@ -6104,7 +6105,7 @@
       </c>
       <c r="C260" s="1">
         <f t="shared" si="4"/>
-        <v>4.3545314342737911E-4</v>
+        <v>2.5117213663764231E-4</v>
       </c>
     </row>
     <row r="261" spans="1:3" x14ac:dyDescent="0.35">
@@ -6116,7 +6117,7 @@
       </c>
       <c r="C261" s="1">
         <f t="shared" si="4"/>
-        <v>4.3545314342737911E-4</v>
+        <v>2.5117213663764231E-4</v>
       </c>
     </row>
     <row r="262" spans="1:3" x14ac:dyDescent="0.35">
@@ -6128,7 +6129,7 @@
       </c>
       <c r="C262" s="1">
         <f t="shared" si="4"/>
-        <v>4.173092624512383E-4</v>
+        <v>2.4070663094440724E-4</v>
       </c>
     </row>
     <row r="263" spans="1:3" x14ac:dyDescent="0.35">
@@ -6140,7 +6141,7 @@
       </c>
       <c r="C263" s="1">
         <f t="shared" si="4"/>
-        <v>4.173092624512383E-4</v>
+        <v>2.4070663094440724E-4</v>
       </c>
     </row>
     <row r="264" spans="1:3" x14ac:dyDescent="0.35">
@@ -6152,7 +6153,7 @@
       </c>
       <c r="C264" s="1">
         <f t="shared" si="4"/>
-        <v>4.173092624512383E-4</v>
+        <v>2.4070663094440724E-4</v>
       </c>
     </row>
     <row r="265" spans="1:3" x14ac:dyDescent="0.35">
@@ -6164,7 +6165,7 @@
       </c>
       <c r="C265" s="1">
         <f t="shared" si="4"/>
-        <v>4.173092624512383E-4</v>
+        <v>2.4070663094440724E-4</v>
       </c>
     </row>
     <row r="266" spans="1:3" x14ac:dyDescent="0.35">
@@ -6176,7 +6177,7 @@
       </c>
       <c r="C266" s="1">
         <f t="shared" si="4"/>
-        <v>4.173092624512383E-4</v>
+        <v>2.4070663094440724E-4</v>
       </c>
     </row>
     <row r="267" spans="1:3" x14ac:dyDescent="0.35">
@@ -6188,7 +6189,7 @@
       </c>
       <c r="C267" s="1">
         <f t="shared" si="4"/>
-        <v>4.173092624512383E-4</v>
+        <v>2.4070663094440724E-4</v>
       </c>
     </row>
     <row r="268" spans="1:3" x14ac:dyDescent="0.35">
@@ -6200,7 +6201,7 @@
       </c>
       <c r="C268" s="1">
         <f t="shared" si="4"/>
-        <v>4.173092624512383E-4</v>
+        <v>2.4070663094440724E-4</v>
       </c>
     </row>
     <row r="269" spans="1:3" x14ac:dyDescent="0.35">
@@ -6212,7 +6213,7 @@
       </c>
       <c r="C269" s="1">
         <f t="shared" si="4"/>
-        <v>4.173092624512383E-4</v>
+        <v>2.4070663094440724E-4</v>
       </c>
     </row>
     <row r="270" spans="1:3" x14ac:dyDescent="0.35">
@@ -6224,7 +6225,7 @@
       </c>
       <c r="C270" s="1">
         <f t="shared" si="4"/>
-        <v>4.173092624512383E-4</v>
+        <v>2.4070663094440724E-4</v>
       </c>
     </row>
     <row r="271" spans="1:3" x14ac:dyDescent="0.35">
@@ -6236,7 +6237,7 @@
       </c>
       <c r="C271" s="1">
         <f t="shared" si="4"/>
-        <v>4.173092624512383E-4</v>
+        <v>2.4070663094440724E-4</v>
       </c>
     </row>
     <row r="272" spans="1:3" x14ac:dyDescent="0.35">
@@ -6248,7 +6249,7 @@
       </c>
       <c r="C272" s="1">
         <f t="shared" si="4"/>
-        <v>4.173092624512383E-4</v>
+        <v>2.4070663094440724E-4</v>
       </c>
     </row>
     <row r="273" spans="1:3" x14ac:dyDescent="0.35">
@@ -6260,7 +6261,7 @@
       </c>
       <c r="C273" s="1">
         <f t="shared" si="4"/>
-        <v>4.173092624512383E-4</v>
+        <v>2.4070663094440724E-4</v>
       </c>
     </row>
     <row r="274" spans="1:3" x14ac:dyDescent="0.35">
@@ -6272,7 +6273,7 @@
       </c>
       <c r="C274" s="1">
         <f t="shared" si="4"/>
-        <v>4.173092624512383E-4</v>
+        <v>2.4070663094440724E-4</v>
       </c>
     </row>
     <row r="275" spans="1:3" x14ac:dyDescent="0.35">
@@ -6284,7 +6285,7 @@
       </c>
       <c r="C275" s="1">
         <f t="shared" si="4"/>
-        <v>4.173092624512383E-4</v>
+        <v>2.4070663094440724E-4</v>
       </c>
     </row>
     <row r="276" spans="1:3" x14ac:dyDescent="0.35">
@@ -6296,7 +6297,7 @@
       </c>
       <c r="C276" s="1">
         <f t="shared" si="4"/>
-        <v>4.173092624512383E-4</v>
+        <v>2.4070663094440724E-4</v>
       </c>
     </row>
     <row r="277" spans="1:3" x14ac:dyDescent="0.35">
@@ -6308,7 +6309,7 @@
       </c>
       <c r="C277" s="1">
         <f t="shared" si="4"/>
-        <v>4.173092624512383E-4</v>
+        <v>2.4070663094440724E-4</v>
       </c>
     </row>
     <row r="278" spans="1:3" x14ac:dyDescent="0.35">
@@ -6320,7 +6321,7 @@
       </c>
       <c r="C278" s="1">
         <f t="shared" si="4"/>
-        <v>4.173092624512383E-4</v>
+        <v>2.4070663094440724E-4</v>
       </c>
     </row>
     <row r="279" spans="1:3" x14ac:dyDescent="0.35">
@@ -6332,7 +6333,7 @@
       </c>
       <c r="C279" s="1">
         <f t="shared" si="4"/>
-        <v>4.173092624512383E-4</v>
+        <v>2.4070663094440724E-4</v>
       </c>
     </row>
     <row r="280" spans="1:3" x14ac:dyDescent="0.35">
@@ -6344,7 +6345,7 @@
       </c>
       <c r="C280" s="1">
         <f t="shared" si="4"/>
-        <v>4.173092624512383E-4</v>
+        <v>2.4070663094440724E-4</v>
       </c>
     </row>
     <row r="281" spans="1:3" x14ac:dyDescent="0.35">
@@ -6356,7 +6357,7 @@
       </c>
       <c r="C281" s="1">
         <f t="shared" si="4"/>
-        <v>3.9916538147509754E-4</v>
+        <v>2.3024112525117213E-4</v>
       </c>
     </row>
     <row r="282" spans="1:3" x14ac:dyDescent="0.35">
@@ -6368,7 +6369,7 @@
       </c>
       <c r="C282" s="1">
         <f t="shared" si="4"/>
-        <v>3.9916538147509754E-4</v>
+        <v>2.3024112525117213E-4</v>
       </c>
     </row>
     <row r="283" spans="1:3" x14ac:dyDescent="0.35">
@@ -6380,7 +6381,7 @@
       </c>
       <c r="C283" s="1">
         <f t="shared" si="4"/>
-        <v>3.9916538147509754E-4</v>
+        <v>2.3024112525117213E-4</v>
       </c>
     </row>
     <row r="284" spans="1:3" x14ac:dyDescent="0.35">
@@ -6392,7 +6393,7 @@
       </c>
       <c r="C284" s="1">
         <f t="shared" si="4"/>
-        <v>3.9916538147509754E-4</v>
+        <v>2.3024112525117213E-4</v>
       </c>
     </row>
     <row r="285" spans="1:3" x14ac:dyDescent="0.35">
@@ -6404,7 +6405,7 @@
       </c>
       <c r="C285" s="1">
         <f t="shared" si="4"/>
-        <v>3.9916538147509754E-4</v>
+        <v>2.3024112525117213E-4</v>
       </c>
     </row>
     <row r="286" spans="1:3" x14ac:dyDescent="0.35">
@@ -6416,7 +6417,7 @@
       </c>
       <c r="C286" s="1">
         <f t="shared" si="4"/>
-        <v>3.9916538147509754E-4</v>
+        <v>2.3024112525117213E-4</v>
       </c>
     </row>
     <row r="287" spans="1:3" x14ac:dyDescent="0.35">
@@ -6428,7 +6429,7 @@
       </c>
       <c r="C287" s="1">
         <f t="shared" si="4"/>
-        <v>3.9916538147509754E-4</v>
+        <v>2.3024112525117213E-4</v>
       </c>
     </row>
     <row r="288" spans="1:3" x14ac:dyDescent="0.35">
@@ -6440,7 +6441,7 @@
       </c>
       <c r="C288" s="1">
         <f t="shared" si="4"/>
-        <v>3.9916538147509754E-4</v>
+        <v>2.3024112525117213E-4</v>
       </c>
     </row>
     <row r="289" spans="1:3" x14ac:dyDescent="0.35">
@@ -6452,7 +6453,7 @@
       </c>
       <c r="C289" s="1">
         <f t="shared" si="4"/>
-        <v>3.9916538147509754E-4</v>
+        <v>2.3024112525117213E-4</v>
       </c>
     </row>
     <row r="290" spans="1:3" x14ac:dyDescent="0.35">
@@ -6464,7 +6465,7 @@
       </c>
       <c r="C290" s="1">
         <f t="shared" si="4"/>
-        <v>3.9916538147509754E-4</v>
+        <v>2.3024112525117213E-4</v>
       </c>
     </row>
     <row r="291" spans="1:3" x14ac:dyDescent="0.35">
@@ -6476,7 +6477,7 @@
       </c>
       <c r="C291" s="1">
         <f t="shared" si="4"/>
-        <v>3.9916538147509754E-4</v>
+        <v>2.3024112525117213E-4</v>
       </c>
     </row>
     <row r="292" spans="1:3" x14ac:dyDescent="0.35">
@@ -6488,7 +6489,7 @@
       </c>
       <c r="C292" s="1">
         <f t="shared" si="4"/>
-        <v>3.9916538147509754E-4</v>
+        <v>2.3024112525117213E-4</v>
       </c>
     </row>
     <row r="293" spans="1:3" x14ac:dyDescent="0.35">
@@ -6500,7 +6501,7 @@
       </c>
       <c r="C293" s="1">
         <f t="shared" si="4"/>
-        <v>3.9916538147509754E-4</v>
+        <v>2.3024112525117213E-4</v>
       </c>
     </row>
     <row r="294" spans="1:3" x14ac:dyDescent="0.35">
@@ -6512,7 +6513,7 @@
       </c>
       <c r="C294" s="1">
         <f t="shared" si="4"/>
-        <v>3.9916538147509754E-4</v>
+        <v>2.3024112525117213E-4</v>
       </c>
     </row>
     <row r="295" spans="1:3" x14ac:dyDescent="0.35">
@@ -6524,7 +6525,7 @@
       </c>
       <c r="C295" s="1">
         <f t="shared" si="4"/>
-        <v>3.9916538147509754E-4</v>
+        <v>2.3024112525117213E-4</v>
       </c>
     </row>
     <row r="296" spans="1:3" x14ac:dyDescent="0.35">
@@ -6536,7 +6537,7 @@
       </c>
       <c r="C296" s="1">
         <f t="shared" si="4"/>
-        <v>3.9916538147509754E-4</v>
+        <v>2.3024112525117213E-4</v>
       </c>
     </row>
     <row r="297" spans="1:3" x14ac:dyDescent="0.35">
@@ -6548,7 +6549,7 @@
       </c>
       <c r="C297" s="1">
         <f t="shared" si="4"/>
-        <v>3.9916538147509754E-4</v>
+        <v>2.3024112525117213E-4</v>
       </c>
     </row>
     <row r="298" spans="1:3" x14ac:dyDescent="0.35">
@@ -6560,7 +6561,7 @@
       </c>
       <c r="C298" s="1">
         <f t="shared" si="4"/>
-        <v>3.8102150049895673E-4</v>
+        <v>2.1977561955793703E-4</v>
       </c>
     </row>
     <row r="299" spans="1:3" x14ac:dyDescent="0.35">
@@ -6572,7 +6573,7 @@
       </c>
       <c r="C299" s="1">
         <f t="shared" si="4"/>
-        <v>3.8102150049895673E-4</v>
+        <v>2.1977561955793703E-4</v>
       </c>
     </row>
     <row r="300" spans="1:3" x14ac:dyDescent="0.35">
@@ -6584,7 +6585,7 @@
       </c>
       <c r="C300" s="1">
         <f t="shared" si="4"/>
-        <v>3.8102150049895673E-4</v>
+        <v>2.1977561955793703E-4</v>
       </c>
     </row>
     <row r="301" spans="1:3" x14ac:dyDescent="0.35">
@@ -6596,7 +6597,7 @@
       </c>
       <c r="C301" s="1">
         <f t="shared" si="4"/>
-        <v>3.8102150049895673E-4</v>
+        <v>2.1977561955793703E-4</v>
       </c>
     </row>
     <row r="302" spans="1:3" x14ac:dyDescent="0.35">
@@ -6608,7 +6609,7 @@
       </c>
       <c r="C302" s="1">
         <f t="shared" si="4"/>
-        <v>3.8102150049895673E-4</v>
+        <v>2.1977561955793703E-4</v>
       </c>
     </row>
     <row r="303" spans="1:3" x14ac:dyDescent="0.35">
@@ -6620,7 +6621,7 @@
       </c>
       <c r="C303" s="1">
         <f t="shared" si="4"/>
-        <v>3.8102150049895673E-4</v>
+        <v>2.1977561955793703E-4</v>
       </c>
     </row>
     <row r="304" spans="1:3" x14ac:dyDescent="0.35">
@@ -6632,7 +6633,7 @@
       </c>
       <c r="C304" s="1">
         <f t="shared" si="4"/>
-        <v>3.8102150049895673E-4</v>
+        <v>2.1977561955793703E-4</v>
       </c>
     </row>
     <row r="305" spans="1:3" x14ac:dyDescent="0.35">
@@ -6644,7 +6645,7 @@
       </c>
       <c r="C305" s="1">
         <f t="shared" si="4"/>
-        <v>3.8102150049895673E-4</v>
+        <v>2.1977561955793703E-4</v>
       </c>
     </row>
     <row r="306" spans="1:3" x14ac:dyDescent="0.35">
@@ -6656,7 +6657,7 @@
       </c>
       <c r="C306" s="1">
         <f t="shared" si="4"/>
-        <v>3.8102150049895673E-4</v>
+        <v>2.1977561955793703E-4</v>
       </c>
     </row>
     <row r="307" spans="1:3" x14ac:dyDescent="0.35">
@@ -6668,7 +6669,7 @@
       </c>
       <c r="C307" s="1">
         <f t="shared" si="4"/>
-        <v>3.8102150049895673E-4</v>
+        <v>2.1977561955793703E-4</v>
       </c>
     </row>
     <row r="308" spans="1:3" x14ac:dyDescent="0.35">
@@ -6680,7 +6681,7 @@
       </c>
       <c r="C308" s="1">
         <f t="shared" si="4"/>
-        <v>3.8102150049895673E-4</v>
+        <v>2.1977561955793703E-4</v>
       </c>
     </row>
     <row r="309" spans="1:3" x14ac:dyDescent="0.35">
@@ -6692,7 +6693,7 @@
       </c>
       <c r="C309" s="1">
         <f t="shared" si="4"/>
-        <v>3.6287761952281592E-4</v>
+        <v>2.0931011386470194E-4</v>
       </c>
     </row>
     <row r="310" spans="1:3" x14ac:dyDescent="0.35">
@@ -6704,7 +6705,7 @@
       </c>
       <c r="C310" s="1">
         <f t="shared" si="4"/>
-        <v>3.6287761952281592E-4</v>
+        <v>2.0931011386470194E-4</v>
       </c>
     </row>
     <row r="311" spans="1:3" x14ac:dyDescent="0.35">
@@ -6716,7 +6717,7 @@
       </c>
       <c r="C311" s="1">
         <f t="shared" si="4"/>
-        <v>3.6287761952281592E-4</v>
+        <v>2.0931011386470194E-4</v>
       </c>
     </row>
     <row r="312" spans="1:3" x14ac:dyDescent="0.35">
@@ -6728,7 +6729,7 @@
       </c>
       <c r="C312" s="1">
         <f t="shared" si="4"/>
-        <v>3.6287761952281592E-4</v>
+        <v>2.0931011386470194E-4</v>
       </c>
     </row>
     <row r="313" spans="1:3" x14ac:dyDescent="0.35">
@@ -6740,7 +6741,7 @@
       </c>
       <c r="C313" s="1">
         <f t="shared" si="4"/>
-        <v>3.6287761952281592E-4</v>
+        <v>2.0931011386470194E-4</v>
       </c>
     </row>
     <row r="314" spans="1:3" x14ac:dyDescent="0.35">
@@ -6752,7 +6753,7 @@
       </c>
       <c r="C314" s="1">
         <f t="shared" si="4"/>
-        <v>3.6287761952281592E-4</v>
+        <v>2.0931011386470194E-4</v>
       </c>
     </row>
     <row r="315" spans="1:3" x14ac:dyDescent="0.35">
@@ -6764,7 +6765,7 @@
       </c>
       <c r="C315" s="1">
         <f t="shared" si="4"/>
-        <v>3.6287761952281592E-4</v>
+        <v>2.0931011386470194E-4</v>
       </c>
     </row>
     <row r="316" spans="1:3" x14ac:dyDescent="0.35">
@@ -6776,7 +6777,7 @@
       </c>
       <c r="C316" s="1">
         <f t="shared" si="4"/>
-        <v>3.6287761952281592E-4</v>
+        <v>2.0931011386470194E-4</v>
       </c>
     </row>
     <row r="317" spans="1:3" x14ac:dyDescent="0.35">
@@ -6788,7 +6789,7 @@
       </c>
       <c r="C317" s="1">
         <f t="shared" si="4"/>
-        <v>3.6287761952281592E-4</v>
+        <v>2.0931011386470194E-4</v>
       </c>
     </row>
     <row r="318" spans="1:3" x14ac:dyDescent="0.35">
@@ -6800,7 +6801,7 @@
       </c>
       <c r="C318" s="1">
         <f t="shared" si="4"/>
-        <v>3.6287761952281592E-4</v>
+        <v>2.0931011386470194E-4</v>
       </c>
     </row>
     <row r="319" spans="1:3" x14ac:dyDescent="0.35">
@@ -6812,7 +6813,7 @@
       </c>
       <c r="C319" s="1">
         <f t="shared" si="4"/>
-        <v>3.6287761952281592E-4</v>
+        <v>2.0931011386470194E-4</v>
       </c>
     </row>
     <row r="320" spans="1:3" x14ac:dyDescent="0.35">
@@ -6824,7 +6825,7 @@
       </c>
       <c r="C320" s="1">
         <f t="shared" si="4"/>
-        <v>3.6287761952281592E-4</v>
+        <v>2.0931011386470194E-4</v>
       </c>
     </row>
     <row r="321" spans="1:3" x14ac:dyDescent="0.35">
@@ -6836,7 +6837,7 @@
       </c>
       <c r="C321" s="1">
         <f t="shared" si="4"/>
-        <v>3.6287761952281592E-4</v>
+        <v>2.0931011386470194E-4</v>
       </c>
     </row>
     <row r="322" spans="1:3" x14ac:dyDescent="0.35">
@@ -6848,7 +6849,7 @@
       </c>
       <c r="C322" s="1">
         <f t="shared" si="4"/>
-        <v>3.4473373854667516E-4</v>
+        <v>1.9884460817146685E-4</v>
       </c>
     </row>
     <row r="323" spans="1:3" x14ac:dyDescent="0.35">
@@ -6859,8 +6860,8 @@
         <v>19</v>
       </c>
       <c r="C323" s="1">
-        <f t="shared" ref="C323:C386" si="5">B323/55115</f>
-        <v>3.4473373854667516E-4</v>
+        <f t="shared" ref="C323:C386" si="5">B323/95552</f>
+        <v>1.9884460817146685E-4</v>
       </c>
     </row>
     <row r="324" spans="1:3" x14ac:dyDescent="0.35">
@@ -6872,7 +6873,7 @@
       </c>
       <c r="C324" s="1">
         <f t="shared" si="5"/>
-        <v>3.4473373854667516E-4</v>
+        <v>1.9884460817146685E-4</v>
       </c>
     </row>
     <row r="325" spans="1:3" x14ac:dyDescent="0.35">
@@ -6884,7 +6885,7 @@
       </c>
       <c r="C325" s="1">
         <f t="shared" si="5"/>
-        <v>3.4473373854667516E-4</v>
+        <v>1.9884460817146685E-4</v>
       </c>
     </row>
     <row r="326" spans="1:3" x14ac:dyDescent="0.35">
@@ -6896,7 +6897,7 @@
       </c>
       <c r="C326" s="1">
         <f t="shared" si="5"/>
-        <v>3.4473373854667516E-4</v>
+        <v>1.9884460817146685E-4</v>
       </c>
     </row>
     <row r="327" spans="1:3" x14ac:dyDescent="0.35">
@@ -6908,7 +6909,7 @@
       </c>
       <c r="C327" s="1">
         <f t="shared" si="5"/>
-        <v>3.4473373854667516E-4</v>
+        <v>1.9884460817146685E-4</v>
       </c>
     </row>
     <row r="328" spans="1:3" x14ac:dyDescent="0.35">
@@ -6920,7 +6921,7 @@
       </c>
       <c r="C328" s="1">
         <f t="shared" si="5"/>
-        <v>3.4473373854667516E-4</v>
+        <v>1.9884460817146685E-4</v>
       </c>
     </row>
     <row r="329" spans="1:3" x14ac:dyDescent="0.35">
@@ -6932,7 +6933,7 @@
       </c>
       <c r="C329" s="1">
         <f t="shared" si="5"/>
-        <v>3.4473373854667516E-4</v>
+        <v>1.9884460817146685E-4</v>
       </c>
     </row>
     <row r="330" spans="1:3" x14ac:dyDescent="0.35">
@@ -6944,7 +6945,7 @@
       </c>
       <c r="C330" s="1">
         <f t="shared" si="5"/>
-        <v>3.4473373854667516E-4</v>
+        <v>1.9884460817146685E-4</v>
       </c>
     </row>
     <row r="331" spans="1:3" x14ac:dyDescent="0.35">
@@ -6956,7 +6957,7 @@
       </c>
       <c r="C331" s="1">
         <f t="shared" si="5"/>
-        <v>3.4473373854667516E-4</v>
+        <v>1.9884460817146685E-4</v>
       </c>
     </row>
     <row r="332" spans="1:3" x14ac:dyDescent="0.35">
@@ -6968,7 +6969,7 @@
       </c>
       <c r="C332" s="1">
         <f t="shared" si="5"/>
-        <v>3.4473373854667516E-4</v>
+        <v>1.9884460817146685E-4</v>
       </c>
     </row>
     <row r="333" spans="1:3" x14ac:dyDescent="0.35">
@@ -6980,7 +6981,7 @@
       </c>
       <c r="C333" s="1">
         <f t="shared" si="5"/>
-        <v>3.2658985757053435E-4</v>
+        <v>1.8837910247823176E-4</v>
       </c>
     </row>
     <row r="334" spans="1:3" x14ac:dyDescent="0.35">
@@ -6992,7 +6993,7 @@
       </c>
       <c r="C334" s="1">
         <f t="shared" si="5"/>
-        <v>3.2658985757053435E-4</v>
+        <v>1.8837910247823176E-4</v>
       </c>
     </row>
     <row r="335" spans="1:3" x14ac:dyDescent="0.35">
@@ -7004,7 +7005,7 @@
       </c>
       <c r="C335" s="1">
         <f t="shared" si="5"/>
-        <v>3.2658985757053435E-4</v>
+        <v>1.8837910247823176E-4</v>
       </c>
     </row>
     <row r="336" spans="1:3" x14ac:dyDescent="0.35">
@@ -7016,7 +7017,7 @@
       </c>
       <c r="C336" s="1">
         <f t="shared" si="5"/>
-        <v>3.2658985757053435E-4</v>
+        <v>1.8837910247823176E-4</v>
       </c>
     </row>
     <row r="337" spans="1:3" x14ac:dyDescent="0.35">
@@ -7028,7 +7029,7 @@
       </c>
       <c r="C337" s="1">
         <f t="shared" si="5"/>
-        <v>3.2658985757053435E-4</v>
+        <v>1.8837910247823176E-4</v>
       </c>
     </row>
     <row r="338" spans="1:3" x14ac:dyDescent="0.35">
@@ -7040,7 +7041,7 @@
       </c>
       <c r="C338" s="1">
         <f t="shared" si="5"/>
-        <v>3.2658985757053435E-4</v>
+        <v>1.8837910247823176E-4</v>
       </c>
     </row>
     <row r="339" spans="1:3" x14ac:dyDescent="0.35">
@@ -7052,7 +7053,7 @@
       </c>
       <c r="C339" s="1">
         <f t="shared" si="5"/>
-        <v>3.2658985757053435E-4</v>
+        <v>1.8837910247823176E-4</v>
       </c>
     </row>
     <row r="340" spans="1:3" x14ac:dyDescent="0.35">
@@ -7064,7 +7065,7 @@
       </c>
       <c r="C340" s="1">
         <f t="shared" si="5"/>
-        <v>3.2658985757053435E-4</v>
+        <v>1.8837910247823176E-4</v>
       </c>
     </row>
     <row r="341" spans="1:3" x14ac:dyDescent="0.35">
@@ -7076,7 +7077,7 @@
       </c>
       <c r="C341" s="1">
         <f t="shared" si="5"/>
-        <v>3.2658985757053435E-4</v>
+        <v>1.8837910247823176E-4</v>
       </c>
     </row>
     <row r="342" spans="1:3" x14ac:dyDescent="0.35">
@@ -7088,7 +7089,7 @@
       </c>
       <c r="C342" s="1">
         <f t="shared" si="5"/>
-        <v>3.2658985757053435E-4</v>
+        <v>1.8837910247823176E-4</v>
       </c>
     </row>
     <row r="343" spans="1:3" x14ac:dyDescent="0.35">
@@ -7100,7 +7101,7 @@
       </c>
       <c r="C343" s="1">
         <f t="shared" si="5"/>
-        <v>3.2658985757053435E-4</v>
+        <v>1.8837910247823176E-4</v>
       </c>
     </row>
     <row r="344" spans="1:3" x14ac:dyDescent="0.35">
@@ -7112,7 +7113,7 @@
       </c>
       <c r="C344" s="1">
         <f t="shared" si="5"/>
-        <v>3.0844597659439353E-4</v>
+        <v>1.7791359678499664E-4</v>
       </c>
     </row>
     <row r="345" spans="1:3" x14ac:dyDescent="0.35">
@@ -7124,7 +7125,7 @@
       </c>
       <c r="C345" s="1">
         <f t="shared" si="5"/>
-        <v>3.0844597659439353E-4</v>
+        <v>1.7791359678499664E-4</v>
       </c>
     </row>
     <row r="346" spans="1:3" x14ac:dyDescent="0.35">
@@ -7136,7 +7137,7 @@
       </c>
       <c r="C346" s="1">
         <f t="shared" si="5"/>
-        <v>3.0844597659439353E-4</v>
+        <v>1.7791359678499664E-4</v>
       </c>
     </row>
     <row r="347" spans="1:3" x14ac:dyDescent="0.35">
@@ -7148,7 +7149,7 @@
       </c>
       <c r="C347" s="1">
         <f t="shared" si="5"/>
-        <v>3.0844597659439353E-4</v>
+        <v>1.7791359678499664E-4</v>
       </c>
     </row>
     <row r="348" spans="1:3" x14ac:dyDescent="0.35">
@@ -7160,7 +7161,7 @@
       </c>
       <c r="C348" s="1">
         <f t="shared" si="5"/>
-        <v>3.0844597659439353E-4</v>
+        <v>1.7791359678499664E-4</v>
       </c>
     </row>
     <row r="349" spans="1:3" x14ac:dyDescent="0.35">
@@ -7172,7 +7173,7 @@
       </c>
       <c r="C349" s="1">
         <f t="shared" si="5"/>
-        <v>3.0844597659439353E-4</v>
+        <v>1.7791359678499664E-4</v>
       </c>
     </row>
     <row r="350" spans="1:3" x14ac:dyDescent="0.35">
@@ -7184,7 +7185,7 @@
       </c>
       <c r="C350" s="1">
         <f t="shared" si="5"/>
-        <v>3.0844597659439353E-4</v>
+        <v>1.7791359678499664E-4</v>
       </c>
     </row>
     <row r="351" spans="1:3" x14ac:dyDescent="0.35">
@@ -7196,7 +7197,7 @@
       </c>
       <c r="C351" s="1">
         <f t="shared" si="5"/>
-        <v>3.0844597659439353E-4</v>
+        <v>1.7791359678499664E-4</v>
       </c>
     </row>
     <row r="352" spans="1:3" x14ac:dyDescent="0.35">
@@ -7208,7 +7209,7 @@
       </c>
       <c r="C352" s="1">
         <f t="shared" si="5"/>
-        <v>3.0844597659439353E-4</v>
+        <v>1.7791359678499664E-4</v>
       </c>
     </row>
     <row r="353" spans="1:3" x14ac:dyDescent="0.35">
@@ -7220,7 +7221,7 @@
       </c>
       <c r="C353" s="1">
         <f t="shared" si="5"/>
-        <v>3.0844597659439353E-4</v>
+        <v>1.7791359678499664E-4</v>
       </c>
     </row>
     <row r="354" spans="1:3" x14ac:dyDescent="0.35">
@@ -7232,7 +7233,7 @@
       </c>
       <c r="C354" s="1">
         <f t="shared" si="5"/>
-        <v>3.0844597659439353E-4</v>
+        <v>1.7791359678499664E-4</v>
       </c>
     </row>
     <row r="355" spans="1:3" x14ac:dyDescent="0.35">
@@ -7244,7 +7245,7 @@
       </c>
       <c r="C355" s="1">
         <f t="shared" si="5"/>
-        <v>3.0844597659439353E-4</v>
+        <v>1.7791359678499664E-4</v>
       </c>
     </row>
     <row r="356" spans="1:3" x14ac:dyDescent="0.35">
@@ -7256,7 +7257,7 @@
       </c>
       <c r="C356" s="1">
         <f t="shared" si="5"/>
-        <v>2.9030209561825272E-4</v>
+        <v>1.6744809109176155E-4</v>
       </c>
     </row>
     <row r="357" spans="1:3" x14ac:dyDescent="0.35">
@@ -7268,7 +7269,7 @@
       </c>
       <c r="C357" s="1">
         <f t="shared" si="5"/>
-        <v>2.9030209561825272E-4</v>
+        <v>1.6744809109176155E-4</v>
       </c>
     </row>
     <row r="358" spans="1:3" x14ac:dyDescent="0.35">
@@ -7280,7 +7281,7 @@
       </c>
       <c r="C358" s="1">
         <f t="shared" si="5"/>
-        <v>2.9030209561825272E-4</v>
+        <v>1.6744809109176155E-4</v>
       </c>
     </row>
     <row r="359" spans="1:3" x14ac:dyDescent="0.35">
@@ -7292,7 +7293,7 @@
       </c>
       <c r="C359" s="1">
         <f t="shared" si="5"/>
-        <v>2.9030209561825272E-4</v>
+        <v>1.6744809109176155E-4</v>
       </c>
     </row>
     <row r="360" spans="1:3" x14ac:dyDescent="0.35">
@@ -7304,7 +7305,7 @@
       </c>
       <c r="C360" s="1">
         <f t="shared" si="5"/>
-        <v>2.9030209561825272E-4</v>
+        <v>1.6744809109176155E-4</v>
       </c>
     </row>
     <row r="361" spans="1:3" x14ac:dyDescent="0.35">
@@ -7316,7 +7317,7 @@
       </c>
       <c r="C361" s="1">
         <f t="shared" si="5"/>
-        <v>2.9030209561825272E-4</v>
+        <v>1.6744809109176155E-4</v>
       </c>
     </row>
     <row r="362" spans="1:3" x14ac:dyDescent="0.35">
@@ -7328,7 +7329,7 @@
       </c>
       <c r="C362" s="1">
         <f t="shared" si="5"/>
-        <v>2.9030209561825272E-4</v>
+        <v>1.6744809109176155E-4</v>
       </c>
     </row>
     <row r="363" spans="1:3" x14ac:dyDescent="0.35">
@@ -7340,7 +7341,7 @@
       </c>
       <c r="C363" s="1">
         <f t="shared" si="5"/>
-        <v>2.9030209561825272E-4</v>
+        <v>1.6744809109176155E-4</v>
       </c>
     </row>
     <row r="364" spans="1:3" x14ac:dyDescent="0.35">
@@ -7352,7 +7353,7 @@
       </c>
       <c r="C364" s="1">
         <f t="shared" si="5"/>
-        <v>2.9030209561825272E-4</v>
+        <v>1.6744809109176155E-4</v>
       </c>
     </row>
     <row r="365" spans="1:3" x14ac:dyDescent="0.35">
@@ -7364,7 +7365,7 @@
       </c>
       <c r="C365" s="1">
         <f t="shared" si="5"/>
-        <v>2.9030209561825272E-4</v>
+        <v>1.6744809109176155E-4</v>
       </c>
     </row>
     <row r="366" spans="1:3" x14ac:dyDescent="0.35">
@@ -7376,7 +7377,7 @@
       </c>
       <c r="C366" s="1">
         <f t="shared" si="5"/>
-        <v>2.9030209561825272E-4</v>
+        <v>1.6744809109176155E-4</v>
       </c>
     </row>
     <row r="367" spans="1:3" x14ac:dyDescent="0.35">
@@ -7388,7 +7389,7 @@
       </c>
       <c r="C367" s="1">
         <f t="shared" si="5"/>
-        <v>2.9030209561825272E-4</v>
+        <v>1.6744809109176155E-4</v>
       </c>
     </row>
     <row r="368" spans="1:3" x14ac:dyDescent="0.35">
@@ -7400,7 +7401,7 @@
       </c>
       <c r="C368" s="1">
         <f t="shared" si="5"/>
-        <v>2.9030209561825272E-4</v>
+        <v>1.6744809109176155E-4</v>
       </c>
     </row>
     <row r="369" spans="1:3" x14ac:dyDescent="0.35">
@@ -7412,7 +7413,7 @@
       </c>
       <c r="C369" s="1">
         <f t="shared" si="5"/>
-        <v>2.9030209561825272E-4</v>
+        <v>1.6744809109176155E-4</v>
       </c>
     </row>
     <row r="370" spans="1:3" x14ac:dyDescent="0.35">
@@ -7424,7 +7425,7 @@
       </c>
       <c r="C370" s="1">
         <f t="shared" si="5"/>
-        <v>2.9030209561825272E-4</v>
+        <v>1.6744809109176155E-4</v>
       </c>
     </row>
     <row r="371" spans="1:3" x14ac:dyDescent="0.35">
@@ -7436,7 +7437,7 @@
       </c>
       <c r="C371" s="1">
         <f t="shared" si="5"/>
-        <v>2.9030209561825272E-4</v>
+        <v>1.6744809109176155E-4</v>
       </c>
     </row>
     <row r="372" spans="1:3" x14ac:dyDescent="0.35">
@@ -7448,7 +7449,7 @@
       </c>
       <c r="C372" s="1">
         <f t="shared" si="5"/>
-        <v>2.9030209561825272E-4</v>
+        <v>1.6744809109176155E-4</v>
       </c>
     </row>
     <row r="373" spans="1:3" x14ac:dyDescent="0.35">
@@ -7460,7 +7461,7 @@
       </c>
       <c r="C373" s="1">
         <f t="shared" si="5"/>
-        <v>2.9030209561825272E-4</v>
+        <v>1.6744809109176155E-4</v>
       </c>
     </row>
     <row r="374" spans="1:3" x14ac:dyDescent="0.35">
@@ -7472,7 +7473,7 @@
       </c>
       <c r="C374" s="1">
         <f t="shared" si="5"/>
-        <v>2.9030209561825272E-4</v>
+        <v>1.6744809109176155E-4</v>
       </c>
     </row>
     <row r="375" spans="1:3" x14ac:dyDescent="0.35">
@@ -7484,7 +7485,7 @@
       </c>
       <c r="C375" s="1">
         <f t="shared" si="5"/>
-        <v>2.9030209561825272E-4</v>
+        <v>1.6744809109176155E-4</v>
       </c>
     </row>
     <row r="376" spans="1:3" x14ac:dyDescent="0.35">
@@ -7496,7 +7497,7 @@
       </c>
       <c r="C376" s="1">
         <f t="shared" si="5"/>
-        <v>2.9030209561825272E-4</v>
+        <v>1.6744809109176155E-4</v>
       </c>
     </row>
     <row r="377" spans="1:3" x14ac:dyDescent="0.35">
@@ -7508,7 +7509,7 @@
       </c>
       <c r="C377" s="1">
         <f t="shared" si="5"/>
-        <v>2.7215821464211196E-4</v>
+        <v>1.5698258539852646E-4</v>
       </c>
     </row>
     <row r="378" spans="1:3" x14ac:dyDescent="0.35">
@@ -7520,7 +7521,7 @@
       </c>
       <c r="C378" s="1">
         <f t="shared" si="5"/>
-        <v>2.7215821464211196E-4</v>
+        <v>1.5698258539852646E-4</v>
       </c>
     </row>
     <row r="379" spans="1:3" x14ac:dyDescent="0.35">
@@ -7532,7 +7533,7 @@
       </c>
       <c r="C379" s="1">
         <f t="shared" si="5"/>
-        <v>2.7215821464211196E-4</v>
+        <v>1.5698258539852646E-4</v>
       </c>
     </row>
     <row r="380" spans="1:3" x14ac:dyDescent="0.35">
@@ -7544,7 +7545,7 @@
       </c>
       <c r="C380" s="1">
         <f t="shared" si="5"/>
-        <v>2.7215821464211196E-4</v>
+        <v>1.5698258539852646E-4</v>
       </c>
     </row>
     <row r="381" spans="1:3" x14ac:dyDescent="0.35">
@@ -7556,7 +7557,7 @@
       </c>
       <c r="C381" s="1">
         <f t="shared" si="5"/>
-        <v>2.7215821464211196E-4</v>
+        <v>1.5698258539852646E-4</v>
       </c>
     </row>
     <row r="382" spans="1:3" x14ac:dyDescent="0.35">
@@ -7568,7 +7569,7 @@
       </c>
       <c r="C382" s="1">
         <f t="shared" si="5"/>
-        <v>2.7215821464211196E-4</v>
+        <v>1.5698258539852646E-4</v>
       </c>
     </row>
     <row r="383" spans="1:3" x14ac:dyDescent="0.35">
@@ -7580,7 +7581,7 @@
       </c>
       <c r="C383" s="1">
         <f t="shared" si="5"/>
-        <v>2.7215821464211196E-4</v>
+        <v>1.5698258539852646E-4</v>
       </c>
     </row>
     <row r="384" spans="1:3" x14ac:dyDescent="0.35">
@@ -7592,7 +7593,7 @@
       </c>
       <c r="C384" s="1">
         <f t="shared" si="5"/>
-        <v>2.7215821464211196E-4</v>
+        <v>1.5698258539852646E-4</v>
       </c>
     </row>
     <row r="385" spans="1:3" x14ac:dyDescent="0.35">
@@ -7604,7 +7605,7 @@
       </c>
       <c r="C385" s="1">
         <f t="shared" si="5"/>
-        <v>2.7215821464211196E-4</v>
+        <v>1.5698258539852646E-4</v>
       </c>
     </row>
     <row r="386" spans="1:3" x14ac:dyDescent="0.35">
@@ -7616,7 +7617,7 @@
       </c>
       <c r="C386" s="1">
         <f t="shared" si="5"/>
-        <v>2.7215821464211196E-4</v>
+        <v>1.5698258539852646E-4</v>
       </c>
     </row>
     <row r="387" spans="1:3" x14ac:dyDescent="0.35">
@@ -7627,8 +7628,8 @@
         <v>15</v>
       </c>
       <c r="C387" s="1">
-        <f t="shared" ref="C387:C450" si="6">B387/55115</f>
-        <v>2.7215821464211196E-4</v>
+        <f t="shared" ref="C387:C450" si="6">B387/95552</f>
+        <v>1.5698258539852646E-4</v>
       </c>
     </row>
     <row r="388" spans="1:3" x14ac:dyDescent="0.35">
@@ -7640,7 +7641,7 @@
       </c>
       <c r="C388" s="1">
         <f t="shared" si="6"/>
-        <v>2.7215821464211196E-4</v>
+        <v>1.5698258539852646E-4</v>
       </c>
     </row>
     <row r="389" spans="1:3" x14ac:dyDescent="0.35">
@@ -7652,7 +7653,7 @@
       </c>
       <c r="C389" s="1">
         <f t="shared" si="6"/>
-        <v>2.7215821464211196E-4</v>
+        <v>1.5698258539852646E-4</v>
       </c>
     </row>
     <row r="390" spans="1:3" x14ac:dyDescent="0.35">
@@ -7664,7 +7665,7 @@
       </c>
       <c r="C390" s="1">
         <f t="shared" si="6"/>
-        <v>2.7215821464211196E-4</v>
+        <v>1.5698258539852646E-4</v>
       </c>
     </row>
     <row r="391" spans="1:3" x14ac:dyDescent="0.35">
@@ -7676,7 +7677,7 @@
       </c>
       <c r="C391" s="1">
         <f t="shared" si="6"/>
-        <v>2.7215821464211196E-4</v>
+        <v>1.5698258539852646E-4</v>
       </c>
     </row>
     <row r="392" spans="1:3" x14ac:dyDescent="0.35">
@@ -7688,7 +7689,7 @@
       </c>
       <c r="C392" s="1">
         <f t="shared" si="6"/>
-        <v>2.7215821464211196E-4</v>
+        <v>1.5698258539852646E-4</v>
       </c>
     </row>
     <row r="393" spans="1:3" x14ac:dyDescent="0.35">
@@ -7700,7 +7701,7 @@
       </c>
       <c r="C393" s="1">
         <f t="shared" si="6"/>
-        <v>2.7215821464211196E-4</v>
+        <v>1.5698258539852646E-4</v>
       </c>
     </row>
     <row r="394" spans="1:3" x14ac:dyDescent="0.35">
@@ -7712,7 +7713,7 @@
       </c>
       <c r="C394" s="1">
         <f t="shared" si="6"/>
-        <v>2.7215821464211196E-4</v>
+        <v>1.5698258539852646E-4</v>
       </c>
     </row>
     <row r="395" spans="1:3" x14ac:dyDescent="0.35">
@@ -7724,7 +7725,7 @@
       </c>
       <c r="C395" s="1">
         <f t="shared" si="6"/>
-        <v>2.7215821464211196E-4</v>
+        <v>1.5698258539852646E-4</v>
       </c>
     </row>
     <row r="396" spans="1:3" x14ac:dyDescent="0.35">
@@ -7736,7 +7737,7 @@
       </c>
       <c r="C396" s="1">
         <f t="shared" si="6"/>
-        <v>2.7215821464211196E-4</v>
+        <v>1.5698258539852646E-4</v>
       </c>
     </row>
     <row r="397" spans="1:3" x14ac:dyDescent="0.35">
@@ -7748,7 +7749,7 @@
       </c>
       <c r="C397" s="1">
         <f t="shared" si="6"/>
-        <v>2.7215821464211196E-4</v>
+        <v>1.5698258539852646E-4</v>
       </c>
     </row>
     <row r="398" spans="1:3" x14ac:dyDescent="0.35">
@@ -7760,7 +7761,7 @@
       </c>
       <c r="C398" s="1">
         <f t="shared" si="6"/>
-        <v>2.7215821464211196E-4</v>
+        <v>1.5698258539852646E-4</v>
       </c>
     </row>
     <row r="399" spans="1:3" x14ac:dyDescent="0.35">
@@ -7772,7 +7773,7 @@
       </c>
       <c r="C399" s="1">
         <f t="shared" si="6"/>
-        <v>2.7215821464211196E-4</v>
+        <v>1.5698258539852646E-4</v>
       </c>
     </row>
     <row r="400" spans="1:3" x14ac:dyDescent="0.35">
@@ -7784,7 +7785,7 @@
       </c>
       <c r="C400" s="1">
         <f t="shared" si="6"/>
-        <v>2.5401433366597115E-4</v>
+        <v>1.4651707970529136E-4</v>
       </c>
     </row>
     <row r="401" spans="1:3" x14ac:dyDescent="0.35">
@@ -7796,7 +7797,7 @@
       </c>
       <c r="C401" s="1">
         <f t="shared" si="6"/>
-        <v>2.5401433366597115E-4</v>
+        <v>1.4651707970529136E-4</v>
       </c>
     </row>
     <row r="402" spans="1:3" x14ac:dyDescent="0.35">
@@ -7808,7 +7809,7 @@
       </c>
       <c r="C402" s="1">
         <f t="shared" si="6"/>
-        <v>2.5401433366597115E-4</v>
+        <v>1.4651707970529136E-4</v>
       </c>
     </row>
     <row r="403" spans="1:3" x14ac:dyDescent="0.35">
@@ -7820,7 +7821,7 @@
       </c>
       <c r="C403" s="1">
         <f t="shared" si="6"/>
-        <v>2.5401433366597115E-4</v>
+        <v>1.4651707970529136E-4</v>
       </c>
     </row>
     <row r="404" spans="1:3" x14ac:dyDescent="0.35">
@@ -7832,7 +7833,7 @@
       </c>
       <c r="C404" s="1">
         <f t="shared" si="6"/>
-        <v>2.5401433366597115E-4</v>
+        <v>1.4651707970529136E-4</v>
       </c>
     </row>
     <row r="405" spans="1:3" x14ac:dyDescent="0.35">
@@ -7844,7 +7845,7 @@
       </c>
       <c r="C405" s="1">
         <f t="shared" si="6"/>
-        <v>2.5401433366597115E-4</v>
+        <v>1.4651707970529136E-4</v>
       </c>
     </row>
     <row r="406" spans="1:3" x14ac:dyDescent="0.35">
@@ -7856,7 +7857,7 @@
       </c>
       <c r="C406" s="1">
         <f t="shared" si="6"/>
-        <v>2.5401433366597115E-4</v>
+        <v>1.4651707970529136E-4</v>
       </c>
     </row>
     <row r="407" spans="1:3" x14ac:dyDescent="0.35">
@@ -7868,7 +7869,7 @@
       </c>
       <c r="C407" s="1">
         <f t="shared" si="6"/>
-        <v>2.5401433366597115E-4</v>
+        <v>1.4651707970529136E-4</v>
       </c>
     </row>
     <row r="408" spans="1:3" x14ac:dyDescent="0.35">
@@ -7880,7 +7881,7 @@
       </c>
       <c r="C408" s="1">
         <f t="shared" si="6"/>
-        <v>2.5401433366597115E-4</v>
+        <v>1.4651707970529136E-4</v>
       </c>
     </row>
     <row r="409" spans="1:3" x14ac:dyDescent="0.35">
@@ -7892,7 +7893,7 @@
       </c>
       <c r="C409" s="1">
         <f t="shared" si="6"/>
-        <v>2.5401433366597115E-4</v>
+        <v>1.4651707970529136E-4</v>
       </c>
     </row>
     <row r="410" spans="1:3" x14ac:dyDescent="0.35">
@@ -7904,7 +7905,7 @@
       </c>
       <c r="C410" s="1">
         <f t="shared" si="6"/>
-        <v>2.5401433366597115E-4</v>
+        <v>1.4651707970529136E-4</v>
       </c>
     </row>
     <row r="411" spans="1:3" x14ac:dyDescent="0.35">
@@ -7916,7 +7917,7 @@
       </c>
       <c r="C411" s="1">
         <f t="shared" si="6"/>
-        <v>2.5401433366597115E-4</v>
+        <v>1.4651707970529136E-4</v>
       </c>
     </row>
     <row r="412" spans="1:3" x14ac:dyDescent="0.35">
@@ -7928,7 +7929,7 @@
       </c>
       <c r="C412" s="1">
         <f t="shared" si="6"/>
-        <v>2.5401433366597115E-4</v>
+        <v>1.4651707970529136E-4</v>
       </c>
     </row>
     <row r="413" spans="1:3" x14ac:dyDescent="0.35">
@@ -7940,7 +7941,7 @@
       </c>
       <c r="C413" s="1">
         <f t="shared" si="6"/>
-        <v>2.5401433366597115E-4</v>
+        <v>1.4651707970529136E-4</v>
       </c>
     </row>
     <row r="414" spans="1:3" x14ac:dyDescent="0.35">
@@ -7952,7 +7953,7 @@
       </c>
       <c r="C414" s="1">
         <f t="shared" si="6"/>
-        <v>2.5401433366597115E-4</v>
+        <v>1.4651707970529136E-4</v>
       </c>
     </row>
     <row r="415" spans="1:3" x14ac:dyDescent="0.35">
@@ -7964,7 +7965,7 @@
       </c>
       <c r="C415" s="1">
         <f t="shared" si="6"/>
-        <v>2.5401433366597115E-4</v>
+        <v>1.4651707970529136E-4</v>
       </c>
     </row>
     <row r="416" spans="1:3" x14ac:dyDescent="0.35">
@@ -7976,7 +7977,7 @@
       </c>
       <c r="C416" s="1">
         <f t="shared" si="6"/>
-        <v>2.5401433366597115E-4</v>
+        <v>1.4651707970529136E-4</v>
       </c>
     </row>
     <row r="417" spans="1:3" x14ac:dyDescent="0.35">
@@ -7988,7 +7989,7 @@
       </c>
       <c r="C417" s="1">
         <f t="shared" si="6"/>
-        <v>2.5401433366597115E-4</v>
+        <v>1.4651707970529136E-4</v>
       </c>
     </row>
     <row r="418" spans="1:3" x14ac:dyDescent="0.35">
@@ -8000,7 +8001,7 @@
       </c>
       <c r="C418" s="1">
         <f t="shared" si="6"/>
-        <v>2.5401433366597115E-4</v>
+        <v>1.4651707970529136E-4</v>
       </c>
     </row>
     <row r="419" spans="1:3" x14ac:dyDescent="0.35">
@@ -8012,7 +8013,7 @@
       </c>
       <c r="C419" s="1">
         <f t="shared" si="6"/>
-        <v>2.5401433366597115E-4</v>
+        <v>1.4651707970529136E-4</v>
       </c>
     </row>
     <row r="420" spans="1:3" x14ac:dyDescent="0.35">
@@ -8024,7 +8025,7 @@
       </c>
       <c r="C420" s="1">
         <f t="shared" si="6"/>
-        <v>2.5401433366597115E-4</v>
+        <v>1.4651707970529136E-4</v>
       </c>
     </row>
     <row r="421" spans="1:3" x14ac:dyDescent="0.35">
@@ -8036,7 +8037,7 @@
       </c>
       <c r="C421" s="1">
         <f t="shared" si="6"/>
-        <v>2.5401433366597115E-4</v>
+        <v>1.4651707970529136E-4</v>
       </c>
     </row>
     <row r="422" spans="1:3" x14ac:dyDescent="0.35">
@@ -8048,7 +8049,7 @@
       </c>
       <c r="C422" s="1">
         <f t="shared" si="6"/>
-        <v>2.5401433366597115E-4</v>
+        <v>1.4651707970529136E-4</v>
       </c>
     </row>
     <row r="423" spans="1:3" x14ac:dyDescent="0.35">
@@ -8060,7 +8061,7 @@
       </c>
       <c r="C423" s="1">
         <f t="shared" si="6"/>
-        <v>2.5401433366597115E-4</v>
+        <v>1.4651707970529136E-4</v>
       </c>
     </row>
     <row r="424" spans="1:3" x14ac:dyDescent="0.35">
@@ -8072,7 +8073,7 @@
       </c>
       <c r="C424" s="1">
         <f t="shared" si="6"/>
-        <v>2.5401433366597115E-4</v>
+        <v>1.4651707970529136E-4</v>
       </c>
     </row>
     <row r="425" spans="1:3" x14ac:dyDescent="0.35">
@@ -8084,7 +8085,7 @@
       </c>
       <c r="C425" s="1">
         <f t="shared" si="6"/>
-        <v>2.5401433366597115E-4</v>
+        <v>1.4651707970529136E-4</v>
       </c>
     </row>
     <row r="426" spans="1:3" x14ac:dyDescent="0.35">
@@ -8096,7 +8097,7 @@
       </c>
       <c r="C426" s="1">
         <f t="shared" si="6"/>
-        <v>2.5401433366597115E-4</v>
+        <v>1.4651707970529136E-4</v>
       </c>
     </row>
     <row r="427" spans="1:3" x14ac:dyDescent="0.35">
@@ -8108,7 +8109,7 @@
       </c>
       <c r="C427" s="1">
         <f t="shared" si="6"/>
-        <v>2.5401433366597115E-4</v>
+        <v>1.4651707970529136E-4</v>
       </c>
     </row>
     <row r="428" spans="1:3" x14ac:dyDescent="0.35">
@@ -8120,7 +8121,7 @@
       </c>
       <c r="C428" s="1">
         <f t="shared" si="6"/>
-        <v>2.5401433366597115E-4</v>
+        <v>1.4651707970529136E-4</v>
       </c>
     </row>
     <row r="429" spans="1:3" x14ac:dyDescent="0.35">
@@ -8132,7 +8133,7 @@
       </c>
       <c r="C429" s="1">
         <f t="shared" si="6"/>
-        <v>2.5401433366597115E-4</v>
+        <v>1.4651707970529136E-4</v>
       </c>
     </row>
     <row r="430" spans="1:3" x14ac:dyDescent="0.35">
@@ -8144,7 +8145,7 @@
       </c>
       <c r="C430" s="1">
         <f t="shared" si="6"/>
-        <v>2.5401433366597115E-4</v>
+        <v>1.4651707970529136E-4</v>
       </c>
     </row>
     <row r="431" spans="1:3" x14ac:dyDescent="0.35">
@@ -8156,7 +8157,7 @@
       </c>
       <c r="C431" s="1">
         <f t="shared" si="6"/>
-        <v>2.5401433366597115E-4</v>
+        <v>1.4651707970529136E-4</v>
       </c>
     </row>
     <row r="432" spans="1:3" x14ac:dyDescent="0.35">
@@ -8168,7 +8169,7 @@
       </c>
       <c r="C432" s="1">
         <f t="shared" si="6"/>
-        <v>2.5401433366597115E-4</v>
+        <v>1.4651707970529136E-4</v>
       </c>
     </row>
     <row r="433" spans="1:3" x14ac:dyDescent="0.35">
@@ -8180,7 +8181,7 @@
       </c>
       <c r="C433" s="1">
         <f t="shared" si="6"/>
-        <v>2.5401433366597115E-4</v>
+        <v>1.4651707970529136E-4</v>
       </c>
     </row>
     <row r="434" spans="1:3" x14ac:dyDescent="0.35">
@@ -8192,7 +8193,7 @@
       </c>
       <c r="C434" s="1">
         <f t="shared" si="6"/>
-        <v>2.5401433366597115E-4</v>
+        <v>1.4651707970529136E-4</v>
       </c>
     </row>
     <row r="435" spans="1:3" x14ac:dyDescent="0.35">
@@ -8204,7 +8205,7 @@
       </c>
       <c r="C435" s="1">
         <f t="shared" si="6"/>
-        <v>2.5401433366597115E-4</v>
+        <v>1.4651707970529136E-4</v>
       </c>
     </row>
     <row r="436" spans="1:3" x14ac:dyDescent="0.35">
@@ -8216,7 +8217,7 @@
       </c>
       <c r="C436" s="1">
         <f t="shared" si="6"/>
-        <v>2.3587045268983037E-4</v>
+        <v>1.3605157401205627E-4</v>
       </c>
     </row>
     <row r="437" spans="1:3" x14ac:dyDescent="0.35">
@@ -8228,7 +8229,7 @@
       </c>
       <c r="C437" s="1">
         <f t="shared" si="6"/>
-        <v>2.3587045268983037E-4</v>
+        <v>1.3605157401205627E-4</v>
       </c>
     </row>
     <row r="438" spans="1:3" x14ac:dyDescent="0.35">
@@ -8240,7 +8241,7 @@
       </c>
       <c r="C438" s="1">
         <f t="shared" si="6"/>
-        <v>2.3587045268983037E-4</v>
+        <v>1.3605157401205627E-4</v>
       </c>
     </row>
     <row r="439" spans="1:3" x14ac:dyDescent="0.35">
@@ -8252,7 +8253,7 @@
       </c>
       <c r="C439" s="1">
         <f t="shared" si="6"/>
-        <v>2.3587045268983037E-4</v>
+        <v>1.3605157401205627E-4</v>
       </c>
     </row>
     <row r="440" spans="1:3" x14ac:dyDescent="0.35">
@@ -8264,7 +8265,7 @@
       </c>
       <c r="C440" s="1">
         <f t="shared" si="6"/>
-        <v>2.3587045268983037E-4</v>
+        <v>1.3605157401205627E-4</v>
       </c>
     </row>
     <row r="441" spans="1:3" x14ac:dyDescent="0.35">
@@ -8276,7 +8277,7 @@
       </c>
       <c r="C441" s="1">
         <f t="shared" si="6"/>
-        <v>2.3587045268983037E-4</v>
+        <v>1.3605157401205627E-4</v>
       </c>
     </row>
     <row r="442" spans="1:3" x14ac:dyDescent="0.35">
@@ -8288,7 +8289,7 @@
       </c>
       <c r="C442" s="1">
         <f t="shared" si="6"/>
-        <v>2.3587045268983037E-4</v>
+        <v>1.3605157401205627E-4</v>
       </c>
     </row>
     <row r="443" spans="1:3" x14ac:dyDescent="0.35">
@@ -8300,7 +8301,7 @@
       </c>
       <c r="C443" s="1">
         <f t="shared" si="6"/>
-        <v>2.3587045268983037E-4</v>
+        <v>1.3605157401205627E-4</v>
       </c>
     </row>
     <row r="444" spans="1:3" x14ac:dyDescent="0.35">
@@ -8312,7 +8313,7 @@
       </c>
       <c r="C444" s="1">
         <f t="shared" si="6"/>
-        <v>2.3587045268983037E-4</v>
+        <v>1.3605157401205627E-4</v>
       </c>
     </row>
     <row r="445" spans="1:3" x14ac:dyDescent="0.35">
@@ -8324,7 +8325,7 @@
       </c>
       <c r="C445" s="1">
         <f t="shared" si="6"/>
-        <v>2.3587045268983037E-4</v>
+        <v>1.3605157401205627E-4</v>
       </c>
     </row>
     <row r="446" spans="1:3" x14ac:dyDescent="0.35">
@@ -8336,7 +8337,7 @@
       </c>
       <c r="C446" s="1">
         <f t="shared" si="6"/>
-        <v>2.3587045268983037E-4</v>
+        <v>1.3605157401205627E-4</v>
       </c>
     </row>
     <row r="447" spans="1:3" x14ac:dyDescent="0.35">
@@ -8348,7 +8349,7 @@
       </c>
       <c r="C447" s="1">
         <f t="shared" si="6"/>
-        <v>2.3587045268983037E-4</v>
+        <v>1.3605157401205627E-4</v>
       </c>
     </row>
     <row r="448" spans="1:3" x14ac:dyDescent="0.35">
@@ -8360,7 +8361,7 @@
       </c>
       <c r="C448" s="1">
         <f t="shared" si="6"/>
-        <v>2.3587045268983037E-4</v>
+        <v>1.3605157401205627E-4</v>
       </c>
     </row>
     <row r="449" spans="1:3" x14ac:dyDescent="0.35">
@@ -8372,7 +8373,7 @@
       </c>
       <c r="C449" s="1">
         <f t="shared" si="6"/>
-        <v>2.3587045268983037E-4</v>
+        <v>1.3605157401205627E-4</v>
       </c>
     </row>
     <row r="450" spans="1:3" x14ac:dyDescent="0.35">
@@ -8384,7 +8385,7 @@
       </c>
       <c r="C450" s="1">
         <f t="shared" si="6"/>
-        <v>2.3587045268983037E-4</v>
+        <v>1.3605157401205627E-4</v>
       </c>
     </row>
     <row r="451" spans="1:3" x14ac:dyDescent="0.35">
@@ -8395,8 +8396,8 @@
         <v>13</v>
       </c>
       <c r="C451" s="1">
-        <f t="shared" ref="C451:C514" si="7">B451/55115</f>
-        <v>2.3587045268983037E-4</v>
+        <f t="shared" ref="C451:C514" si="7">B451/95552</f>
+        <v>1.3605157401205627E-4</v>
       </c>
     </row>
     <row r="452" spans="1:3" x14ac:dyDescent="0.35">
@@ -8408,7 +8409,7 @@
       </c>
       <c r="C452" s="1">
         <f t="shared" si="7"/>
-        <v>2.3587045268983037E-4</v>
+        <v>1.3605157401205627E-4</v>
       </c>
     </row>
     <row r="453" spans="1:3" x14ac:dyDescent="0.35">
@@ -8420,7 +8421,7 @@
       </c>
       <c r="C453" s="1">
         <f t="shared" si="7"/>
-        <v>2.3587045268983037E-4</v>
+        <v>1.3605157401205627E-4</v>
       </c>
     </row>
     <row r="454" spans="1:3" x14ac:dyDescent="0.35">
@@ -8432,7 +8433,7 @@
       </c>
       <c r="C454" s="1">
         <f t="shared" si="7"/>
-        <v>2.3587045268983037E-4</v>
+        <v>1.3605157401205627E-4</v>
       </c>
     </row>
     <row r="455" spans="1:3" x14ac:dyDescent="0.35">
@@ -8444,7 +8445,7 @@
       </c>
       <c r="C455" s="1">
         <f t="shared" si="7"/>
-        <v>2.3587045268983037E-4</v>
+        <v>1.3605157401205627E-4</v>
       </c>
     </row>
     <row r="456" spans="1:3" x14ac:dyDescent="0.35">
@@ -8456,7 +8457,7 @@
       </c>
       <c r="C456" s="1">
         <f t="shared" si="7"/>
-        <v>2.3587045268983037E-4</v>
+        <v>1.3605157401205627E-4</v>
       </c>
     </row>
     <row r="457" spans="1:3" x14ac:dyDescent="0.35">
@@ -8468,7 +8469,7 @@
       </c>
       <c r="C457" s="1">
         <f t="shared" si="7"/>
-        <v>2.3587045268983037E-4</v>
+        <v>1.3605157401205627E-4</v>
       </c>
     </row>
     <row r="458" spans="1:3" x14ac:dyDescent="0.35">
@@ -8480,7 +8481,7 @@
       </c>
       <c r="C458" s="1">
         <f t="shared" si="7"/>
-        <v>2.3587045268983037E-4</v>
+        <v>1.3605157401205627E-4</v>
       </c>
     </row>
     <row r="459" spans="1:3" x14ac:dyDescent="0.35">
@@ -8492,7 +8493,7 @@
       </c>
       <c r="C459" s="1">
         <f t="shared" si="7"/>
-        <v>2.3587045268983037E-4</v>
+        <v>1.3605157401205627E-4</v>
       </c>
     </row>
     <row r="460" spans="1:3" x14ac:dyDescent="0.35">
@@ -8504,7 +8505,7 @@
       </c>
       <c r="C460" s="1">
         <f t="shared" si="7"/>
-        <v>2.3587045268983037E-4</v>
+        <v>1.3605157401205627E-4</v>
       </c>
     </row>
     <row r="461" spans="1:3" x14ac:dyDescent="0.35">
@@ -8516,7 +8517,7 @@
       </c>
       <c r="C461" s="1">
         <f t="shared" si="7"/>
-        <v>2.3587045268983037E-4</v>
+        <v>1.3605157401205627E-4</v>
       </c>
     </row>
     <row r="462" spans="1:3" x14ac:dyDescent="0.35">
@@ -8528,7 +8529,7 @@
       </c>
       <c r="C462" s="1">
         <f t="shared" si="7"/>
-        <v>2.1772657171368956E-4</v>
+        <v>1.2558606831882115E-4</v>
       </c>
     </row>
     <row r="463" spans="1:3" x14ac:dyDescent="0.35">
@@ -8540,7 +8541,7 @@
       </c>
       <c r="C463" s="1">
         <f t="shared" si="7"/>
-        <v>2.1772657171368956E-4</v>
+        <v>1.2558606831882115E-4</v>
       </c>
     </row>
     <row r="464" spans="1:3" x14ac:dyDescent="0.35">
@@ -8552,7 +8553,7 @@
       </c>
       <c r="C464" s="1">
         <f t="shared" si="7"/>
-        <v>2.1772657171368956E-4</v>
+        <v>1.2558606831882115E-4</v>
       </c>
     </row>
     <row r="465" spans="1:3" x14ac:dyDescent="0.35">
@@ -8564,7 +8565,7 @@
       </c>
       <c r="C465" s="1">
         <f t="shared" si="7"/>
-        <v>2.1772657171368956E-4</v>
+        <v>1.2558606831882115E-4</v>
       </c>
     </row>
     <row r="466" spans="1:3" x14ac:dyDescent="0.35">
@@ -8576,7 +8577,7 @@
       </c>
       <c r="C466" s="1">
         <f t="shared" si="7"/>
-        <v>2.1772657171368956E-4</v>
+        <v>1.2558606831882115E-4</v>
       </c>
     </row>
     <row r="467" spans="1:3" x14ac:dyDescent="0.35">
@@ -8588,7 +8589,7 @@
       </c>
       <c r="C467" s="1">
         <f t="shared" si="7"/>
-        <v>2.1772657171368956E-4</v>
+        <v>1.2558606831882115E-4</v>
       </c>
     </row>
     <row r="468" spans="1:3" x14ac:dyDescent="0.35">
@@ -8600,7 +8601,7 @@
       </c>
       <c r="C468" s="1">
         <f t="shared" si="7"/>
-        <v>2.1772657171368956E-4</v>
+        <v>1.2558606831882115E-4</v>
       </c>
     </row>
     <row r="469" spans="1:3" x14ac:dyDescent="0.35">
@@ -8612,7 +8613,7 @@
       </c>
       <c r="C469" s="1">
         <f t="shared" si="7"/>
-        <v>2.1772657171368956E-4</v>
+        <v>1.2558606831882115E-4</v>
       </c>
     </row>
     <row r="470" spans="1:3" x14ac:dyDescent="0.35">
@@ -8624,7 +8625,7 @@
       </c>
       <c r="C470" s="1">
         <f t="shared" si="7"/>
-        <v>2.1772657171368956E-4</v>
+        <v>1.2558606831882115E-4</v>
       </c>
     </row>
     <row r="471" spans="1:3" x14ac:dyDescent="0.35">
@@ -8636,7 +8637,7 @@
       </c>
       <c r="C471" s="1">
         <f t="shared" si="7"/>
-        <v>2.1772657171368956E-4</v>
+        <v>1.2558606831882115E-4</v>
       </c>
     </row>
     <row r="472" spans="1:3" x14ac:dyDescent="0.35">
@@ -8648,7 +8649,7 @@
       </c>
       <c r="C472" s="1">
         <f t="shared" si="7"/>
-        <v>2.1772657171368956E-4</v>
+        <v>1.2558606831882115E-4</v>
       </c>
     </row>
     <row r="473" spans="1:3" x14ac:dyDescent="0.35">
@@ -8660,7 +8661,7 @@
       </c>
       <c r="C473" s="1">
         <f t="shared" si="7"/>
-        <v>2.1772657171368956E-4</v>
+        <v>1.2558606831882115E-4</v>
       </c>
     </row>
     <row r="474" spans="1:3" x14ac:dyDescent="0.35">
@@ -8672,7 +8673,7 @@
       </c>
       <c r="C474" s="1">
         <f t="shared" si="7"/>
-        <v>2.1772657171368956E-4</v>
+        <v>1.2558606831882115E-4</v>
       </c>
     </row>
     <row r="475" spans="1:3" x14ac:dyDescent="0.35">
@@ -8684,7 +8685,7 @@
       </c>
       <c r="C475" s="1">
         <f t="shared" si="7"/>
-        <v>2.1772657171368956E-4</v>
+        <v>1.2558606831882115E-4</v>
       </c>
     </row>
     <row r="476" spans="1:3" x14ac:dyDescent="0.35">
@@ -8696,7 +8697,7 @@
       </c>
       <c r="C476" s="1">
         <f t="shared" si="7"/>
-        <v>2.1772657171368956E-4</v>
+        <v>1.2558606831882115E-4</v>
       </c>
     </row>
     <row r="477" spans="1:3" x14ac:dyDescent="0.35">
@@ -8708,7 +8709,7 @@
       </c>
       <c r="C477" s="1">
         <f t="shared" si="7"/>
-        <v>2.1772657171368956E-4</v>
+        <v>1.2558606831882115E-4</v>
       </c>
     </row>
     <row r="478" spans="1:3" x14ac:dyDescent="0.35">
@@ -8720,7 +8721,7 @@
       </c>
       <c r="C478" s="1">
         <f t="shared" si="7"/>
-        <v>2.1772657171368956E-4</v>
+        <v>1.2558606831882115E-4</v>
       </c>
     </row>
     <row r="479" spans="1:3" x14ac:dyDescent="0.35">
@@ -8732,7 +8733,7 @@
       </c>
       <c r="C479" s="1">
         <f t="shared" si="7"/>
-        <v>2.1772657171368956E-4</v>
+        <v>1.2558606831882115E-4</v>
       </c>
     </row>
     <row r="480" spans="1:3" x14ac:dyDescent="0.35">
@@ -8744,7 +8745,7 @@
       </c>
       <c r="C480" s="1">
         <f t="shared" si="7"/>
-        <v>2.1772657171368956E-4</v>
+        <v>1.2558606831882115E-4</v>
       </c>
     </row>
     <row r="481" spans="1:3" x14ac:dyDescent="0.35">
@@ -8756,7 +8757,7 @@
       </c>
       <c r="C481" s="1">
         <f t="shared" si="7"/>
-        <v>2.1772657171368956E-4</v>
+        <v>1.2558606831882115E-4</v>
       </c>
     </row>
     <row r="482" spans="1:3" x14ac:dyDescent="0.35">
@@ -8768,7 +8769,7 @@
       </c>
       <c r="C482" s="1">
         <f t="shared" si="7"/>
-        <v>2.1772657171368956E-4</v>
+        <v>1.2558606831882115E-4</v>
       </c>
     </row>
     <row r="483" spans="1:3" x14ac:dyDescent="0.35">
@@ -8780,7 +8781,7 @@
       </c>
       <c r="C483" s="1">
         <f t="shared" si="7"/>
-        <v>2.1772657171368956E-4</v>
+        <v>1.2558606831882115E-4</v>
       </c>
     </row>
     <row r="484" spans="1:3" x14ac:dyDescent="0.35">
@@ -8792,7 +8793,7 @@
       </c>
       <c r="C484" s="1">
         <f t="shared" si="7"/>
-        <v>2.1772657171368956E-4</v>
+        <v>1.2558606831882115E-4</v>
       </c>
     </row>
     <row r="485" spans="1:3" x14ac:dyDescent="0.35">
@@ -8804,7 +8805,7 @@
       </c>
       <c r="C485" s="1">
         <f t="shared" si="7"/>
-        <v>2.1772657171368956E-4</v>
+        <v>1.2558606831882115E-4</v>
       </c>
     </row>
     <row r="486" spans="1:3" x14ac:dyDescent="0.35">
@@ -8816,7 +8817,7 @@
       </c>
       <c r="C486" s="1">
         <f t="shared" si="7"/>
-        <v>2.1772657171368956E-4</v>
+        <v>1.2558606831882115E-4</v>
       </c>
     </row>
     <row r="487" spans="1:3" x14ac:dyDescent="0.35">
@@ -8828,7 +8829,7 @@
       </c>
       <c r="C487" s="1">
         <f t="shared" si="7"/>
-        <v>2.1772657171368956E-4</v>
+        <v>1.2558606831882115E-4</v>
       </c>
     </row>
     <row r="488" spans="1:3" x14ac:dyDescent="0.35">
@@ -8840,7 +8841,7 @@
       </c>
       <c r="C488" s="1">
         <f t="shared" si="7"/>
-        <v>2.1772657171368956E-4</v>
+        <v>1.2558606831882115E-4</v>
       </c>
     </row>
     <row r="489" spans="1:3" x14ac:dyDescent="0.35">
@@ -8852,7 +8853,7 @@
       </c>
       <c r="C489" s="1">
         <f t="shared" si="7"/>
-        <v>2.1772657171368956E-4</v>
+        <v>1.2558606831882115E-4</v>
       </c>
     </row>
     <row r="490" spans="1:3" x14ac:dyDescent="0.35">
@@ -8864,7 +8865,7 @@
       </c>
       <c r="C490" s="1">
         <f t="shared" si="7"/>
-        <v>2.1772657171368956E-4</v>
+        <v>1.2558606831882115E-4</v>
       </c>
     </row>
     <row r="491" spans="1:3" x14ac:dyDescent="0.35">
@@ -8876,7 +8877,7 @@
       </c>
       <c r="C491" s="1">
         <f t="shared" si="7"/>
-        <v>2.1772657171368956E-4</v>
+        <v>1.2558606831882115E-4</v>
       </c>
     </row>
     <row r="492" spans="1:3" x14ac:dyDescent="0.35">
@@ -8888,7 +8889,7 @@
       </c>
       <c r="C492" s="1">
         <f t="shared" si="7"/>
-        <v>2.1772657171368956E-4</v>
+        <v>1.2558606831882115E-4</v>
       </c>
     </row>
     <row r="493" spans="1:3" x14ac:dyDescent="0.35">
@@ -8900,7 +8901,7 @@
       </c>
       <c r="C493" s="1">
         <f t="shared" si="7"/>
-        <v>2.1772657171368956E-4</v>
+        <v>1.2558606831882115E-4</v>
       </c>
     </row>
     <row r="494" spans="1:3" x14ac:dyDescent="0.35">
@@ -8912,7 +8913,7 @@
       </c>
       <c r="C494" s="1">
         <f t="shared" si="7"/>
-        <v>2.1772657171368956E-4</v>
+        <v>1.2558606831882115E-4</v>
       </c>
     </row>
     <row r="495" spans="1:3" x14ac:dyDescent="0.35">
@@ -8924,7 +8925,7 @@
       </c>
       <c r="C495" s="1">
         <f t="shared" si="7"/>
-        <v>2.1772657171368956E-4</v>
+        <v>1.2558606831882115E-4</v>
       </c>
     </row>
     <row r="496" spans="1:3" x14ac:dyDescent="0.35">
@@ -8936,7 +8937,7 @@
       </c>
       <c r="C496" s="1">
         <f t="shared" si="7"/>
-        <v>2.1772657171368956E-4</v>
+        <v>1.2558606831882115E-4</v>
       </c>
     </row>
     <row r="497" spans="1:3" x14ac:dyDescent="0.35">
@@ -8948,7 +8949,7 @@
       </c>
       <c r="C497" s="1">
         <f t="shared" si="7"/>
-        <v>2.1772657171368956E-4</v>
+        <v>1.2558606831882115E-4</v>
       </c>
     </row>
     <row r="498" spans="1:3" x14ac:dyDescent="0.35">
@@ -8960,7 +8961,7 @@
       </c>
       <c r="C498" s="1">
         <f t="shared" si="7"/>
-        <v>2.1772657171368956E-4</v>
+        <v>1.2558606831882115E-4</v>
       </c>
     </row>
     <row r="499" spans="1:3" x14ac:dyDescent="0.35">
@@ -8972,7 +8973,7 @@
       </c>
       <c r="C499" s="1">
         <f t="shared" si="7"/>
-        <v>2.1772657171368956E-4</v>
+        <v>1.2558606831882115E-4</v>
       </c>
     </row>
     <row r="500" spans="1:3" x14ac:dyDescent="0.35">
@@ -8984,7 +8985,7 @@
       </c>
       <c r="C500" s="1">
         <f t="shared" si="7"/>
-        <v>2.1772657171368956E-4</v>
+        <v>1.2558606831882115E-4</v>
       </c>
     </row>
     <row r="501" spans="1:3" x14ac:dyDescent="0.35">
@@ -8996,7 +8997,7 @@
       </c>
       <c r="C501" s="1">
         <f t="shared" si="7"/>
-        <v>2.1772657171368956E-4</v>
+        <v>1.2558606831882115E-4</v>
       </c>
     </row>
     <row r="502" spans="1:3" x14ac:dyDescent="0.35">
@@ -9008,7 +9009,7 @@
       </c>
       <c r="C502" s="1">
         <f t="shared" si="7"/>
-        <v>2.1772657171368956E-4</v>
+        <v>1.2558606831882115E-4</v>
       </c>
     </row>
     <row r="503" spans="1:3" x14ac:dyDescent="0.35">
@@ -9020,7 +9021,7 @@
       </c>
       <c r="C503" s="1">
         <f t="shared" si="7"/>
-        <v>2.1772657171368956E-4</v>
+        <v>1.2558606831882115E-4</v>
       </c>
     </row>
     <row r="504" spans="1:3" x14ac:dyDescent="0.35">
@@ -9032,7 +9033,7 @@
       </c>
       <c r="C504" s="1">
         <f t="shared" si="7"/>
-        <v>2.1772657171368956E-4</v>
+        <v>1.2558606831882115E-4</v>
       </c>
     </row>
     <row r="505" spans="1:3" x14ac:dyDescent="0.35">
@@ -9044,7 +9045,7 @@
       </c>
       <c r="C505" s="1">
         <f t="shared" si="7"/>
-        <v>2.1772657171368956E-4</v>
+        <v>1.2558606831882115E-4</v>
       </c>
     </row>
     <row r="506" spans="1:3" x14ac:dyDescent="0.35">
@@ -9056,7 +9057,7 @@
       </c>
       <c r="C506" s="1">
         <f t="shared" si="7"/>
-        <v>2.1772657171368956E-4</v>
+        <v>1.2558606831882115E-4</v>
       </c>
     </row>
     <row r="507" spans="1:3" x14ac:dyDescent="0.35">
@@ -9068,7 +9069,7 @@
       </c>
       <c r="C507" s="1">
         <f t="shared" si="7"/>
-        <v>2.1772657171368956E-4</v>
+        <v>1.2558606831882115E-4</v>
       </c>
     </row>
     <row r="508" spans="1:3" x14ac:dyDescent="0.35">
@@ -9080,7 +9081,7 @@
       </c>
       <c r="C508" s="1">
         <f t="shared" si="7"/>
-        <v>2.1772657171368956E-4</v>
+        <v>1.2558606831882115E-4</v>
       </c>
     </row>
     <row r="509" spans="1:3" x14ac:dyDescent="0.35">
@@ -9092,7 +9093,7 @@
       </c>
       <c r="C509" s="1">
         <f t="shared" si="7"/>
-        <v>2.1772657171368956E-4</v>
+        <v>1.2558606831882115E-4</v>
       </c>
     </row>
     <row r="510" spans="1:3" x14ac:dyDescent="0.35">
@@ -9104,7 +9105,7 @@
       </c>
       <c r="C510" s="1">
         <f t="shared" si="7"/>
-        <v>2.1772657171368956E-4</v>
+        <v>1.2558606831882115E-4</v>
       </c>
     </row>
     <row r="511" spans="1:3" x14ac:dyDescent="0.35">
@@ -9116,7 +9117,7 @@
       </c>
       <c r="C511" s="1">
         <f t="shared" si="7"/>
-        <v>2.1772657171368956E-4</v>
+        <v>1.2558606831882115E-4</v>
       </c>
     </row>
     <row r="512" spans="1:3" x14ac:dyDescent="0.35">
@@ -9128,7 +9129,7 @@
       </c>
       <c r="C512" s="1">
         <f t="shared" si="7"/>
-        <v>2.1772657171368956E-4</v>
+        <v>1.2558606831882115E-4</v>
       </c>
     </row>
     <row r="513" spans="1:3" x14ac:dyDescent="0.35">
@@ -9140,7 +9141,7 @@
       </c>
       <c r="C513" s="1">
         <f t="shared" si="7"/>
-        <v>2.1772657171368956E-4</v>
+        <v>1.2558606831882115E-4</v>
       </c>
     </row>
     <row r="514" spans="1:3" x14ac:dyDescent="0.35">
@@ -9152,7 +9153,7 @@
       </c>
       <c r="C514" s="1">
         <f t="shared" si="7"/>
-        <v>2.1772657171368956E-4</v>
+        <v>1.2558606831882115E-4</v>
       </c>
     </row>
     <row r="515" spans="1:3" x14ac:dyDescent="0.35">
@@ -9163,8 +9164,8 @@
         <v>11</v>
       </c>
       <c r="C515" s="1">
-        <f t="shared" ref="C515:C578" si="8">B515/55115</f>
-        <v>1.9958269073754877E-4</v>
+        <f t="shared" ref="C515:C578" si="8">B515/95552</f>
+        <v>1.1512056262558606E-4</v>
       </c>
     </row>
     <row r="516" spans="1:3" x14ac:dyDescent="0.35">
@@ -9176,7 +9177,7 @@
       </c>
       <c r="C516" s="1">
         <f t="shared" si="8"/>
-        <v>1.9958269073754877E-4</v>
+        <v>1.1512056262558606E-4</v>
       </c>
     </row>
     <row r="517" spans="1:3" x14ac:dyDescent="0.35">
@@ -9188,7 +9189,7 @@
       </c>
       <c r="C517" s="1">
         <f t="shared" si="8"/>
-        <v>1.9958269073754877E-4</v>
+        <v>1.1512056262558606E-4</v>
       </c>
     </row>
     <row r="518" spans="1:3" x14ac:dyDescent="0.35">
@@ -9200,7 +9201,7 @@
       </c>
       <c r="C518" s="1">
         <f t="shared" si="8"/>
-        <v>1.9958269073754877E-4</v>
+        <v>1.1512056262558606E-4</v>
       </c>
     </row>
     <row r="519" spans="1:3" x14ac:dyDescent="0.35">
@@ -9212,7 +9213,7 @@
       </c>
       <c r="C519" s="1">
         <f t="shared" si="8"/>
-        <v>1.9958269073754877E-4</v>
+        <v>1.1512056262558606E-4</v>
       </c>
     </row>
     <row r="520" spans="1:3" x14ac:dyDescent="0.35">
@@ -9224,7 +9225,7 @@
       </c>
       <c r="C520" s="1">
         <f t="shared" si="8"/>
-        <v>1.9958269073754877E-4</v>
+        <v>1.1512056262558606E-4</v>
       </c>
     </row>
     <row r="521" spans="1:3" x14ac:dyDescent="0.35">
@@ -9236,7 +9237,7 @@
       </c>
       <c r="C521" s="1">
         <f t="shared" si="8"/>
-        <v>1.9958269073754877E-4</v>
+        <v>1.1512056262558606E-4</v>
       </c>
     </row>
     <row r="522" spans="1:3" x14ac:dyDescent="0.35">
@@ -9248,7 +9249,7 @@
       </c>
       <c r="C522" s="1">
         <f t="shared" si="8"/>
-        <v>1.9958269073754877E-4</v>
+        <v>1.1512056262558606E-4</v>
       </c>
     </row>
     <row r="523" spans="1:3" x14ac:dyDescent="0.35">
@@ -9260,7 +9261,7 @@
       </c>
       <c r="C523" s="1">
         <f t="shared" si="8"/>
-        <v>1.9958269073754877E-4</v>
+        <v>1.1512056262558606E-4</v>
       </c>
     </row>
     <row r="524" spans="1:3" x14ac:dyDescent="0.35">
@@ -9272,7 +9273,7 @@
       </c>
       <c r="C524" s="1">
         <f t="shared" si="8"/>
-        <v>1.9958269073754877E-4</v>
+        <v>1.1512056262558606E-4</v>
       </c>
     </row>
     <row r="525" spans="1:3" x14ac:dyDescent="0.35">
@@ -9284,7 +9285,7 @@
       </c>
       <c r="C525" s="1">
         <f t="shared" si="8"/>
-        <v>1.9958269073754877E-4</v>
+        <v>1.1512056262558606E-4</v>
       </c>
     </row>
     <row r="526" spans="1:3" x14ac:dyDescent="0.35">
@@ -9296,7 +9297,7 @@
       </c>
       <c r="C526" s="1">
         <f t="shared" si="8"/>
-        <v>1.9958269073754877E-4</v>
+        <v>1.1512056262558606E-4</v>
       </c>
     </row>
     <row r="527" spans="1:3" x14ac:dyDescent="0.35">
@@ -9308,7 +9309,7 @@
       </c>
       <c r="C527" s="1">
         <f t="shared" si="8"/>
-        <v>1.9958269073754877E-4</v>
+        <v>1.1512056262558606E-4</v>
       </c>
     </row>
     <row r="528" spans="1:3" x14ac:dyDescent="0.35">
@@ -9320,7 +9321,7 @@
       </c>
       <c r="C528" s="1">
         <f t="shared" si="8"/>
-        <v>1.9958269073754877E-4</v>
+        <v>1.1512056262558606E-4</v>
       </c>
     </row>
     <row r="529" spans="1:3" x14ac:dyDescent="0.35">
@@ -9332,7 +9333,7 @@
       </c>
       <c r="C529" s="1">
         <f t="shared" si="8"/>
-        <v>1.9958269073754877E-4</v>
+        <v>1.1512056262558606E-4</v>
       </c>
     </row>
     <row r="530" spans="1:3" x14ac:dyDescent="0.35">
@@ -9344,7 +9345,7 @@
       </c>
       <c r="C530" s="1">
         <f t="shared" si="8"/>
-        <v>1.9958269073754877E-4</v>
+        <v>1.1512056262558606E-4</v>
       </c>
     </row>
     <row r="531" spans="1:3" x14ac:dyDescent="0.35">
@@ -9356,7 +9357,7 @@
       </c>
       <c r="C531" s="1">
         <f t="shared" si="8"/>
-        <v>1.9958269073754877E-4</v>
+        <v>1.1512056262558606E-4</v>
       </c>
     </row>
     <row r="532" spans="1:3" x14ac:dyDescent="0.35">
@@ -9368,7 +9369,7 @@
       </c>
       <c r="C532" s="1">
         <f t="shared" si="8"/>
-        <v>1.9958269073754877E-4</v>
+        <v>1.1512056262558606E-4</v>
       </c>
     </row>
     <row r="533" spans="1:3" x14ac:dyDescent="0.35">
@@ -9380,7 +9381,7 @@
       </c>
       <c r="C533" s="1">
         <f t="shared" si="8"/>
-        <v>1.9958269073754877E-4</v>
+        <v>1.1512056262558606E-4</v>
       </c>
     </row>
     <row r="534" spans="1:3" x14ac:dyDescent="0.35">
@@ -9392,7 +9393,7 @@
       </c>
       <c r="C534" s="1">
         <f t="shared" si="8"/>
-        <v>1.9958269073754877E-4</v>
+        <v>1.1512056262558606E-4</v>
       </c>
     </row>
     <row r="535" spans="1:3" x14ac:dyDescent="0.35">
@@ -9404,7 +9405,7 @@
       </c>
       <c r="C535" s="1">
         <f t="shared" si="8"/>
-        <v>1.9958269073754877E-4</v>
+        <v>1.1512056262558606E-4</v>
       </c>
     </row>
     <row r="536" spans="1:3" x14ac:dyDescent="0.35">
@@ -9416,7 +9417,7 @@
       </c>
       <c r="C536" s="1">
         <f t="shared" si="8"/>
-        <v>1.9958269073754877E-4</v>
+        <v>1.1512056262558606E-4</v>
       </c>
     </row>
     <row r="537" spans="1:3" x14ac:dyDescent="0.35">
@@ -9428,7 +9429,7 @@
       </c>
       <c r="C537" s="1">
         <f t="shared" si="8"/>
-        <v>1.9958269073754877E-4</v>
+        <v>1.1512056262558606E-4</v>
       </c>
     </row>
     <row r="538" spans="1:3" x14ac:dyDescent="0.35">
@@ -9440,7 +9441,7 @@
       </c>
       <c r="C538" s="1">
         <f t="shared" si="8"/>
-        <v>1.9958269073754877E-4</v>
+        <v>1.1512056262558606E-4</v>
       </c>
     </row>
     <row r="539" spans="1:3" x14ac:dyDescent="0.35">
@@ -9452,7 +9453,7 @@
       </c>
       <c r="C539" s="1">
         <f t="shared" si="8"/>
-        <v>1.9958269073754877E-4</v>
+        <v>1.1512056262558606E-4</v>
       </c>
     </row>
     <row r="540" spans="1:3" x14ac:dyDescent="0.35">
@@ -9464,7 +9465,7 @@
       </c>
       <c r="C540" s="1">
         <f t="shared" si="8"/>
-        <v>1.9958269073754877E-4</v>
+        <v>1.1512056262558606E-4</v>
       </c>
     </row>
     <row r="541" spans="1:3" x14ac:dyDescent="0.35">
@@ -9476,7 +9477,7 @@
       </c>
       <c r="C541" s="1">
         <f t="shared" si="8"/>
-        <v>1.9958269073754877E-4</v>
+        <v>1.1512056262558606E-4</v>
       </c>
     </row>
     <row r="542" spans="1:3" x14ac:dyDescent="0.35">
@@ -9488,7 +9489,7 @@
       </c>
       <c r="C542" s="1">
         <f t="shared" si="8"/>
-        <v>1.9958269073754877E-4</v>
+        <v>1.1512056262558606E-4</v>
       </c>
     </row>
     <row r="543" spans="1:3" x14ac:dyDescent="0.35">
@@ -9500,7 +9501,7 @@
       </c>
       <c r="C543" s="1">
         <f t="shared" si="8"/>
-        <v>1.9958269073754877E-4</v>
+        <v>1.1512056262558606E-4</v>
       </c>
     </row>
     <row r="544" spans="1:3" x14ac:dyDescent="0.35">
@@ -9512,7 +9513,7 @@
       </c>
       <c r="C544" s="1">
         <f t="shared" si="8"/>
-        <v>1.9958269073754877E-4</v>
+        <v>1.1512056262558606E-4</v>
       </c>
     </row>
     <row r="545" spans="1:3" x14ac:dyDescent="0.35">
@@ -9524,7 +9525,7 @@
       </c>
       <c r="C545" s="1">
         <f t="shared" si="8"/>
-        <v>1.9958269073754877E-4</v>
+        <v>1.1512056262558606E-4</v>
       </c>
     </row>
     <row r="546" spans="1:3" x14ac:dyDescent="0.35">
@@ -9536,7 +9537,7 @@
       </c>
       <c r="C546" s="1">
         <f t="shared" si="8"/>
-        <v>1.9958269073754877E-4</v>
+        <v>1.1512056262558606E-4</v>
       </c>
     </row>
     <row r="547" spans="1:3" x14ac:dyDescent="0.35">
@@ -9548,7 +9549,7 @@
       </c>
       <c r="C547" s="1">
         <f t="shared" si="8"/>
-        <v>1.9958269073754877E-4</v>
+        <v>1.1512056262558606E-4</v>
       </c>
     </row>
     <row r="548" spans="1:3" x14ac:dyDescent="0.35">
@@ -9560,7 +9561,7 @@
       </c>
       <c r="C548" s="1">
         <f t="shared" si="8"/>
-        <v>1.9958269073754877E-4</v>
+        <v>1.1512056262558606E-4</v>
       </c>
     </row>
     <row r="549" spans="1:3" x14ac:dyDescent="0.35">
@@ -9572,7 +9573,7 @@
       </c>
       <c r="C549" s="1">
         <f t="shared" si="8"/>
-        <v>1.9958269073754877E-4</v>
+        <v>1.1512056262558606E-4</v>
       </c>
     </row>
     <row r="550" spans="1:3" x14ac:dyDescent="0.35">
@@ -9584,7 +9585,7 @@
       </c>
       <c r="C550" s="1">
         <f t="shared" si="8"/>
-        <v>1.9958269073754877E-4</v>
+        <v>1.1512056262558606E-4</v>
       </c>
     </row>
     <row r="551" spans="1:3" x14ac:dyDescent="0.35">
@@ -9596,7 +9597,7 @@
       </c>
       <c r="C551" s="1">
         <f t="shared" si="8"/>
-        <v>1.9958269073754877E-4</v>
+        <v>1.1512056262558606E-4</v>
       </c>
     </row>
     <row r="552" spans="1:3" x14ac:dyDescent="0.35">
@@ -9608,7 +9609,7 @@
       </c>
       <c r="C552" s="1">
         <f t="shared" si="8"/>
-        <v>1.9958269073754877E-4</v>
+        <v>1.1512056262558606E-4</v>
       </c>
     </row>
     <row r="553" spans="1:3" x14ac:dyDescent="0.35">
@@ -9620,7 +9621,7 @@
       </c>
       <c r="C553" s="1">
         <f t="shared" si="8"/>
-        <v>1.9958269073754877E-4</v>
+        <v>1.1512056262558606E-4</v>
       </c>
     </row>
     <row r="554" spans="1:3" x14ac:dyDescent="0.35">
@@ -9632,7 +9633,7 @@
       </c>
       <c r="C554" s="1">
         <f t="shared" si="8"/>
-        <v>1.9958269073754877E-4</v>
+        <v>1.1512056262558606E-4</v>
       </c>
     </row>
     <row r="555" spans="1:3" x14ac:dyDescent="0.35">
@@ -9644,7 +9645,7 @@
       </c>
       <c r="C555" s="1">
         <f t="shared" si="8"/>
-        <v>1.9958269073754877E-4</v>
+        <v>1.1512056262558606E-4</v>
       </c>
     </row>
     <row r="556" spans="1:3" x14ac:dyDescent="0.35">
@@ -9656,7 +9657,7 @@
       </c>
       <c r="C556" s="1">
         <f t="shared" si="8"/>
-        <v>1.9958269073754877E-4</v>
+        <v>1.1512056262558606E-4</v>
       </c>
     </row>
     <row r="557" spans="1:3" x14ac:dyDescent="0.35">
@@ -9668,7 +9669,7 @@
       </c>
       <c r="C557" s="1">
         <f t="shared" si="8"/>
-        <v>1.9958269073754877E-4</v>
+        <v>1.1512056262558606E-4</v>
       </c>
     </row>
     <row r="558" spans="1:3" x14ac:dyDescent="0.35">
@@ -9680,7 +9681,7 @@
       </c>
       <c r="C558" s="1">
         <f t="shared" si="8"/>
-        <v>1.9958269073754877E-4</v>
+        <v>1.1512056262558606E-4</v>
       </c>
     </row>
     <row r="559" spans="1:3" x14ac:dyDescent="0.35">
@@ -9692,7 +9693,7 @@
       </c>
       <c r="C559" s="1">
         <f t="shared" si="8"/>
-        <v>1.9958269073754877E-4</v>
+        <v>1.1512056262558606E-4</v>
       </c>
     </row>
     <row r="560" spans="1:3" x14ac:dyDescent="0.35">
@@ -9704,7 +9705,7 @@
       </c>
       <c r="C560" s="1">
         <f t="shared" si="8"/>
-        <v>1.9958269073754877E-4</v>
+        <v>1.1512056262558606E-4</v>
       </c>
     </row>
     <row r="561" spans="1:3" x14ac:dyDescent="0.35">
@@ -9716,7 +9717,7 @@
       </c>
       <c r="C561" s="1">
         <f t="shared" si="8"/>
-        <v>1.9958269073754877E-4</v>
+        <v>1.1512056262558606E-4</v>
       </c>
     </row>
     <row r="562" spans="1:3" x14ac:dyDescent="0.35">
@@ -9728,7 +9729,7 @@
       </c>
       <c r="C562" s="1">
         <f t="shared" si="8"/>
-        <v>1.9958269073754877E-4</v>
+        <v>1.1512056262558606E-4</v>
       </c>
     </row>
     <row r="563" spans="1:3" x14ac:dyDescent="0.35">
@@ -9740,7 +9741,7 @@
       </c>
       <c r="C563" s="1">
         <f t="shared" si="8"/>
-        <v>1.9958269073754877E-4</v>
+        <v>1.1512056262558606E-4</v>
       </c>
     </row>
     <row r="564" spans="1:3" x14ac:dyDescent="0.35">
@@ -9752,7 +9753,7 @@
       </c>
       <c r="C564" s="1">
         <f t="shared" si="8"/>
-        <v>1.9958269073754877E-4</v>
+        <v>1.1512056262558606E-4</v>
       </c>
     </row>
     <row r="565" spans="1:3" x14ac:dyDescent="0.35">
@@ -9764,7 +9765,7 @@
       </c>
       <c r="C565" s="1">
         <f t="shared" si="8"/>
-        <v>1.9958269073754877E-4</v>
+        <v>1.1512056262558606E-4</v>
       </c>
     </row>
     <row r="566" spans="1:3" x14ac:dyDescent="0.35">
@@ -9776,7 +9777,7 @@
       </c>
       <c r="C566" s="1">
         <f t="shared" si="8"/>
-        <v>1.9958269073754877E-4</v>
+        <v>1.1512056262558606E-4</v>
       </c>
     </row>
     <row r="567" spans="1:3" x14ac:dyDescent="0.35">
@@ -9788,7 +9789,7 @@
       </c>
       <c r="C567" s="1">
         <f t="shared" si="8"/>
-        <v>1.9958269073754877E-4</v>
+        <v>1.1512056262558606E-4</v>
       </c>
     </row>
     <row r="568" spans="1:3" x14ac:dyDescent="0.35">
@@ -9800,7 +9801,7 @@
       </c>
       <c r="C568" s="1">
         <f t="shared" si="8"/>
-        <v>1.9958269073754877E-4</v>
+        <v>1.1512056262558606E-4</v>
       </c>
     </row>
     <row r="569" spans="1:3" x14ac:dyDescent="0.35">
@@ -9812,7 +9813,7 @@
       </c>
       <c r="C569" s="1">
         <f t="shared" si="8"/>
-        <v>1.9958269073754877E-4</v>
+        <v>1.1512056262558606E-4</v>
       </c>
     </row>
     <row r="570" spans="1:3" x14ac:dyDescent="0.35">
@@ -9824,7 +9825,7 @@
       </c>
       <c r="C570" s="1">
         <f t="shared" si="8"/>
-        <v>1.9958269073754877E-4</v>
+        <v>1.1512056262558606E-4</v>
       </c>
     </row>
     <row r="571" spans="1:3" x14ac:dyDescent="0.35">
@@ -9836,7 +9837,7 @@
       </c>
       <c r="C571" s="1">
         <f t="shared" si="8"/>
-        <v>1.9958269073754877E-4</v>
+        <v>1.1512056262558606E-4</v>
       </c>
     </row>
     <row r="572" spans="1:3" x14ac:dyDescent="0.35">
@@ -9848,7 +9849,7 @@
       </c>
       <c r="C572" s="1">
         <f t="shared" si="8"/>
-        <v>1.8143880976140796E-4</v>
+        <v>1.0465505693235097E-4</v>
       </c>
     </row>
     <row r="573" spans="1:3" x14ac:dyDescent="0.35">
@@ -9860,7 +9861,7 @@
       </c>
       <c r="C573" s="1">
         <f t="shared" si="8"/>
-        <v>1.8143880976140796E-4</v>
+        <v>1.0465505693235097E-4</v>
       </c>
     </row>
     <row r="574" spans="1:3" x14ac:dyDescent="0.35">
@@ -9872,7 +9873,7 @@
       </c>
       <c r="C574" s="1">
         <f t="shared" si="8"/>
-        <v>1.8143880976140796E-4</v>
+        <v>1.0465505693235097E-4</v>
       </c>
     </row>
     <row r="575" spans="1:3" x14ac:dyDescent="0.35">
@@ -9884,7 +9885,7 @@
       </c>
       <c r="C575" s="1">
         <f t="shared" si="8"/>
-        <v>1.8143880976140796E-4</v>
+        <v>1.0465505693235097E-4</v>
       </c>
     </row>
     <row r="576" spans="1:3" x14ac:dyDescent="0.35">
@@ -9896,7 +9897,7 @@
       </c>
       <c r="C576" s="1">
         <f t="shared" si="8"/>
-        <v>1.8143880976140796E-4</v>
+        <v>1.0465505693235097E-4</v>
       </c>
     </row>
     <row r="577" spans="1:3" x14ac:dyDescent="0.35">
@@ -9908,7 +9909,7 @@
       </c>
       <c r="C577" s="1">
         <f t="shared" si="8"/>
-        <v>1.8143880976140796E-4</v>
+        <v>1.0465505693235097E-4</v>
       </c>
     </row>
     <row r="578" spans="1:3" x14ac:dyDescent="0.35">
@@ -9920,7 +9921,7 @@
       </c>
       <c r="C578" s="1">
         <f t="shared" si="8"/>
-        <v>1.8143880976140796E-4</v>
+        <v>1.0465505693235097E-4</v>
       </c>
     </row>
     <row r="579" spans="1:3" x14ac:dyDescent="0.35">
@@ -9931,8 +9932,8 @@
         <v>10</v>
       </c>
       <c r="C579" s="1">
-        <f t="shared" ref="C579:C642" si="9">B579/55115</f>
-        <v>1.8143880976140796E-4</v>
+        <f t="shared" ref="C579:C642" si="9">B579/95552</f>
+        <v>1.0465505693235097E-4</v>
       </c>
     </row>
     <row r="580" spans="1:3" x14ac:dyDescent="0.35">
@@ -9944,7 +9945,7 @@
       </c>
       <c r="C580" s="1">
         <f t="shared" si="9"/>
-        <v>1.8143880976140796E-4</v>
+        <v>1.0465505693235097E-4</v>
       </c>
     </row>
     <row r="581" spans="1:3" x14ac:dyDescent="0.35">
@@ -9956,7 +9957,7 @@
       </c>
       <c r="C581" s="1">
         <f t="shared" si="9"/>
-        <v>1.8143880976140796E-4</v>
+        <v>1.0465505693235097E-4</v>
       </c>
     </row>
     <row r="582" spans="1:3" x14ac:dyDescent="0.35">
@@ -9968,7 +9969,7 @@
       </c>
       <c r="C582" s="1">
         <f t="shared" si="9"/>
-        <v>1.8143880976140796E-4</v>
+        <v>1.0465505693235097E-4</v>
       </c>
     </row>
     <row r="583" spans="1:3" x14ac:dyDescent="0.35">
@@ -9980,7 +9981,7 @@
       </c>
       <c r="C583" s="1">
         <f t="shared" si="9"/>
-        <v>1.8143880976140796E-4</v>
+        <v>1.0465505693235097E-4</v>
       </c>
     </row>
     <row r="584" spans="1:3" x14ac:dyDescent="0.35">
@@ -9992,7 +9993,7 @@
       </c>
       <c r="C584" s="1">
         <f t="shared" si="9"/>
-        <v>1.8143880976140796E-4</v>
+        <v>1.0465505693235097E-4</v>
       </c>
     </row>
     <row r="585" spans="1:3" x14ac:dyDescent="0.35">
@@ -10004,7 +10005,7 @@
       </c>
       <c r="C585" s="1">
         <f t="shared" si="9"/>
-        <v>1.8143880976140796E-4</v>
+        <v>1.0465505693235097E-4</v>
       </c>
     </row>
     <row r="586" spans="1:3" x14ac:dyDescent="0.35">
@@ -10016,7 +10017,7 @@
       </c>
       <c r="C586" s="1">
         <f t="shared" si="9"/>
-        <v>1.8143880976140796E-4</v>
+        <v>1.0465505693235097E-4</v>
       </c>
     </row>
     <row r="587" spans="1:3" x14ac:dyDescent="0.35">
@@ -10028,7 +10029,7 @@
       </c>
       <c r="C587" s="1">
         <f t="shared" si="9"/>
-        <v>1.8143880976140796E-4</v>
+        <v>1.0465505693235097E-4</v>
       </c>
     </row>
     <row r="588" spans="1:3" x14ac:dyDescent="0.35">
@@ -10040,7 +10041,7 @@
       </c>
       <c r="C588" s="1">
         <f t="shared" si="9"/>
-        <v>1.8143880976140796E-4</v>
+        <v>1.0465505693235097E-4</v>
       </c>
     </row>
     <row r="589" spans="1:3" x14ac:dyDescent="0.35">
@@ -10052,7 +10053,7 @@
       </c>
       <c r="C589" s="1">
         <f t="shared" si="9"/>
-        <v>1.8143880976140796E-4</v>
+        <v>1.0465505693235097E-4</v>
       </c>
     </row>
     <row r="590" spans="1:3" x14ac:dyDescent="0.35">
@@ -10064,7 +10065,7 @@
       </c>
       <c r="C590" s="1">
         <f t="shared" si="9"/>
-        <v>1.8143880976140796E-4</v>
+        <v>1.0465505693235097E-4</v>
       </c>
     </row>
     <row r="591" spans="1:3" x14ac:dyDescent="0.35">
@@ -10076,7 +10077,7 @@
       </c>
       <c r="C591" s="1">
         <f t="shared" si="9"/>
-        <v>1.8143880976140796E-4</v>
+        <v>1.0465505693235097E-4</v>
       </c>
     </row>
     <row r="592" spans="1:3" x14ac:dyDescent="0.35">
@@ -10088,7 +10089,7 @@
       </c>
       <c r="C592" s="1">
         <f t="shared" si="9"/>
-        <v>1.8143880976140796E-4</v>
+        <v>1.0465505693235097E-4</v>
       </c>
     </row>
     <row r="593" spans="1:3" x14ac:dyDescent="0.35">
@@ -10100,7 +10101,7 @@
       </c>
       <c r="C593" s="1">
         <f t="shared" si="9"/>
-        <v>1.8143880976140796E-4</v>
+        <v>1.0465505693235097E-4</v>
       </c>
     </row>
     <row r="594" spans="1:3" x14ac:dyDescent="0.35">
@@ -10112,7 +10113,7 @@
       </c>
       <c r="C594" s="1">
         <f t="shared" si="9"/>
-        <v>1.8143880976140796E-4</v>
+        <v>1.0465505693235097E-4</v>
       </c>
     </row>
     <row r="595" spans="1:3" x14ac:dyDescent="0.35">
@@ -10124,7 +10125,7 @@
       </c>
       <c r="C595" s="1">
         <f t="shared" si="9"/>
-        <v>1.8143880976140796E-4</v>
+        <v>1.0465505693235097E-4</v>
       </c>
     </row>
     <row r="596" spans="1:3" x14ac:dyDescent="0.35">
@@ -10136,7 +10137,7 @@
       </c>
       <c r="C596" s="1">
         <f t="shared" si="9"/>
-        <v>1.8143880976140796E-4</v>
+        <v>1.0465505693235097E-4</v>
       </c>
     </row>
     <row r="597" spans="1:3" x14ac:dyDescent="0.35">
@@ -10148,7 +10149,7 @@
       </c>
       <c r="C597" s="1">
         <f t="shared" si="9"/>
-        <v>1.8143880976140796E-4</v>
+        <v>1.0465505693235097E-4</v>
       </c>
     </row>
     <row r="598" spans="1:3" x14ac:dyDescent="0.35">
@@ -10160,7 +10161,7 @@
       </c>
       <c r="C598" s="1">
         <f t="shared" si="9"/>
-        <v>1.8143880976140796E-4</v>
+        <v>1.0465505693235097E-4</v>
       </c>
     </row>
     <row r="599" spans="1:3" x14ac:dyDescent="0.35">
@@ -10172,7 +10173,7 @@
       </c>
       <c r="C599" s="1">
         <f t="shared" si="9"/>
-        <v>1.8143880976140796E-4</v>
+        <v>1.0465505693235097E-4</v>
       </c>
     </row>
     <row r="600" spans="1:3" x14ac:dyDescent="0.35">
@@ -10184,7 +10185,7 @@
       </c>
       <c r="C600" s="1">
         <f t="shared" si="9"/>
-        <v>1.8143880976140796E-4</v>
+        <v>1.0465505693235097E-4</v>
       </c>
     </row>
     <row r="601" spans="1:3" x14ac:dyDescent="0.35">
@@ -10196,7 +10197,7 @@
       </c>
       <c r="C601" s="1">
         <f t="shared" si="9"/>
-        <v>1.8143880976140796E-4</v>
+        <v>1.0465505693235097E-4</v>
       </c>
     </row>
     <row r="602" spans="1:3" x14ac:dyDescent="0.35">
@@ -10208,7 +10209,7 @@
       </c>
       <c r="C602" s="1">
         <f t="shared" si="9"/>
-        <v>1.8143880976140796E-4</v>
+        <v>1.0465505693235097E-4</v>
       </c>
     </row>
     <row r="603" spans="1:3" x14ac:dyDescent="0.35">
@@ -10220,7 +10221,7 @@
       </c>
       <c r="C603" s="1">
         <f t="shared" si="9"/>
-        <v>1.8143880976140796E-4</v>
+        <v>1.0465505693235097E-4</v>
       </c>
     </row>
     <row r="604" spans="1:3" x14ac:dyDescent="0.35">
@@ -10232,7 +10233,7 @@
       </c>
       <c r="C604" s="1">
         <f t="shared" si="9"/>
-        <v>1.8143880976140796E-4</v>
+        <v>1.0465505693235097E-4</v>
       </c>
     </row>
     <row r="605" spans="1:3" x14ac:dyDescent="0.35">
@@ -10244,7 +10245,7 @@
       </c>
       <c r="C605" s="1">
         <f t="shared" si="9"/>
-        <v>1.8143880976140796E-4</v>
+        <v>1.0465505693235097E-4</v>
       </c>
     </row>
     <row r="606" spans="1:3" x14ac:dyDescent="0.35">
@@ -10256,7 +10257,7 @@
       </c>
       <c r="C606" s="1">
         <f t="shared" si="9"/>
-        <v>1.8143880976140796E-4</v>
+        <v>1.0465505693235097E-4</v>
       </c>
     </row>
     <row r="607" spans="1:3" x14ac:dyDescent="0.35">
@@ -10268,7 +10269,7 @@
       </c>
       <c r="C607" s="1">
         <f t="shared" si="9"/>
-        <v>1.8143880976140796E-4</v>
+        <v>1.0465505693235097E-4</v>
       </c>
     </row>
     <row r="608" spans="1:3" x14ac:dyDescent="0.35">
@@ -10280,7 +10281,7 @@
       </c>
       <c r="C608" s="1">
         <f t="shared" si="9"/>
-        <v>1.8143880976140796E-4</v>
+        <v>1.0465505693235097E-4</v>
       </c>
     </row>
     <row r="609" spans="1:3" x14ac:dyDescent="0.35">
@@ -10292,7 +10293,7 @@
       </c>
       <c r="C609" s="1">
         <f t="shared" si="9"/>
-        <v>1.8143880976140796E-4</v>
+        <v>1.0465505693235097E-4</v>
       </c>
     </row>
     <row r="610" spans="1:3" x14ac:dyDescent="0.35">
@@ -10304,7 +10305,7 @@
       </c>
       <c r="C610" s="1">
         <f t="shared" si="9"/>
-        <v>1.8143880976140796E-4</v>
+        <v>1.0465505693235097E-4</v>
       </c>
     </row>
     <row r="611" spans="1:3" x14ac:dyDescent="0.35">
@@ -10316,7 +10317,7 @@
       </c>
       <c r="C611" s="1">
         <f t="shared" si="9"/>
-        <v>1.8143880976140796E-4</v>
+        <v>1.0465505693235097E-4</v>
       </c>
     </row>
     <row r="612" spans="1:3" x14ac:dyDescent="0.35">
@@ -10328,7 +10329,7 @@
       </c>
       <c r="C612" s="1">
         <f t="shared" si="9"/>
-        <v>1.8143880976140796E-4</v>
+        <v>1.0465505693235097E-4</v>
       </c>
     </row>
     <row r="613" spans="1:3" x14ac:dyDescent="0.35">
@@ -10340,7 +10341,7 @@
       </c>
       <c r="C613" s="1">
         <f t="shared" si="9"/>
-        <v>1.8143880976140796E-4</v>
+        <v>1.0465505693235097E-4</v>
       </c>
     </row>
     <row r="614" spans="1:3" x14ac:dyDescent="0.35">
@@ -10352,7 +10353,7 @@
       </c>
       <c r="C614" s="1">
         <f t="shared" si="9"/>
-        <v>1.8143880976140796E-4</v>
+        <v>1.0465505693235097E-4</v>
       </c>
     </row>
     <row r="615" spans="1:3" x14ac:dyDescent="0.35">
@@ -10364,7 +10365,7 @@
       </c>
       <c r="C615" s="1">
         <f t="shared" si="9"/>
-        <v>1.8143880976140796E-4</v>
+        <v>1.0465505693235097E-4</v>
       </c>
     </row>
     <row r="616" spans="1:3" x14ac:dyDescent="0.35">
@@ -10376,7 +10377,7 @@
       </c>
       <c r="C616" s="1">
         <f t="shared" si="9"/>
-        <v>1.8143880976140796E-4</v>
+        <v>1.0465505693235097E-4</v>
       </c>
     </row>
     <row r="617" spans="1:3" x14ac:dyDescent="0.35">
@@ -10388,7 +10389,7 @@
       </c>
       <c r="C617" s="1">
         <f t="shared" si="9"/>
-        <v>1.8143880976140796E-4</v>
+        <v>1.0465505693235097E-4</v>
       </c>
     </row>
     <row r="618" spans="1:3" x14ac:dyDescent="0.35">
@@ -10400,7 +10401,7 @@
       </c>
       <c r="C618" s="1">
         <f t="shared" si="9"/>
-        <v>1.8143880976140796E-4</v>
+        <v>1.0465505693235097E-4</v>
       </c>
     </row>
     <row r="619" spans="1:3" x14ac:dyDescent="0.35">
@@ -10412,7 +10413,7 @@
       </c>
       <c r="C619" s="1">
         <f t="shared" si="9"/>
-        <v>1.8143880976140796E-4</v>
+        <v>1.0465505693235097E-4</v>
       </c>
     </row>
     <row r="620" spans="1:3" x14ac:dyDescent="0.35">
@@ -10424,7 +10425,7 @@
       </c>
       <c r="C620" s="1">
         <f t="shared" si="9"/>
-        <v>1.8143880976140796E-4</v>
+        <v>1.0465505693235097E-4</v>
       </c>
     </row>
     <row r="621" spans="1:3" x14ac:dyDescent="0.35">
@@ -10436,7 +10437,7 @@
       </c>
       <c r="C621" s="1">
         <f t="shared" si="9"/>
-        <v>1.8143880976140796E-4</v>
+        <v>1.0465505693235097E-4</v>
       </c>
     </row>
     <row r="622" spans="1:3" x14ac:dyDescent="0.35">
@@ -10448,7 +10449,7 @@
       </c>
       <c r="C622" s="1">
         <f t="shared" si="9"/>
-        <v>1.8143880976140796E-4</v>
+        <v>1.0465505693235097E-4</v>
       </c>
     </row>
     <row r="623" spans="1:3" x14ac:dyDescent="0.35">
@@ -10460,7 +10461,7 @@
       </c>
       <c r="C623" s="1">
         <f t="shared" si="9"/>
-        <v>1.8143880976140796E-4</v>
+        <v>1.0465505693235097E-4</v>
       </c>
     </row>
     <row r="624" spans="1:3" x14ac:dyDescent="0.35">
@@ -10472,7 +10473,7 @@
       </c>
       <c r="C624" s="1">
         <f t="shared" si="9"/>
-        <v>1.8143880976140796E-4</v>
+        <v>1.0465505693235097E-4</v>
       </c>
     </row>
     <row r="625" spans="1:3" x14ac:dyDescent="0.35">
@@ -10484,7 +10485,7 @@
       </c>
       <c r="C625" s="1">
         <f t="shared" si="9"/>
-        <v>1.8143880976140796E-4</v>
+        <v>1.0465505693235097E-4</v>
       </c>
     </row>
     <row r="626" spans="1:3" x14ac:dyDescent="0.35">
@@ -10496,7 +10497,7 @@
       </c>
       <c r="C626" s="1">
         <f t="shared" si="9"/>
-        <v>1.8143880976140796E-4</v>
+        <v>1.0465505693235097E-4</v>
       </c>
     </row>
     <row r="627" spans="1:3" x14ac:dyDescent="0.35">
@@ -10508,7 +10509,7 @@
       </c>
       <c r="C627" s="1">
         <f t="shared" si="9"/>
-        <v>1.8143880976140796E-4</v>
+        <v>1.0465505693235097E-4</v>
       </c>
     </row>
     <row r="628" spans="1:3" x14ac:dyDescent="0.35">
@@ -10520,7 +10521,7 @@
       </c>
       <c r="C628" s="1">
         <f t="shared" si="9"/>
-        <v>1.8143880976140796E-4</v>
+        <v>1.0465505693235097E-4</v>
       </c>
     </row>
     <row r="629" spans="1:3" x14ac:dyDescent="0.35">
@@ -10532,7 +10533,7 @@
       </c>
       <c r="C629" s="1">
         <f t="shared" si="9"/>
-        <v>1.8143880976140796E-4</v>
+        <v>1.0465505693235097E-4</v>
       </c>
     </row>
     <row r="630" spans="1:3" x14ac:dyDescent="0.35">
@@ -10544,7 +10545,7 @@
       </c>
       <c r="C630" s="1">
         <f t="shared" si="9"/>
-        <v>1.8143880976140796E-4</v>
+        <v>1.0465505693235097E-4</v>
       </c>
     </row>
     <row r="631" spans="1:3" x14ac:dyDescent="0.35">
@@ -10556,7 +10557,7 @@
       </c>
       <c r="C631" s="1">
         <f t="shared" si="9"/>
-        <v>1.8143880976140796E-4</v>
+        <v>1.0465505693235097E-4</v>
       </c>
     </row>
     <row r="632" spans="1:3" x14ac:dyDescent="0.35">
@@ -10568,7 +10569,7 @@
       </c>
       <c r="C632" s="1">
         <f t="shared" si="9"/>
-        <v>1.8143880976140796E-4</v>
+        <v>1.0465505693235097E-4</v>
       </c>
     </row>
     <row r="633" spans="1:3" x14ac:dyDescent="0.35">
@@ -10580,7 +10581,7 @@
       </c>
       <c r="C633" s="1">
         <f t="shared" si="9"/>
-        <v>1.8143880976140796E-4</v>
+        <v>1.0465505693235097E-4</v>
       </c>
     </row>
     <row r="634" spans="1:3" x14ac:dyDescent="0.35">
@@ -10592,7 +10593,7 @@
       </c>
       <c r="C634" s="1">
         <f t="shared" si="9"/>
-        <v>1.8143880976140796E-4</v>
+        <v>1.0465505693235097E-4</v>
       </c>
     </row>
     <row r="635" spans="1:3" x14ac:dyDescent="0.35">
@@ -10604,7 +10605,7 @@
       </c>
       <c r="C635" s="1">
         <f t="shared" si="9"/>
-        <v>1.8143880976140796E-4</v>
+        <v>1.0465505693235097E-4</v>
       </c>
     </row>
     <row r="636" spans="1:3" x14ac:dyDescent="0.35">
@@ -10616,7 +10617,7 @@
       </c>
       <c r="C636" s="1">
         <f t="shared" si="9"/>
-        <v>1.8143880976140796E-4</v>
+        <v>1.0465505693235097E-4</v>
       </c>
     </row>
     <row r="637" spans="1:3" x14ac:dyDescent="0.35">
@@ -10628,7 +10629,7 @@
       </c>
       <c r="C637" s="1">
         <f t="shared" si="9"/>
-        <v>1.8143880976140796E-4</v>
+        <v>1.0465505693235097E-4</v>
       </c>
     </row>
     <row r="638" spans="1:3" x14ac:dyDescent="0.35">
@@ -10640,7 +10641,7 @@
       </c>
       <c r="C638" s="1">
         <f t="shared" si="9"/>
-        <v>1.8143880976140796E-4</v>
+        <v>1.0465505693235097E-4</v>
       </c>
     </row>
     <row r="639" spans="1:3" x14ac:dyDescent="0.35">
@@ -10652,7 +10653,7 @@
       </c>
       <c r="C639" s="1">
         <f t="shared" si="9"/>
-        <v>1.8143880976140796E-4</v>
+        <v>1.0465505693235097E-4</v>
       </c>
     </row>
     <row r="640" spans="1:3" x14ac:dyDescent="0.35">
@@ -10664,7 +10665,7 @@
       </c>
       <c r="C640" s="1">
         <f t="shared" si="9"/>
-        <v>1.8143880976140796E-4</v>
+        <v>1.0465505693235097E-4</v>
       </c>
     </row>
     <row r="641" spans="1:3" x14ac:dyDescent="0.35">
@@ -10676,7 +10677,7 @@
       </c>
       <c r="C641" s="1">
         <f t="shared" si="9"/>
-        <v>1.8143880976140796E-4</v>
+        <v>1.0465505693235097E-4</v>
       </c>
     </row>
     <row r="642" spans="1:3" x14ac:dyDescent="0.35">
@@ -10688,7 +10689,7 @@
       </c>
       <c r="C642" s="1">
         <f t="shared" si="9"/>
-        <v>1.8143880976140796E-4</v>
+        <v>1.0465505693235097E-4</v>
       </c>
     </row>
     <row r="643" spans="1:3" x14ac:dyDescent="0.35">
@@ -10699,8 +10700,8 @@
         <v>10</v>
       </c>
       <c r="C643" s="1">
-        <f t="shared" ref="C643:C706" si="10">B643/55115</f>
-        <v>1.8143880976140796E-4</v>
+        <f t="shared" ref="C643:C706" si="10">B643/95552</f>
+        <v>1.0465505693235097E-4</v>
       </c>
     </row>
     <row r="644" spans="1:3" x14ac:dyDescent="0.35">
@@ -10712,7 +10713,7 @@
       </c>
       <c r="C644" s="1">
         <f t="shared" si="10"/>
-        <v>1.8143880976140796E-4</v>
+        <v>1.0465505693235097E-4</v>
       </c>
     </row>
     <row r="645" spans="1:3" x14ac:dyDescent="0.35">
@@ -10724,7 +10725,7 @@
       </c>
       <c r="C645" s="1">
         <f t="shared" si="10"/>
-        <v>1.8143880976140796E-4</v>
+        <v>1.0465505693235097E-4</v>
       </c>
     </row>
     <row r="646" spans="1:3" x14ac:dyDescent="0.35">
@@ -10736,7 +10737,7 @@
       </c>
       <c r="C646" s="1">
         <f t="shared" si="10"/>
-        <v>1.8143880976140796E-4</v>
+        <v>1.0465505693235097E-4</v>
       </c>
     </row>
     <row r="647" spans="1:3" x14ac:dyDescent="0.35">
@@ -10748,7 +10749,7 @@
       </c>
       <c r="C647" s="1">
         <f t="shared" si="10"/>
-        <v>1.8143880976140796E-4</v>
+        <v>1.0465505693235097E-4</v>
       </c>
     </row>
     <row r="648" spans="1:3" x14ac:dyDescent="0.35">
@@ -10760,7 +10761,7 @@
       </c>
       <c r="C648" s="1">
         <f t="shared" si="10"/>
-        <v>1.6329492878526717E-4</v>
+        <v>9.4189551239115879E-5</v>
       </c>
     </row>
     <row r="649" spans="1:3" x14ac:dyDescent="0.35">
@@ -10772,7 +10773,7 @@
       </c>
       <c r="C649" s="1">
         <f t="shared" si="10"/>
-        <v>1.6329492878526717E-4</v>
+        <v>9.4189551239115879E-5</v>
       </c>
     </row>
     <row r="650" spans="1:3" x14ac:dyDescent="0.35">
@@ -10784,7 +10785,7 @@
       </c>
       <c r="C650" s="1">
         <f t="shared" si="10"/>
-        <v>1.6329492878526717E-4</v>
+        <v>9.4189551239115879E-5</v>
       </c>
     </row>
     <row r="651" spans="1:3" x14ac:dyDescent="0.35">
@@ -10796,7 +10797,7 @@
       </c>
       <c r="C651" s="1">
         <f t="shared" si="10"/>
-        <v>1.6329492878526717E-4</v>
+        <v>9.4189551239115879E-5</v>
       </c>
     </row>
     <row r="652" spans="1:3" x14ac:dyDescent="0.35">
@@ -10808,7 +10809,7 @@
       </c>
       <c r="C652" s="1">
         <f t="shared" si="10"/>
-        <v>1.6329492878526717E-4</v>
+        <v>9.4189551239115879E-5</v>
       </c>
     </row>
     <row r="653" spans="1:3" x14ac:dyDescent="0.35">
@@ -10820,7 +10821,7 @@
       </c>
       <c r="C653" s="1">
         <f t="shared" si="10"/>
-        <v>1.6329492878526717E-4</v>
+        <v>9.4189551239115879E-5</v>
       </c>
     </row>
     <row r="654" spans="1:3" x14ac:dyDescent="0.35">
@@ -10832,7 +10833,7 @@
       </c>
       <c r="C654" s="1">
         <f t="shared" si="10"/>
-        <v>1.6329492878526717E-4</v>
+        <v>9.4189551239115879E-5</v>
       </c>
     </row>
     <row r="655" spans="1:3" x14ac:dyDescent="0.35">
@@ -10844,7 +10845,7 @@
       </c>
       <c r="C655" s="1">
         <f t="shared" si="10"/>
-        <v>1.6329492878526717E-4</v>
+        <v>9.4189551239115879E-5</v>
       </c>
     </row>
     <row r="656" spans="1:3" x14ac:dyDescent="0.35">
@@ -10856,7 +10857,7 @@
       </c>
       <c r="C656" s="1">
         <f t="shared" si="10"/>
-        <v>1.6329492878526717E-4</v>
+        <v>9.4189551239115879E-5</v>
       </c>
     </row>
     <row r="657" spans="1:3" x14ac:dyDescent="0.35">
@@ -10868,7 +10869,7 @@
       </c>
       <c r="C657" s="1">
         <f t="shared" si="10"/>
-        <v>1.6329492878526717E-4</v>
+        <v>9.4189551239115879E-5</v>
       </c>
     </row>
     <row r="658" spans="1:3" x14ac:dyDescent="0.35">
@@ -10880,7 +10881,7 @@
       </c>
       <c r="C658" s="1">
         <f t="shared" si="10"/>
-        <v>1.6329492878526717E-4</v>
+        <v>9.4189551239115879E-5</v>
       </c>
     </row>
     <row r="659" spans="1:3" x14ac:dyDescent="0.35">
@@ -10892,7 +10893,7 @@
       </c>
       <c r="C659" s="1">
         <f t="shared" si="10"/>
-        <v>1.4515104780912636E-4</v>
+        <v>8.3724045545880774E-5</v>
       </c>
     </row>
     <row r="660" spans="1:3" x14ac:dyDescent="0.35">
@@ -10904,7 +10905,7 @@
       </c>
       <c r="C660" s="1">
         <f t="shared" si="10"/>
-        <v>1.4515104780912636E-4</v>
+        <v>8.3724045545880774E-5</v>
       </c>
     </row>
     <row r="661" spans="1:3" x14ac:dyDescent="0.35">
@@ -10916,7 +10917,7 @@
       </c>
       <c r="C661" s="1">
         <f t="shared" si="10"/>
-        <v>1.4515104780912636E-4</v>
+        <v>8.3724045545880774E-5</v>
       </c>
     </row>
     <row r="662" spans="1:3" x14ac:dyDescent="0.35">
@@ -10928,7 +10929,7 @@
       </c>
       <c r="C662" s="1">
         <f t="shared" si="10"/>
-        <v>1.4515104780912636E-4</v>
+        <v>8.3724045545880774E-5</v>
       </c>
     </row>
     <row r="663" spans="1:3" x14ac:dyDescent="0.35">
@@ -10940,7 +10941,7 @@
       </c>
       <c r="C663" s="1">
         <f t="shared" si="10"/>
-        <v>1.4515104780912636E-4</v>
+        <v>8.3724045545880774E-5</v>
       </c>
     </row>
     <row r="664" spans="1:3" x14ac:dyDescent="0.35">
@@ -10952,7 +10953,7 @@
       </c>
       <c r="C664" s="1">
         <f t="shared" si="10"/>
-        <v>1.4515104780912636E-4</v>
+        <v>8.3724045545880774E-5</v>
       </c>
     </row>
     <row r="665" spans="1:3" x14ac:dyDescent="0.35">
@@ -10964,7 +10965,7 @@
       </c>
       <c r="C665" s="1">
         <f t="shared" si="10"/>
-        <v>1.4515104780912636E-4</v>
+        <v>8.3724045545880774E-5</v>
       </c>
     </row>
     <row r="666" spans="1:3" x14ac:dyDescent="0.35">
@@ -10976,7 +10977,7 @@
       </c>
       <c r="C666" s="1">
         <f t="shared" si="10"/>
-        <v>1.4515104780912636E-4</v>
+        <v>8.3724045545880774E-5</v>
       </c>
     </row>
     <row r="667" spans="1:3" x14ac:dyDescent="0.35">
@@ -10988,7 +10989,7 @@
       </c>
       <c r="C667" s="1">
         <f t="shared" si="10"/>
-        <v>1.4515104780912636E-4</v>
+        <v>8.3724045545880774E-5</v>
       </c>
     </row>
     <row r="668" spans="1:3" x14ac:dyDescent="0.35">
@@ -11000,7 +11001,7 @@
       </c>
       <c r="C668" s="1">
         <f t="shared" si="10"/>
-        <v>1.4515104780912636E-4</v>
+        <v>8.3724045545880774E-5</v>
       </c>
     </row>
     <row r="669" spans="1:3" x14ac:dyDescent="0.35">
@@ -11012,7 +11013,7 @@
       </c>
       <c r="C669" s="1">
         <f t="shared" si="10"/>
-        <v>1.4515104780912636E-4</v>
+        <v>8.3724045545880774E-5</v>
       </c>
     </row>
     <row r="670" spans="1:3" x14ac:dyDescent="0.35">
@@ -11024,7 +11025,7 @@
       </c>
       <c r="C670" s="1">
         <f t="shared" si="10"/>
-        <v>1.4515104780912636E-4</v>
+        <v>8.3724045545880774E-5</v>
       </c>
     </row>
     <row r="671" spans="1:3" x14ac:dyDescent="0.35">
@@ -11036,7 +11037,7 @@
       </c>
       <c r="C671" s="1">
         <f t="shared" si="10"/>
-        <v>1.4515104780912636E-4</v>
+        <v>8.3724045545880774E-5</v>
       </c>
     </row>
     <row r="672" spans="1:3" x14ac:dyDescent="0.35">
@@ -11048,7 +11049,7 @@
       </c>
       <c r="C672" s="1">
         <f t="shared" si="10"/>
-        <v>1.4515104780912636E-4</v>
+        <v>8.3724045545880774E-5</v>
       </c>
     </row>
     <row r="673" spans="1:3" x14ac:dyDescent="0.35">
@@ -11060,7 +11061,7 @@
       </c>
       <c r="C673" s="1">
         <f t="shared" si="10"/>
-        <v>1.4515104780912636E-4</v>
+        <v>8.3724045545880774E-5</v>
       </c>
     </row>
     <row r="674" spans="1:3" x14ac:dyDescent="0.35">
@@ -11072,7 +11073,7 @@
       </c>
       <c r="C674" s="1">
         <f t="shared" si="10"/>
-        <v>1.4515104780912636E-4</v>
+        <v>8.3724045545880774E-5</v>
       </c>
     </row>
     <row r="675" spans="1:3" x14ac:dyDescent="0.35">
@@ -11084,7 +11085,7 @@
       </c>
       <c r="C675" s="1">
         <f t="shared" si="10"/>
-        <v>1.2700716683298558E-4</v>
+        <v>7.3258539852645682E-5</v>
       </c>
     </row>
     <row r="676" spans="1:3" x14ac:dyDescent="0.35">
@@ -11096,7 +11097,7 @@
       </c>
       <c r="C676" s="1">
         <f t="shared" si="10"/>
-        <v>1.2700716683298558E-4</v>
+        <v>7.3258539852645682E-5</v>
       </c>
     </row>
     <row r="677" spans="1:3" x14ac:dyDescent="0.35">
@@ -11108,7 +11109,7 @@
       </c>
       <c r="C677" s="1">
         <f t="shared" si="10"/>
-        <v>1.2700716683298558E-4</v>
+        <v>7.3258539852645682E-5</v>
       </c>
     </row>
     <row r="678" spans="1:3" x14ac:dyDescent="0.35">
@@ -11120,7 +11121,7 @@
       </c>
       <c r="C678" s="1">
         <f t="shared" si="10"/>
-        <v>1.2700716683298558E-4</v>
+        <v>7.3258539852645682E-5</v>
       </c>
     </row>
     <row r="679" spans="1:3" x14ac:dyDescent="0.35">
@@ -11132,7 +11133,7 @@
       </c>
       <c r="C679" s="1">
         <f t="shared" si="10"/>
-        <v>1.2700716683298558E-4</v>
+        <v>7.3258539852645682E-5</v>
       </c>
     </row>
     <row r="680" spans="1:3" x14ac:dyDescent="0.35">
@@ -11144,7 +11145,7 @@
       </c>
       <c r="C680" s="1">
         <f t="shared" si="10"/>
-        <v>1.2700716683298558E-4</v>
+        <v>7.3258539852645682E-5</v>
       </c>
     </row>
     <row r="681" spans="1:3" x14ac:dyDescent="0.35">
@@ -11156,7 +11157,7 @@
       </c>
       <c r="C681" s="1">
         <f t="shared" si="10"/>
-        <v>1.2700716683298558E-4</v>
+        <v>7.3258539852645682E-5</v>
       </c>
     </row>
     <row r="682" spans="1:3" x14ac:dyDescent="0.35">
@@ -11168,7 +11169,7 @@
       </c>
       <c r="C682" s="1">
         <f t="shared" si="10"/>
-        <v>1.2700716683298558E-4</v>
+        <v>7.3258539852645682E-5</v>
       </c>
     </row>
     <row r="683" spans="1:3" x14ac:dyDescent="0.35">
@@ -11180,7 +11181,7 @@
       </c>
       <c r="C683" s="1">
         <f t="shared" si="10"/>
-        <v>1.2700716683298558E-4</v>
+        <v>7.3258539852645682E-5</v>
       </c>
     </row>
     <row r="684" spans="1:3" x14ac:dyDescent="0.35">
@@ -11192,7 +11193,7 @@
       </c>
       <c r="C684" s="1">
         <f t="shared" si="10"/>
-        <v>1.2700716683298558E-4</v>
+        <v>7.3258539852645682E-5</v>
       </c>
     </row>
     <row r="685" spans="1:3" x14ac:dyDescent="0.35">
@@ -11204,7 +11205,7 @@
       </c>
       <c r="C685" s="1">
         <f t="shared" si="10"/>
-        <v>1.2700716683298558E-4</v>
+        <v>7.3258539852645682E-5</v>
       </c>
     </row>
     <row r="686" spans="1:3" x14ac:dyDescent="0.35">
@@ -11216,7 +11217,7 @@
       </c>
       <c r="C686" s="1">
         <f t="shared" si="10"/>
-        <v>1.2700716683298558E-4</v>
+        <v>7.3258539852645682E-5</v>
       </c>
     </row>
     <row r="687" spans="1:3" x14ac:dyDescent="0.35">
@@ -11228,7 +11229,7 @@
       </c>
       <c r="C687" s="1">
         <f t="shared" si="10"/>
-        <v>1.2700716683298558E-4</v>
+        <v>7.3258539852645682E-5</v>
       </c>
     </row>
     <row r="688" spans="1:3" x14ac:dyDescent="0.35">
@@ -11240,7 +11241,7 @@
       </c>
       <c r="C688" s="1">
         <f t="shared" si="10"/>
-        <v>1.2700716683298558E-4</v>
+        <v>7.3258539852645682E-5</v>
       </c>
     </row>
     <row r="689" spans="1:3" x14ac:dyDescent="0.35">
@@ -11252,7 +11253,7 @@
       </c>
       <c r="C689" s="1">
         <f t="shared" si="10"/>
-        <v>1.2700716683298558E-4</v>
+        <v>7.3258539852645682E-5</v>
       </c>
     </row>
     <row r="690" spans="1:3" x14ac:dyDescent="0.35">
@@ -11264,7 +11265,7 @@
       </c>
       <c r="C690" s="1">
         <f t="shared" si="10"/>
-        <v>1.2700716683298558E-4</v>
+        <v>7.3258539852645682E-5</v>
       </c>
     </row>
     <row r="691" spans="1:3" x14ac:dyDescent="0.35">
@@ -11276,7 +11277,7 @@
       </c>
       <c r="C691" s="1">
         <f t="shared" si="10"/>
-        <v>1.2700716683298558E-4</v>
+        <v>7.3258539852645682E-5</v>
       </c>
     </row>
     <row r="692" spans="1:3" x14ac:dyDescent="0.35">
@@ -11288,7 +11289,7 @@
       </c>
       <c r="C692" s="1">
         <f t="shared" si="10"/>
-        <v>1.2700716683298558E-4</v>
+        <v>7.3258539852645682E-5</v>
       </c>
     </row>
     <row r="693" spans="1:3" x14ac:dyDescent="0.35">
@@ -11300,7 +11301,7 @@
       </c>
       <c r="C693" s="1">
         <f t="shared" si="10"/>
-        <v>1.2700716683298558E-4</v>
+        <v>7.3258539852645682E-5</v>
       </c>
     </row>
     <row r="694" spans="1:3" x14ac:dyDescent="0.35">
@@ -11312,7 +11313,7 @@
       </c>
       <c r="C694" s="1">
         <f t="shared" si="10"/>
-        <v>1.2700716683298558E-4</v>
+        <v>7.3258539852645682E-5</v>
       </c>
     </row>
     <row r="695" spans="1:3" x14ac:dyDescent="0.35">
@@ -11324,7 +11325,7 @@
       </c>
       <c r="C695" s="1">
         <f t="shared" si="10"/>
-        <v>1.2700716683298558E-4</v>
+        <v>7.3258539852645682E-5</v>
       </c>
     </row>
     <row r="696" spans="1:3" x14ac:dyDescent="0.35">
@@ -11336,7 +11337,7 @@
       </c>
       <c r="C696" s="1">
         <f t="shared" si="10"/>
-        <v>1.2700716683298558E-4</v>
+        <v>7.3258539852645682E-5</v>
       </c>
     </row>
     <row r="697" spans="1:3" x14ac:dyDescent="0.35">
@@ -11348,7 +11349,7 @@
       </c>
       <c r="C697" s="1">
         <f t="shared" si="10"/>
-        <v>1.2700716683298558E-4</v>
+        <v>7.3258539852645682E-5</v>
       </c>
     </row>
     <row r="698" spans="1:3" x14ac:dyDescent="0.35">
@@ -11360,7 +11361,7 @@
       </c>
       <c r="C698" s="1">
         <f t="shared" si="10"/>
-        <v>1.2700716683298558E-4</v>
+        <v>7.3258539852645682E-5</v>
       </c>
     </row>
     <row r="699" spans="1:3" x14ac:dyDescent="0.35">
@@ -11372,7 +11373,7 @@
       </c>
       <c r="C699" s="1">
         <f t="shared" si="10"/>
-        <v>1.2700716683298558E-4</v>
+        <v>7.3258539852645682E-5</v>
       </c>
     </row>
     <row r="700" spans="1:3" x14ac:dyDescent="0.35">
@@ -11384,7 +11385,7 @@
       </c>
       <c r="C700" s="1">
         <f t="shared" si="10"/>
-        <v>1.2700716683298558E-4</v>
+        <v>7.3258539852645682E-5</v>
       </c>
     </row>
     <row r="701" spans="1:3" x14ac:dyDescent="0.35">
@@ -11396,7 +11397,7 @@
       </c>
       <c r="C701" s="1">
         <f t="shared" si="10"/>
-        <v>1.2700716683298558E-4</v>
+        <v>7.3258539852645682E-5</v>
       </c>
     </row>
     <row r="702" spans="1:3" x14ac:dyDescent="0.35">
@@ -11408,7 +11409,7 @@
       </c>
       <c r="C702" s="1">
         <f t="shared" si="10"/>
-        <v>1.0886328585684478E-4</v>
+        <v>6.2793034159410577E-5</v>
       </c>
     </row>
     <row r="703" spans="1:3" x14ac:dyDescent="0.35">
@@ -11420,7 +11421,7 @@
       </c>
       <c r="C703" s="1">
         <f t="shared" si="10"/>
-        <v>1.0886328585684478E-4</v>
+        <v>6.2793034159410577E-5</v>
       </c>
     </row>
     <row r="704" spans="1:3" x14ac:dyDescent="0.35">
@@ -11432,7 +11433,7 @@
       </c>
       <c r="C704" s="1">
         <f t="shared" si="10"/>
-        <v>1.0886328585684478E-4</v>
+        <v>6.2793034159410577E-5</v>
       </c>
     </row>
     <row r="705" spans="1:3" x14ac:dyDescent="0.35">
@@ -11444,7 +11445,7 @@
       </c>
       <c r="C705" s="1">
         <f t="shared" si="10"/>
-        <v>1.0886328585684478E-4</v>
+        <v>6.2793034159410577E-5</v>
       </c>
     </row>
     <row r="706" spans="1:3" x14ac:dyDescent="0.35">
@@ -11456,7 +11457,7 @@
       </c>
       <c r="C706" s="1">
         <f t="shared" si="10"/>
-        <v>1.0886328585684478E-4</v>
+        <v>6.2793034159410577E-5</v>
       </c>
     </row>
     <row r="707" spans="1:3" x14ac:dyDescent="0.35">
@@ -11467,8 +11468,8 @@
         <v>6</v>
       </c>
       <c r="C707" s="1">
-        <f t="shared" ref="C707:C770" si="11">B707/55115</f>
-        <v>1.0886328585684478E-4</v>
+        <f t="shared" ref="C707:C770" si="11">B707/95552</f>
+        <v>6.2793034159410577E-5</v>
       </c>
     </row>
     <row r="708" spans="1:3" x14ac:dyDescent="0.35">
@@ -11480,7 +11481,7 @@
       </c>
       <c r="C708" s="1">
         <f t="shared" si="11"/>
-        <v>1.0886328585684478E-4</v>
+        <v>6.2793034159410577E-5</v>
       </c>
     </row>
     <row r="709" spans="1:3" x14ac:dyDescent="0.35">
@@ -11492,7 +11493,7 @@
       </c>
       <c r="C709" s="1">
         <f t="shared" si="11"/>
-        <v>1.0886328585684478E-4</v>
+        <v>6.2793034159410577E-5</v>
       </c>
     </row>
     <row r="710" spans="1:3" x14ac:dyDescent="0.35">
@@ -11504,7 +11505,7 @@
       </c>
       <c r="C710" s="1">
         <f t="shared" si="11"/>
-        <v>1.0886328585684478E-4</v>
+        <v>6.2793034159410577E-5</v>
       </c>
     </row>
     <row r="711" spans="1:3" x14ac:dyDescent="0.35">
@@ -11516,7 +11517,7 @@
       </c>
       <c r="C711" s="1">
         <f t="shared" si="11"/>
-        <v>1.0886328585684478E-4</v>
+        <v>6.2793034159410577E-5</v>
       </c>
     </row>
     <row r="712" spans="1:3" x14ac:dyDescent="0.35">
@@ -11528,7 +11529,7 @@
       </c>
       <c r="C712" s="1">
         <f t="shared" si="11"/>
-        <v>1.0886328585684478E-4</v>
+        <v>6.2793034159410577E-5</v>
       </c>
     </row>
     <row r="713" spans="1:3" x14ac:dyDescent="0.35">
@@ -11540,7 +11541,7 @@
       </c>
       <c r="C713" s="1">
         <f t="shared" si="11"/>
-        <v>1.0886328585684478E-4</v>
+        <v>6.2793034159410577E-5</v>
       </c>
     </row>
     <row r="714" spans="1:3" x14ac:dyDescent="0.35">
@@ -11552,7 +11553,7 @@
       </c>
       <c r="C714" s="1">
         <f t="shared" si="11"/>
-        <v>1.0886328585684478E-4</v>
+        <v>6.2793034159410577E-5</v>
       </c>
     </row>
     <row r="715" spans="1:3" x14ac:dyDescent="0.35">
@@ -11564,7 +11565,7 @@
       </c>
       <c r="C715" s="1">
         <f t="shared" si="11"/>
-        <v>1.0886328585684478E-4</v>
+        <v>6.2793034159410577E-5</v>
       </c>
     </row>
     <row r="716" spans="1:3" x14ac:dyDescent="0.35">
@@ -11576,7 +11577,7 @@
       </c>
       <c r="C716" s="1">
         <f t="shared" si="11"/>
-        <v>1.0886328585684478E-4</v>
+        <v>6.2793034159410577E-5</v>
       </c>
     </row>
     <row r="717" spans="1:3" x14ac:dyDescent="0.35">
@@ -11588,7 +11589,7 @@
       </c>
       <c r="C717" s="1">
         <f t="shared" si="11"/>
-        <v>1.0886328585684478E-4</v>
+        <v>6.2793034159410577E-5</v>
       </c>
     </row>
     <row r="718" spans="1:3" x14ac:dyDescent="0.35">
@@ -11600,7 +11601,7 @@
       </c>
       <c r="C718" s="1">
         <f t="shared" si="11"/>
-        <v>1.0886328585684478E-4</v>
+        <v>6.2793034159410577E-5</v>
       </c>
     </row>
     <row r="719" spans="1:3" x14ac:dyDescent="0.35">
@@ -11612,7 +11613,7 @@
       </c>
       <c r="C719" s="1">
         <f t="shared" si="11"/>
-        <v>1.0886328585684478E-4</v>
+        <v>6.2793034159410577E-5</v>
       </c>
     </row>
     <row r="720" spans="1:3" x14ac:dyDescent="0.35">
@@ -11624,7 +11625,7 @@
       </c>
       <c r="C720" s="1">
         <f t="shared" si="11"/>
-        <v>1.0886328585684478E-4</v>
+        <v>6.2793034159410577E-5</v>
       </c>
     </row>
     <row r="721" spans="1:3" x14ac:dyDescent="0.35">
@@ -11636,7 +11637,7 @@
       </c>
       <c r="C721" s="1">
         <f t="shared" si="11"/>
-        <v>1.0886328585684478E-4</v>
+        <v>6.2793034159410577E-5</v>
       </c>
     </row>
     <row r="722" spans="1:3" x14ac:dyDescent="0.35">
@@ -11648,7 +11649,7 @@
       </c>
       <c r="C722" s="1">
         <f t="shared" si="11"/>
-        <v>1.0886328585684478E-4</v>
+        <v>6.2793034159410577E-5</v>
       </c>
     </row>
     <row r="723" spans="1:3" x14ac:dyDescent="0.35">
@@ -11660,7 +11661,7 @@
       </c>
       <c r="C723" s="1">
         <f t="shared" si="11"/>
-        <v>1.0886328585684478E-4</v>
+        <v>6.2793034159410577E-5</v>
       </c>
     </row>
     <row r="724" spans="1:3" x14ac:dyDescent="0.35">
@@ -11672,7 +11673,7 @@
       </c>
       <c r="C724" s="1">
         <f t="shared" si="11"/>
-        <v>1.0886328585684478E-4</v>
+        <v>6.2793034159410577E-5</v>
       </c>
     </row>
     <row r="725" spans="1:3" x14ac:dyDescent="0.35">
@@ -11684,7 +11685,7 @@
       </c>
       <c r="C725" s="1">
         <f t="shared" si="11"/>
-        <v>1.0886328585684478E-4</v>
+        <v>6.2793034159410577E-5</v>
       </c>
     </row>
     <row r="726" spans="1:3" x14ac:dyDescent="0.35">
@@ -11696,7 +11697,7 @@
       </c>
       <c r="C726" s="1">
         <f t="shared" si="11"/>
-        <v>1.0886328585684478E-4</v>
+        <v>6.2793034159410577E-5</v>
       </c>
     </row>
     <row r="727" spans="1:3" x14ac:dyDescent="0.35">
@@ -11708,7 +11709,7 @@
       </c>
       <c r="C727" s="1">
         <f t="shared" si="11"/>
-        <v>1.0886328585684478E-4</v>
+        <v>6.2793034159410577E-5</v>
       </c>
     </row>
     <row r="728" spans="1:3" x14ac:dyDescent="0.35">
@@ -11720,7 +11721,7 @@
       </c>
       <c r="C728" s="1">
         <f t="shared" si="11"/>
-        <v>1.0886328585684478E-4</v>
+        <v>6.2793034159410577E-5</v>
       </c>
     </row>
     <row r="729" spans="1:3" x14ac:dyDescent="0.35">
@@ -11732,7 +11733,7 @@
       </c>
       <c r="C729" s="1">
         <f t="shared" si="11"/>
-        <v>1.0886328585684478E-4</v>
+        <v>6.2793034159410577E-5</v>
       </c>
     </row>
     <row r="730" spans="1:3" x14ac:dyDescent="0.35">
@@ -11744,7 +11745,7 @@
       </c>
       <c r="C730" s="1">
         <f t="shared" si="11"/>
-        <v>1.0886328585684478E-4</v>
+        <v>6.2793034159410577E-5</v>
       </c>
     </row>
     <row r="731" spans="1:3" x14ac:dyDescent="0.35">
@@ -11756,7 +11757,7 @@
       </c>
       <c r="C731" s="1">
         <f t="shared" si="11"/>
-        <v>1.0886328585684478E-4</v>
+        <v>6.2793034159410577E-5</v>
       </c>
     </row>
     <row r="732" spans="1:3" x14ac:dyDescent="0.35">
@@ -11768,7 +11769,7 @@
       </c>
       <c r="C732" s="1">
         <f t="shared" si="11"/>
-        <v>1.0886328585684478E-4</v>
+        <v>6.2793034159410577E-5</v>
       </c>
     </row>
     <row r="733" spans="1:3" x14ac:dyDescent="0.35">
@@ -11780,7 +11781,7 @@
       </c>
       <c r="C733" s="1">
         <f t="shared" si="11"/>
-        <v>1.0886328585684478E-4</v>
+        <v>6.2793034159410577E-5</v>
       </c>
     </row>
     <row r="734" spans="1:3" x14ac:dyDescent="0.35">
@@ -11792,7 +11793,7 @@
       </c>
       <c r="C734" s="1">
         <f t="shared" si="11"/>
-        <v>1.0886328585684478E-4</v>
+        <v>6.2793034159410577E-5</v>
       </c>
     </row>
     <row r="735" spans="1:3" x14ac:dyDescent="0.35">
@@ -11804,7 +11805,7 @@
       </c>
       <c r="C735" s="1">
         <f t="shared" si="11"/>
-        <v>1.0886328585684478E-4</v>
+        <v>6.2793034159410577E-5</v>
       </c>
     </row>
     <row r="736" spans="1:3" x14ac:dyDescent="0.35">
@@ -11816,7 +11817,7 @@
       </c>
       <c r="C736" s="1">
         <f t="shared" si="11"/>
-        <v>1.0886328585684478E-4</v>
+        <v>6.2793034159410577E-5</v>
       </c>
     </row>
     <row r="737" spans="1:3" x14ac:dyDescent="0.35">
@@ -11828,7 +11829,7 @@
       </c>
       <c r="C737" s="1">
         <f t="shared" si="11"/>
-        <v>9.0719404880703979E-5</v>
+        <v>5.2327528466175485E-5</v>
       </c>
     </row>
     <row r="738" spans="1:3" x14ac:dyDescent="0.35">
@@ -11840,7 +11841,7 @@
       </c>
       <c r="C738" s="1">
         <f t="shared" si="11"/>
-        <v>9.0719404880703979E-5</v>
+        <v>5.2327528466175485E-5</v>
       </c>
     </row>
     <row r="739" spans="1:3" x14ac:dyDescent="0.35">
@@ -11852,7 +11853,7 @@
       </c>
       <c r="C739" s="1">
         <f t="shared" si="11"/>
-        <v>9.0719404880703979E-5</v>
+        <v>5.2327528466175485E-5</v>
       </c>
     </row>
     <row r="740" spans="1:3" x14ac:dyDescent="0.35">
@@ -11864,7 +11865,7 @@
       </c>
       <c r="C740" s="1">
         <f t="shared" si="11"/>
-        <v>9.0719404880703979E-5</v>
+        <v>5.2327528466175485E-5</v>
       </c>
     </row>
     <row r="741" spans="1:3" x14ac:dyDescent="0.35">
@@ -11876,7 +11877,7 @@
       </c>
       <c r="C741" s="1">
         <f t="shared" si="11"/>
-        <v>9.0719404880703979E-5</v>
+        <v>5.2327528466175485E-5</v>
       </c>
     </row>
     <row r="742" spans="1:3" x14ac:dyDescent="0.35">
@@ -11888,7 +11889,7 @@
       </c>
       <c r="C742" s="1">
         <f t="shared" si="11"/>
-        <v>9.0719404880703979E-5</v>
+        <v>5.2327528466175485E-5</v>
       </c>
     </row>
     <row r="743" spans="1:3" x14ac:dyDescent="0.35">
@@ -11900,7 +11901,7 @@
       </c>
       <c r="C743" s="1">
         <f t="shared" si="11"/>
-        <v>9.0719404880703979E-5</v>
+        <v>5.2327528466175485E-5</v>
       </c>
     </row>
     <row r="744" spans="1:3" x14ac:dyDescent="0.35">
@@ -11912,7 +11913,7 @@
       </c>
       <c r="C744" s="1">
         <f t="shared" si="11"/>
-        <v>9.0719404880703979E-5</v>
+        <v>5.2327528466175485E-5</v>
       </c>
     </row>
     <row r="745" spans="1:3" x14ac:dyDescent="0.35">
@@ -11924,7 +11925,7 @@
       </c>
       <c r="C745" s="1">
         <f t="shared" si="11"/>
-        <v>9.0719404880703979E-5</v>
+        <v>5.2327528466175485E-5</v>
       </c>
     </row>
     <row r="746" spans="1:3" x14ac:dyDescent="0.35">
@@ -11936,7 +11937,7 @@
       </c>
       <c r="C746" s="1">
         <f t="shared" si="11"/>
-        <v>9.0719404880703979E-5</v>
+        <v>5.2327528466175485E-5</v>
       </c>
     </row>
     <row r="747" spans="1:3" x14ac:dyDescent="0.35">
@@ -11948,7 +11949,7 @@
       </c>
       <c r="C747" s="1">
         <f t="shared" si="11"/>
-        <v>9.0719404880703979E-5</v>
+        <v>5.2327528466175485E-5</v>
       </c>
     </row>
     <row r="748" spans="1:3" x14ac:dyDescent="0.35">
@@ -11960,7 +11961,7 @@
       </c>
       <c r="C748" s="1">
         <f t="shared" si="11"/>
-        <v>9.0719404880703979E-5</v>
+        <v>5.2327528466175485E-5</v>
       </c>
     </row>
     <row r="749" spans="1:3" x14ac:dyDescent="0.35">
@@ -11972,7 +11973,7 @@
       </c>
       <c r="C749" s="1">
         <f t="shared" si="11"/>
-        <v>9.0719404880703979E-5</v>
+        <v>5.2327528466175485E-5</v>
       </c>
     </row>
     <row r="750" spans="1:3" x14ac:dyDescent="0.35">
@@ -11984,7 +11985,7 @@
       </c>
       <c r="C750" s="1">
         <f t="shared" si="11"/>
-        <v>9.0719404880703979E-5</v>
+        <v>5.2327528466175485E-5</v>
       </c>
     </row>
     <row r="751" spans="1:3" x14ac:dyDescent="0.35">
@@ -11996,7 +11997,7 @@
       </c>
       <c r="C751" s="1">
         <f t="shared" si="11"/>
-        <v>9.0719404880703979E-5</v>
+        <v>5.2327528466175485E-5</v>
       </c>
     </row>
     <row r="752" spans="1:3" x14ac:dyDescent="0.35">
@@ -12008,7 +12009,7 @@
       </c>
       <c r="C752" s="1">
         <f t="shared" si="11"/>
-        <v>9.0719404880703979E-5</v>
+        <v>5.2327528466175485E-5</v>
       </c>
     </row>
     <row r="753" spans="1:3" x14ac:dyDescent="0.35">
@@ -12020,7 +12021,7 @@
       </c>
       <c r="C753" s="1">
         <f t="shared" si="11"/>
-        <v>7.2575523904563181E-5</v>
+        <v>4.1862022772940387E-5</v>
       </c>
     </row>
     <row r="754" spans="1:3" x14ac:dyDescent="0.35">
@@ -12032,7 +12033,7 @@
       </c>
       <c r="C754" s="1">
         <f t="shared" si="11"/>
-        <v>7.2575523904563181E-5</v>
+        <v>4.1862022772940387E-5</v>
       </c>
     </row>
     <row r="755" spans="1:3" x14ac:dyDescent="0.35">
@@ -12044,7 +12045,7 @@
       </c>
       <c r="C755" s="1">
         <f t="shared" si="11"/>
-        <v>7.2575523904563181E-5</v>
+        <v>4.1862022772940387E-5</v>
       </c>
     </row>
     <row r="756" spans="1:3" x14ac:dyDescent="0.35">
@@ -12056,7 +12057,7 @@
       </c>
       <c r="C756" s="1">
         <f t="shared" si="11"/>
-        <v>7.2575523904563181E-5</v>
+        <v>4.1862022772940387E-5</v>
       </c>
     </row>
     <row r="757" spans="1:3" x14ac:dyDescent="0.35">
@@ -12068,7 +12069,7 @@
       </c>
       <c r="C757" s="1">
         <f t="shared" si="11"/>
-        <v>7.2575523904563181E-5</v>
+        <v>4.1862022772940387E-5</v>
       </c>
     </row>
     <row r="758" spans="1:3" x14ac:dyDescent="0.35">
@@ -12080,7 +12081,7 @@
       </c>
       <c r="C758" s="1">
         <f t="shared" si="11"/>
-        <v>7.2575523904563181E-5</v>
+        <v>4.1862022772940387E-5</v>
       </c>
     </row>
     <row r="759" spans="1:3" x14ac:dyDescent="0.35">
@@ -12092,7 +12093,7 @@
       </c>
       <c r="C759" s="1">
         <f t="shared" si="11"/>
-        <v>7.2575523904563181E-5</v>
+        <v>4.1862022772940387E-5</v>
       </c>
     </row>
     <row r="760" spans="1:3" x14ac:dyDescent="0.35">
@@ -12104,7 +12105,7 @@
       </c>
       <c r="C760" s="1">
         <f t="shared" si="11"/>
-        <v>7.2575523904563181E-5</v>
+        <v>4.1862022772940387E-5</v>
       </c>
     </row>
     <row r="761" spans="1:3" x14ac:dyDescent="0.35">
@@ -12116,7 +12117,7 @@
       </c>
       <c r="C761" s="1">
         <f t="shared" si="11"/>
-        <v>7.2575523904563181E-5</v>
+        <v>4.1862022772940387E-5</v>
       </c>
     </row>
     <row r="762" spans="1:3" x14ac:dyDescent="0.35">
@@ -12128,7 +12129,7 @@
       </c>
       <c r="C762" s="1">
         <f t="shared" si="11"/>
-        <v>7.2575523904563181E-5</v>
+        <v>4.1862022772940387E-5</v>
       </c>
     </row>
     <row r="763" spans="1:3" x14ac:dyDescent="0.35">
@@ -12140,7 +12141,7 @@
       </c>
       <c r="C763" s="1">
         <f t="shared" si="11"/>
-        <v>7.2575523904563181E-5</v>
+        <v>4.1862022772940387E-5</v>
       </c>
     </row>
     <row r="764" spans="1:3" x14ac:dyDescent="0.35">
@@ -12152,7 +12153,7 @@
       </c>
       <c r="C764" s="1">
         <f t="shared" si="11"/>
-        <v>7.2575523904563181E-5</v>
+        <v>4.1862022772940387E-5</v>
       </c>
     </row>
     <row r="765" spans="1:3" x14ac:dyDescent="0.35">
@@ -12164,7 +12165,7 @@
       </c>
       <c r="C765" s="1">
         <f t="shared" si="11"/>
-        <v>5.4431642928422389E-5</v>
+        <v>3.1396517079705289E-5</v>
       </c>
     </row>
     <row r="766" spans="1:3" x14ac:dyDescent="0.35">
@@ -12176,7 +12177,7 @@
       </c>
       <c r="C766" s="1">
         <f t="shared" si="11"/>
-        <v>5.4431642928422389E-5</v>
+        <v>3.1396517079705289E-5</v>
       </c>
     </row>
     <row r="767" spans="1:3" x14ac:dyDescent="0.35">
@@ -12188,7 +12189,7 @@
       </c>
       <c r="C767" s="1">
         <f t="shared" si="11"/>
-        <v>5.4431642928422389E-5</v>
+        <v>3.1396517079705289E-5</v>
       </c>
     </row>
     <row r="768" spans="1:3" x14ac:dyDescent="0.35">
@@ -12200,7 +12201,7 @@
       </c>
       <c r="C768" s="1">
         <f t="shared" si="11"/>
-        <v>5.4431642928422389E-5</v>
+        <v>3.1396517079705289E-5</v>
       </c>
     </row>
     <row r="769" spans="1:3" x14ac:dyDescent="0.35">
@@ -12212,7 +12213,7 @@
       </c>
       <c r="C769" s="1">
         <f t="shared" si="11"/>
-        <v>5.4431642928422389E-5</v>
+        <v>3.1396517079705289E-5</v>
       </c>
     </row>
     <row r="770" spans="1:3" x14ac:dyDescent="0.35">
@@ -12224,7 +12225,7 @@
       </c>
       <c r="C770" s="1">
         <f t="shared" si="11"/>
-        <v>5.4431642928422389E-5</v>
+        <v>3.1396517079705289E-5</v>
       </c>
     </row>
     <row r="771" spans="1:3" x14ac:dyDescent="0.35">
@@ -12235,8 +12236,8 @@
         <v>3</v>
       </c>
       <c r="C771" s="1">
-        <f t="shared" ref="C771:C834" si="12">B771/55115</f>
-        <v>5.4431642928422389E-5</v>
+        <f t="shared" ref="C771:C834" si="12">B771/95552</f>
+        <v>3.1396517079705289E-5</v>
       </c>
     </row>
     <row r="772" spans="1:3" x14ac:dyDescent="0.35">
@@ -12248,7 +12249,7 @@
       </c>
       <c r="C772" s="1">
         <f t="shared" si="12"/>
-        <v>5.4431642928422389E-5</v>
+        <v>3.1396517079705289E-5</v>
       </c>
     </row>
     <row r="773" spans="1:3" x14ac:dyDescent="0.35">
@@ -12260,7 +12261,7 @@
       </c>
       <c r="C773" s="1">
         <f t="shared" si="12"/>
-        <v>5.4431642928422389E-5</v>
+        <v>3.1396517079705289E-5</v>
       </c>
     </row>
     <row r="774" spans="1:3" x14ac:dyDescent="0.35">
@@ -12272,7 +12273,7 @@
       </c>
       <c r="C774" s="1">
         <f t="shared" si="12"/>
-        <v>5.4431642928422389E-5</v>
+        <v>3.1396517079705289E-5</v>
       </c>
     </row>
     <row r="775" spans="1:3" x14ac:dyDescent="0.35">
@@ -12284,7 +12285,7 @@
       </c>
       <c r="C775" s="1">
         <f t="shared" si="12"/>
-        <v>5.4431642928422389E-5</v>
+        <v>3.1396517079705289E-5</v>
       </c>
     </row>
     <row r="776" spans="1:3" x14ac:dyDescent="0.35">
@@ -12296,7 +12297,7 @@
       </c>
       <c r="C776" s="1">
         <f t="shared" si="12"/>
-        <v>3.628776195228159E-5</v>
+        <v>2.0931011386470194E-5</v>
       </c>
     </row>
     <row r="777" spans="1:3" x14ac:dyDescent="0.35">
@@ -12308,7 +12309,7 @@
       </c>
       <c r="C777" s="1">
         <f t="shared" si="12"/>
-        <v>3.628776195228159E-5</v>
+        <v>2.0931011386470194E-5</v>
       </c>
     </row>
     <row r="778" spans="1:3" x14ac:dyDescent="0.35">
@@ -12320,7 +12321,7 @@
       </c>
       <c r="C778" s="1">
         <f t="shared" si="12"/>
-        <v>3.628776195228159E-5</v>
+        <v>2.0931011386470194E-5</v>
       </c>
     </row>
     <row r="779" spans="1:3" x14ac:dyDescent="0.35">
@@ -12332,7 +12333,7 @@
       </c>
       <c r="C779" s="1">
         <f t="shared" si="12"/>
-        <v>3.628776195228159E-5</v>
+        <v>2.0931011386470194E-5</v>
       </c>
     </row>
     <row r="780" spans="1:3" x14ac:dyDescent="0.35">
@@ -12344,7 +12345,7 @@
       </c>
       <c r="C780" s="1">
         <f t="shared" si="12"/>
-        <v>3.628776195228159E-5</v>
+        <v>2.0931011386470194E-5</v>
       </c>
     </row>
     <row r="781" spans="1:3" x14ac:dyDescent="0.35">
@@ -12356,7 +12357,7 @@
       </c>
       <c r="C781" s="1">
         <f t="shared" si="12"/>
-        <v>3.628776195228159E-5</v>
+        <v>2.0931011386470194E-5</v>
       </c>
     </row>
     <row r="782" spans="1:3" x14ac:dyDescent="0.35">
@@ -12368,7 +12369,7 @@
       </c>
       <c r="C782" s="1">
         <f t="shared" si="12"/>
-        <v>3.628776195228159E-5</v>
+        <v>2.0931011386470194E-5</v>
       </c>
     </row>
     <row r="783" spans="1:3" x14ac:dyDescent="0.35">
@@ -12380,7 +12381,7 @@
       </c>
       <c r="C783" s="1">
         <f t="shared" si="12"/>
-        <v>3.628776195228159E-5</v>
+        <v>2.0931011386470194E-5</v>
       </c>
     </row>
     <row r="784" spans="1:3" x14ac:dyDescent="0.35">
@@ -12392,7 +12393,7 @@
       </c>
       <c r="C784" s="1">
         <f t="shared" si="12"/>
-        <v>3.628776195228159E-5</v>
+        <v>2.0931011386470194E-5</v>
       </c>
     </row>
     <row r="785" spans="1:3" x14ac:dyDescent="0.35">
@@ -12404,7 +12405,7 @@
       </c>
       <c r="C785" s="1">
         <f t="shared" si="12"/>
-        <v>3.628776195228159E-5</v>
+        <v>2.0931011386470194E-5</v>
       </c>
     </row>
     <row r="786" spans="1:3" x14ac:dyDescent="0.35">
@@ -12416,7 +12417,7 @@
       </c>
       <c r="C786" s="1">
         <f t="shared" si="12"/>
-        <v>3.628776195228159E-5</v>
+        <v>2.0931011386470194E-5</v>
       </c>
     </row>
     <row r="787" spans="1:3" x14ac:dyDescent="0.35">
@@ -12428,7 +12429,7 @@
       </c>
       <c r="C787" s="1">
         <f t="shared" si="12"/>
-        <v>3.628776195228159E-5</v>
+        <v>2.0931011386470194E-5</v>
       </c>
     </row>
     <row r="788" spans="1:3" x14ac:dyDescent="0.35">
@@ -12440,7 +12441,7 @@
       </c>
       <c r="C788" s="1">
         <f t="shared" si="12"/>
-        <v>3.628776195228159E-5</v>
+        <v>2.0931011386470194E-5</v>
       </c>
     </row>
     <row r="789" spans="1:3" x14ac:dyDescent="0.35">
@@ -12452,7 +12453,7 @@
       </c>
       <c r="C789" s="1">
         <f t="shared" si="12"/>
-        <v>3.628776195228159E-5</v>
+        <v>2.0931011386470194E-5</v>
       </c>
     </row>
     <row r="790" spans="1:3" x14ac:dyDescent="0.35">
@@ -12464,7 +12465,7 @@
       </c>
       <c r="C790" s="1">
         <f t="shared" si="12"/>
-        <v>3.628776195228159E-5</v>
+        <v>2.0931011386470194E-5</v>
       </c>
     </row>
     <row r="791" spans="1:3" x14ac:dyDescent="0.35">
@@ -12476,7 +12477,7 @@
       </c>
       <c r="C791" s="1">
         <f t="shared" si="12"/>
-        <v>3.628776195228159E-5</v>
+        <v>2.0931011386470194E-5</v>
       </c>
     </row>
     <row r="792" spans="1:3" x14ac:dyDescent="0.35">
@@ -12488,7 +12489,7 @@
       </c>
       <c r="C792" s="1">
         <f t="shared" si="12"/>
-        <v>3.628776195228159E-5</v>
+        <v>2.0931011386470194E-5</v>
       </c>
     </row>
     <row r="793" spans="1:3" x14ac:dyDescent="0.35">
@@ -12500,7 +12501,7 @@
       </c>
       <c r="C793" s="1">
         <f t="shared" si="12"/>
-        <v>1.8143880976140795E-5</v>
+        <v>1.0465505693235097E-5</v>
       </c>
     </row>
     <row r="794" spans="1:3" x14ac:dyDescent="0.35">
@@ -12512,7 +12513,7 @@
       </c>
       <c r="C794" s="1">
         <f t="shared" si="12"/>
-        <v>1.8143880976140795E-5</v>
+        <v>1.0465505693235097E-5</v>
       </c>
     </row>
     <row r="795" spans="1:3" x14ac:dyDescent="0.35">
@@ -12524,7 +12525,7 @@
       </c>
       <c r="C795" s="1">
         <f t="shared" si="12"/>
-        <v>1.8143880976140795E-5</v>
+        <v>1.0465505693235097E-5</v>
       </c>
     </row>
     <row r="796" spans="1:3" x14ac:dyDescent="0.35">
@@ -12536,7 +12537,7 @@
       </c>
       <c r="C796" s="1">
         <f t="shared" si="12"/>
-        <v>1.8143880976140795E-5</v>
+        <v>1.0465505693235097E-5</v>
       </c>
     </row>
     <row r="797" spans="1:3" x14ac:dyDescent="0.35">
@@ -12548,7 +12549,7 @@
       </c>
       <c r="C797" s="1">
         <f t="shared" si="12"/>
-        <v>1.8143880976140795E-5</v>
+        <v>1.0465505693235097E-5</v>
       </c>
     </row>
     <row r="798" spans="1:3" x14ac:dyDescent="0.35">
@@ -12560,7 +12561,7 @@
       </c>
       <c r="C798" s="1">
         <f t="shared" si="12"/>
-        <v>1.8143880976140795E-5</v>
+        <v>1.0465505693235097E-5</v>
       </c>
     </row>
     <row r="799" spans="1:3" x14ac:dyDescent="0.35">
@@ -12572,7 +12573,7 @@
       </c>
       <c r="C799" s="1">
         <f t="shared" si="12"/>
-        <v>1.8143880976140795E-5</v>
+        <v>1.0465505693235097E-5</v>
       </c>
     </row>
     <row r="800" spans="1:3" x14ac:dyDescent="0.35">
@@ -12584,7 +12585,7 @@
       </c>
       <c r="C800" s="1">
         <f t="shared" si="12"/>
-        <v>1.8143880976140795E-5</v>
+        <v>1.0465505693235097E-5</v>
       </c>
     </row>
     <row r="801" spans="1:3" x14ac:dyDescent="0.35">
@@ -12596,7 +12597,7 @@
       </c>
       <c r="C801" s="1">
         <f t="shared" si="12"/>
-        <v>1.8143880976140795E-5</v>
+        <v>1.0465505693235097E-5</v>
       </c>
     </row>
     <row r="802" spans="1:3" x14ac:dyDescent="0.35">
@@ -12608,7 +12609,7 @@
       </c>
       <c r="C802" s="1">
         <f t="shared" si="12"/>
-        <v>1.8143880976140795E-5</v>
+        <v>1.0465505693235097E-5</v>
       </c>
     </row>
     <row r="803" spans="1:3" x14ac:dyDescent="0.35">
@@ -12620,7 +12621,7 @@
       </c>
       <c r="C803" s="1">
         <f t="shared" si="12"/>
-        <v>1.8143880976140795E-5</v>
+        <v>1.0465505693235097E-5</v>
       </c>
     </row>
     <row r="804" spans="1:3" x14ac:dyDescent="0.35">
@@ -12632,7 +12633,7 @@
       </c>
       <c r="C804" s="1">
         <f t="shared" si="12"/>
-        <v>1.8143880976140795E-5</v>
+        <v>1.0465505693235097E-5</v>
       </c>
     </row>
     <row r="805" spans="1:3" x14ac:dyDescent="0.35">
@@ -12644,7 +12645,7 @@
       </c>
       <c r="C805" s="1">
         <f t="shared" si="12"/>
-        <v>1.8143880976140795E-5</v>
+        <v>1.0465505693235097E-5</v>
       </c>
     </row>
     <row r="806" spans="1:3" x14ac:dyDescent="0.35">
@@ -12656,7 +12657,7 @@
       </c>
       <c r="C806" s="1">
         <f t="shared" si="12"/>
-        <v>1.8143880976140795E-5</v>
+        <v>1.0465505693235097E-5</v>
       </c>
     </row>
     <row r="807" spans="1:3" x14ac:dyDescent="0.35">
@@ -12668,7 +12669,7 @@
       </c>
       <c r="C807" s="1">
         <f t="shared" si="12"/>
-        <v>1.8143880976140795E-5</v>
+        <v>1.0465505693235097E-5</v>
       </c>
     </row>
     <row r="808" spans="1:3" x14ac:dyDescent="0.35">
@@ -12680,7 +12681,7 @@
       </c>
       <c r="C808" s="1">
         <f t="shared" si="12"/>
-        <v>1.8143880976140795E-5</v>
+        <v>1.0465505693235097E-5</v>
       </c>
     </row>
     <row r="809" spans="1:3" x14ac:dyDescent="0.35">
@@ -12692,7 +12693,7 @@
       </c>
       <c r="C809" s="1">
         <f t="shared" si="12"/>
-        <v>1.8143880976140795E-5</v>
+        <v>1.0465505693235097E-5</v>
       </c>
     </row>
     <row r="810" spans="1:3" x14ac:dyDescent="0.35">
@@ -12704,7 +12705,7 @@
       </c>
       <c r="C810" s="1">
         <f t="shared" si="12"/>
-        <v>1.8143880976140795E-5</v>
+        <v>1.0465505693235097E-5</v>
       </c>
     </row>
     <row r="811" spans="1:3" x14ac:dyDescent="0.35">
@@ -12716,7 +12717,7 @@
       </c>
       <c r="C811" s="1">
         <f t="shared" si="12"/>
-        <v>1.8143880976140795E-5</v>
+        <v>1.0465505693235097E-5</v>
       </c>
     </row>
     <row r="812" spans="1:3" x14ac:dyDescent="0.35">
@@ -12728,7 +12729,7 @@
       </c>
       <c r="C812" s="1">
         <f t="shared" si="12"/>
-        <v>1.8143880976140795E-5</v>
+        <v>1.0465505693235097E-5</v>
       </c>
     </row>
     <row r="813" spans="1:3" x14ac:dyDescent="0.35">
@@ -12740,7 +12741,7 @@
       </c>
       <c r="C813" s="1">
         <f t="shared" si="12"/>
-        <v>1.8143880976140795E-5</v>
+        <v>1.0465505693235097E-5</v>
       </c>
     </row>
     <row r="814" spans="1:3" x14ac:dyDescent="0.35">
@@ -12752,7 +12753,7 @@
       </c>
       <c r="C814" s="1">
         <f t="shared" si="12"/>
-        <v>1.8143880976140795E-5</v>
+        <v>1.0465505693235097E-5</v>
       </c>
     </row>
     <row r="815" spans="1:3" x14ac:dyDescent="0.35">
@@ -12764,7 +12765,7 @@
       </c>
       <c r="C815" s="1">
         <f t="shared" si="12"/>
-        <v>1.8143880976140795E-5</v>
+        <v>1.0465505693235097E-5</v>
       </c>
     </row>
     <row r="816" spans="1:3" x14ac:dyDescent="0.35">
@@ -12776,7 +12777,7 @@
       </c>
       <c r="C816" s="1">
         <f t="shared" si="12"/>
-        <v>1.8143880976140795E-5</v>
+        <v>1.0465505693235097E-5</v>
       </c>
     </row>
     <row r="817" spans="1:3" x14ac:dyDescent="0.35">
@@ -12788,7 +12789,7 @@
       </c>
       <c r="C817" s="1">
         <f t="shared" si="12"/>
-        <v>1.8143880976140795E-5</v>
+        <v>1.0465505693235097E-5</v>
       </c>
     </row>
     <row r="818" spans="1:3" x14ac:dyDescent="0.35">
@@ -12800,7 +12801,7 @@
       </c>
       <c r="C818" s="1">
         <f t="shared" si="12"/>
-        <v>1.8143880976140795E-5</v>
+        <v>1.0465505693235097E-5</v>
       </c>
     </row>
     <row r="819" spans="1:3" x14ac:dyDescent="0.35">
@@ -12812,7 +12813,7 @@
       </c>
       <c r="C819" s="1">
         <f t="shared" si="12"/>
-        <v>1.8143880976140795E-5</v>
+        <v>1.0465505693235097E-5</v>
       </c>
     </row>
     <row r="820" spans="1:3" x14ac:dyDescent="0.35">
@@ -12824,7 +12825,7 @@
       </c>
       <c r="C820" s="1">
         <f t="shared" si="12"/>
-        <v>1.8143880976140795E-5</v>
+        <v>1.0465505693235097E-5</v>
       </c>
     </row>
     <row r="821" spans="1:3" x14ac:dyDescent="0.35">
@@ -12836,7 +12837,7 @@
       </c>
       <c r="C821" s="1">
         <f t="shared" si="12"/>
-        <v>1.8143880976140795E-5</v>
+        <v>1.0465505693235097E-5</v>
       </c>
     </row>
     <row r="822" spans="1:3" x14ac:dyDescent="0.35">
@@ -12848,7 +12849,7 @@
       </c>
       <c r="C822" s="1">
         <f t="shared" si="12"/>
-        <v>1.8143880976140795E-5</v>
+        <v>1.0465505693235097E-5</v>
       </c>
     </row>
     <row r="823" spans="1:3" x14ac:dyDescent="0.35">
@@ -12860,7 +12861,7 @@
       </c>
       <c r="C823" s="1">
         <f t="shared" si="12"/>
-        <v>1.8143880976140795E-5</v>
+        <v>1.0465505693235097E-5</v>
       </c>
     </row>
     <row r="824" spans="1:3" x14ac:dyDescent="0.35">
@@ -12872,7 +12873,7 @@
       </c>
       <c r="C824" s="1">
         <f t="shared" si="12"/>
-        <v>1.8143880976140795E-5</v>
+        <v>1.0465505693235097E-5</v>
       </c>
     </row>
     <row r="825" spans="1:3" x14ac:dyDescent="0.35">
@@ -12884,7 +12885,7 @@
       </c>
       <c r="C825" s="1">
         <f t="shared" si="12"/>
-        <v>1.8143880976140795E-5</v>
+        <v>1.0465505693235097E-5</v>
       </c>
     </row>
     <row r="826" spans="1:3" x14ac:dyDescent="0.35">
@@ -12896,7 +12897,7 @@
       </c>
       <c r="C826" s="1">
         <f t="shared" si="12"/>
-        <v>1.8143880976140795E-5</v>
+        <v>1.0465505693235097E-5</v>
       </c>
     </row>
     <row r="827" spans="1:3" x14ac:dyDescent="0.35">
@@ -12908,7 +12909,7 @@
       </c>
       <c r="C827" s="1">
         <f t="shared" si="12"/>
-        <v>1.8143880976140795E-5</v>
+        <v>1.0465505693235097E-5</v>
       </c>
     </row>
     <row r="828" spans="1:3" x14ac:dyDescent="0.35">
@@ -12920,7 +12921,7 @@
       </c>
       <c r="C828" s="1">
         <f t="shared" si="12"/>
-        <v>1.8143880976140795E-5</v>
+        <v>1.0465505693235097E-5</v>
       </c>
     </row>
     <row r="829" spans="1:3" x14ac:dyDescent="0.35">
@@ -12932,7 +12933,7 @@
       </c>
       <c r="C829" s="1">
         <f t="shared" si="12"/>
-        <v>1.8143880976140795E-5</v>
+        <v>1.0465505693235097E-5</v>
       </c>
     </row>
     <row r="830" spans="1:3" x14ac:dyDescent="0.35">
@@ -12944,7 +12945,7 @@
       </c>
       <c r="C830" s="1">
         <f t="shared" si="12"/>
-        <v>1.8143880976140795E-5</v>
+        <v>1.0465505693235097E-5</v>
       </c>
     </row>
     <row r="831" spans="1:3" x14ac:dyDescent="0.35">
@@ -12956,7 +12957,7 @@
       </c>
       <c r="C831" s="1">
         <f t="shared" si="12"/>
-        <v>1.8143880976140795E-5</v>
+        <v>1.0465505693235097E-5</v>
       </c>
     </row>
     <row r="832" spans="1:3" x14ac:dyDescent="0.35">
@@ -12968,7 +12969,7 @@
       </c>
       <c r="C832" s="1">
         <f t="shared" si="12"/>
-        <v>1.8143880976140795E-5</v>
+        <v>1.0465505693235097E-5</v>
       </c>
     </row>
     <row r="833" spans="1:3" x14ac:dyDescent="0.35">
@@ -12980,7 +12981,7 @@
       </c>
       <c r="C833" s="1">
         <f t="shared" si="12"/>
-        <v>1.8143880976140795E-5</v>
+        <v>1.0465505693235097E-5</v>
       </c>
     </row>
     <row r="834" spans="1:3" x14ac:dyDescent="0.35">
@@ -12992,7 +12993,7 @@
       </c>
       <c r="C834" s="1">
         <f t="shared" si="12"/>
-        <v>1.8143880976140795E-5</v>
+        <v>1.0465505693235097E-5</v>
       </c>
     </row>
     <row r="835" spans="1:3" x14ac:dyDescent="0.35">
@@ -13003,8 +13004,8 @@
         <v>1</v>
       </c>
       <c r="C835" s="1">
-        <f t="shared" ref="C835:C862" si="13">B835/55115</f>
-        <v>1.8143880976140795E-5</v>
+        <f t="shared" ref="C835:C862" si="13">B835/95552</f>
+        <v>1.0465505693235097E-5</v>
       </c>
     </row>
     <row r="836" spans="1:3" x14ac:dyDescent="0.35">
@@ -13016,7 +13017,7 @@
       </c>
       <c r="C836" s="1">
         <f t="shared" si="13"/>
-        <v>1.8143880976140795E-5</v>
+        <v>1.0465505693235097E-5</v>
       </c>
     </row>
     <row r="837" spans="1:3" x14ac:dyDescent="0.35">
@@ -13028,7 +13029,7 @@
       </c>
       <c r="C837" s="1">
         <f t="shared" si="13"/>
-        <v>1.8143880976140795E-5</v>
+        <v>1.0465505693235097E-5</v>
       </c>
     </row>
     <row r="838" spans="1:3" x14ac:dyDescent="0.35">
@@ -13040,7 +13041,7 @@
       </c>
       <c r="C838" s="1">
         <f t="shared" si="13"/>
-        <v>1.8143880976140795E-5</v>
+        <v>1.0465505693235097E-5</v>
       </c>
     </row>
     <row r="839" spans="1:3" x14ac:dyDescent="0.35">
@@ -13052,7 +13053,7 @@
       </c>
       <c r="C839" s="1">
         <f t="shared" si="13"/>
-        <v>1.8143880976140795E-5</v>
+        <v>1.0465505693235097E-5</v>
       </c>
     </row>
     <row r="840" spans="1:3" x14ac:dyDescent="0.35">
@@ -13064,7 +13065,7 @@
       </c>
       <c r="C840" s="1">
         <f t="shared" si="13"/>
-        <v>1.8143880976140795E-5</v>
+        <v>1.0465505693235097E-5</v>
       </c>
     </row>
     <row r="841" spans="1:3" x14ac:dyDescent="0.35">
@@ -13076,7 +13077,7 @@
       </c>
       <c r="C841" s="1">
         <f t="shared" si="13"/>
-        <v>1.8143880976140795E-5</v>
+        <v>1.0465505693235097E-5</v>
       </c>
     </row>
     <row r="842" spans="1:3" x14ac:dyDescent="0.35">
@@ -13088,7 +13089,7 @@
       </c>
       <c r="C842" s="1">
         <f t="shared" si="13"/>
-        <v>1.8143880976140795E-5</v>
+        <v>1.0465505693235097E-5</v>
       </c>
     </row>
     <row r="843" spans="1:3" x14ac:dyDescent="0.35">
@@ -13100,7 +13101,7 @@
       </c>
       <c r="C843" s="1">
         <f t="shared" si="13"/>
-        <v>1.8143880976140795E-5</v>
+        <v>1.0465505693235097E-5</v>
       </c>
     </row>
     <row r="844" spans="1:3" x14ac:dyDescent="0.35">
@@ -13112,7 +13113,7 @@
       </c>
       <c r="C844" s="1">
         <f t="shared" si="13"/>
-        <v>1.8143880976140795E-5</v>
+        <v>1.0465505693235097E-5</v>
       </c>
     </row>
     <row r="845" spans="1:3" x14ac:dyDescent="0.35">
@@ -13124,7 +13125,7 @@
       </c>
       <c r="C845" s="1">
         <f t="shared" si="13"/>
-        <v>1.8143880976140795E-5</v>
+        <v>1.0465505693235097E-5</v>
       </c>
     </row>
     <row r="846" spans="1:3" x14ac:dyDescent="0.35">
@@ -13136,7 +13137,7 @@
       </c>
       <c r="C846" s="1">
         <f t="shared" si="13"/>
-        <v>1.8143880976140795E-5</v>
+        <v>1.0465505693235097E-5</v>
       </c>
     </row>
     <row r="847" spans="1:3" x14ac:dyDescent="0.35">
@@ -13148,7 +13149,7 @@
       </c>
       <c r="C847" s="1">
         <f t="shared" si="13"/>
-        <v>1.8143880976140795E-5</v>
+        <v>1.0465505693235097E-5</v>
       </c>
     </row>
     <row r="848" spans="1:3" x14ac:dyDescent="0.35">
@@ -13160,7 +13161,7 @@
       </c>
       <c r="C848" s="1">
         <f t="shared" si="13"/>
-        <v>1.8143880976140795E-5</v>
+        <v>1.0465505693235097E-5</v>
       </c>
     </row>
     <row r="849" spans="1:3" x14ac:dyDescent="0.35">
@@ -13172,7 +13173,7 @@
       </c>
       <c r="C849" s="1">
         <f t="shared" si="13"/>
-        <v>1.8143880976140795E-5</v>
+        <v>1.0465505693235097E-5</v>
       </c>
     </row>
     <row r="850" spans="1:3" x14ac:dyDescent="0.35">
@@ -13184,7 +13185,7 @@
       </c>
       <c r="C850" s="1">
         <f t="shared" si="13"/>
-        <v>1.8143880976140795E-5</v>
+        <v>1.0465505693235097E-5</v>
       </c>
     </row>
     <row r="851" spans="1:3" x14ac:dyDescent="0.35">
@@ -13196,7 +13197,7 @@
       </c>
       <c r="C851" s="1">
         <f t="shared" si="13"/>
-        <v>1.8143880976140795E-5</v>
+        <v>1.0465505693235097E-5</v>
       </c>
     </row>
     <row r="852" spans="1:3" x14ac:dyDescent="0.35">
@@ -13208,7 +13209,7 @@
       </c>
       <c r="C852" s="1">
         <f t="shared" si="13"/>
-        <v>1.8143880976140795E-5</v>
+        <v>1.0465505693235097E-5</v>
       </c>
     </row>
     <row r="853" spans="1:3" x14ac:dyDescent="0.35">
@@ -13220,7 +13221,7 @@
       </c>
       <c r="C853" s="1">
         <f t="shared" si="13"/>
-        <v>1.8143880976140795E-5</v>
+        <v>1.0465505693235097E-5</v>
       </c>
     </row>
     <row r="854" spans="1:3" x14ac:dyDescent="0.35">
@@ -13232,7 +13233,7 @@
       </c>
       <c r="C854" s="1">
         <f t="shared" si="13"/>
-        <v>1.8143880976140795E-5</v>
+        <v>1.0465505693235097E-5</v>
       </c>
     </row>
     <row r="855" spans="1:3" x14ac:dyDescent="0.35">
@@ -13244,7 +13245,7 @@
       </c>
       <c r="C855" s="1">
         <f t="shared" si="13"/>
-        <v>1.8143880976140795E-5</v>
+        <v>1.0465505693235097E-5</v>
       </c>
     </row>
     <row r="856" spans="1:3" x14ac:dyDescent="0.35">
@@ -13256,7 +13257,7 @@
       </c>
       <c r="C856" s="1">
         <f t="shared" si="13"/>
-        <v>1.8143880976140795E-5</v>
+        <v>1.0465505693235097E-5</v>
       </c>
     </row>
     <row r="857" spans="1:3" x14ac:dyDescent="0.35">
@@ -13268,7 +13269,7 @@
       </c>
       <c r="C857" s="1">
         <f t="shared" si="13"/>
-        <v>1.8143880976140795E-5</v>
+        <v>1.0465505693235097E-5</v>
       </c>
     </row>
     <row r="858" spans="1:3" x14ac:dyDescent="0.35">
@@ -13280,7 +13281,7 @@
       </c>
       <c r="C858" s="1">
         <f t="shared" si="13"/>
-        <v>1.8143880976140795E-5</v>
+        <v>1.0465505693235097E-5</v>
       </c>
     </row>
     <row r="859" spans="1:3" x14ac:dyDescent="0.35">
@@ -13292,7 +13293,7 @@
       </c>
       <c r="C859" s="1">
         <f t="shared" si="13"/>
-        <v>1.8143880976140795E-5</v>
+        <v>1.0465505693235097E-5</v>
       </c>
     </row>
     <row r="860" spans="1:3" x14ac:dyDescent="0.35">
@@ -13304,7 +13305,7 @@
       </c>
       <c r="C860" s="1">
         <f t="shared" si="13"/>
-        <v>1.8143880976140795E-5</v>
+        <v>1.0465505693235097E-5</v>
       </c>
     </row>
     <row r="861" spans="1:3" x14ac:dyDescent="0.35">
@@ -13316,7 +13317,7 @@
       </c>
       <c r="C861" s="1">
         <f t="shared" si="13"/>
-        <v>1.8143880976140795E-5</v>
+        <v>1.0465505693235097E-5</v>
       </c>
     </row>
     <row r="862" spans="1:3" x14ac:dyDescent="0.35">
@@ -13328,7 +13329,7 @@
       </c>
       <c r="C862" s="1">
         <f t="shared" si="13"/>
-        <v>1.8143880976140795E-5</v>
+        <v>1.0465505693235097E-5</v>
       </c>
     </row>
   </sheetData>
